--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\PycharmProjects\pythonProject40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D5F34B-DF88-471D-81C0-601E2A495DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66DB9D-BD32-4AA7-90F5-C74A35C017F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29:U30"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -963,18 +963,14 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="14">
-        <v>2</v>
-      </c>
+      <c r="O2" s="14"/>
       <c r="P2" s="14">
         <v>3</v>
       </c>
       <c r="Q2">
         <v>4</v>
       </c>
-      <c r="R2" s="14">
-        <v>5</v>
-      </c>
+      <c r="R2" s="14"/>
       <c r="S2" s="14">
         <v>6</v>
       </c>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="673">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -1990,55 +1990,52 @@
     <t>Альфа-банк</t>
   </si>
   <si>
-    <t>ссылка 1</t>
-  </si>
-  <si>
-    <t>ссылка 5</t>
-  </si>
-  <si>
-    <t>ссылка 9</t>
-  </si>
-  <si>
-    <t>ссылка 13</t>
-  </si>
-  <si>
-    <t>ссылка 2</t>
-  </si>
-  <si>
-    <t>ссылка 6</t>
-  </si>
-  <si>
-    <t>ссылка 10</t>
-  </si>
-  <si>
-    <t>ссылка 14</t>
-  </si>
-  <si>
-    <t>ссылка 7</t>
-  </si>
-  <si>
-    <t>ссылка 11</t>
-  </si>
-  <si>
-    <t>ссылка 15</t>
-  </si>
-  <si>
-    <t>ссылка 3</t>
-  </si>
-  <si>
-    <t>ссылка 8</t>
-  </si>
-  <si>
-    <t>ссылка 12</t>
-  </si>
-  <si>
-    <t>ссылка 16</t>
-  </si>
-  <si>
-    <t>ссылка 4</t>
-  </si>
-  <si>
-    <t>ссылка 17</t>
+    <t>https://disk.360.yandex.ru/i/U5gO8f3cv2EHfA</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/CmP6SkPRox59fA</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/uCJwClDreXfe5A</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/ex9va7cmbh9RNQ</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/JQyVPwmboOQwiQ</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/P3_VlD-M571PNQ</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/1DLbKEP-rd8rrg</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/5aGuaITBpuO4Og</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/w2yzLnkUrfpXYw</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/5QaJ_tKGbD4kUQ</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/EaSMqa_JEGHwRw</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/EYMrr2EjhyGECg</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/hO52xwIPsJFq7Q</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/TtVOLtx3mk4YXQ</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/NF3v8hgE3i6ycA</t>
+  </si>
+  <si>
+    <t>https://disk.360.yandex.ru/i/sfTmvS7ew7nNRA</t>
   </si>
   <si>
     <t>Сценарий</t>
@@ -2060,7 +2057,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2105,6 +2102,14 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2195,7 +2200,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2273,6 +2278,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -15458,16 +15469,16 @@
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="27" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="27" t="s">
         <v>654</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="27" t="s">
         <v>655</v>
       </c>
     </row>
@@ -15475,66 +15486,73 @@
       <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="27" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="21" t="s">
-        <v>660</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>661</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>663</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>664</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>665</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>668</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="D2"/>
+    <hyperlink r:id="rId4" ref="E2"/>
+    <hyperlink r:id="rId5" ref="B3"/>
+    <hyperlink r:id="rId6" ref="C3"/>
+    <hyperlink r:id="rId7" ref="D3"/>
+    <hyperlink r:id="rId8" ref="E3"/>
+    <hyperlink r:id="rId9" ref="B5"/>
+    <hyperlink r:id="rId10" ref="C5"/>
+    <hyperlink r:id="rId11" ref="D5"/>
+    <hyperlink r:id="rId12" ref="E5"/>
+    <hyperlink r:id="rId13" ref="B6"/>
+    <hyperlink r:id="rId14" ref="C6"/>
+    <hyperlink r:id="rId15" ref="D6"/>
+    <hyperlink r:id="rId16" ref="E6"/>
+  </hyperlinks>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -15553,10 +15571,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>669</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="2">
@@ -15564,7 +15582,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3">
@@ -15572,7 +15590,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5">
@@ -15580,7 +15598,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6">
@@ -15588,7 +15606,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="681">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -642,598 +642,598 @@
     <t>Новосибирск</t>
   </si>
   <si>
-    <t>Евсеева Ирина Станиславовна</t>
-  </si>
-  <si>
-    <t>https://t.me/irlikeve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пензенская область </t>
+    <t>Заградский Денис Александрович</t>
+  </si>
+  <si>
+    <t>@chekosadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставропольский край </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставрополь </t>
+  </si>
+  <si>
+    <t>Евсеева Ольга Александровна</t>
+  </si>
+  <si>
+    <t>@Ollyy22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новосибирск </t>
+  </si>
+  <si>
+    <t>Ежков Виталий Николаевич</t>
+  </si>
+  <si>
+    <t>@EzhkovVi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тверская область </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тверь </t>
+  </si>
+  <si>
+    <t>Екимова Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>@Taslen1319</t>
+  </si>
+  <si>
+    <t>Новгородская область</t>
+  </si>
+  <si>
+    <t>Великий Новгород</t>
+  </si>
+  <si>
+    <t>Екимовский Дмитрий Викторович</t>
+  </si>
+  <si>
+    <t>@DvEseti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Челябинская область </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Челябинск </t>
+  </si>
+  <si>
+    <t>Ермаков Данила Николаевич</t>
+  </si>
+  <si>
+    <t>@ploxorosho0</t>
+  </si>
+  <si>
+    <t>Орловская область</t>
+  </si>
+  <si>
+    <t>Орёл</t>
+  </si>
+  <si>
+    <t>Ермакова Валентина Петровна</t>
+  </si>
+  <si>
+    <t>https://t.me/valentine253</t>
+  </si>
+  <si>
+    <t>Желязко Дмитрий Викторович</t>
+  </si>
+  <si>
+    <t>@Marik1917</t>
+  </si>
+  <si>
+    <t>Жердев Артем Евгеньевич</t>
+  </si>
+  <si>
+    <t>@Artem_Zherdev</t>
+  </si>
+  <si>
+    <t>Раменское</t>
+  </si>
+  <si>
+    <t>Жеребненко Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>https://t.me/uuuuttaa</t>
+  </si>
+  <si>
+    <t>Белгородская область</t>
+  </si>
+  <si>
+    <t>Белгород</t>
+  </si>
+  <si>
+    <t>Жолобова Любовь Александровна</t>
+  </si>
+  <si>
+    <t>https://t.me/LyubaZhol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Волгоград </t>
+  </si>
+  <si>
+    <t>Загороднева Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>@tatyanashelkova88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приволжский </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самара </t>
+  </si>
+  <si>
+    <t>Зубащенко Анастасия Геннадьевна</t>
+  </si>
+  <si>
+    <t>@molly898</t>
+  </si>
+  <si>
+    <t>Ильенко Марина АНдреевна</t>
+  </si>
+  <si>
+    <t>@toxicGrinder</t>
+  </si>
+  <si>
+    <t>Новосибирская область</t>
+  </si>
+  <si>
+    <t>Курочкина Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>@khikhi99</t>
+  </si>
+  <si>
+    <t>Казакова Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t>https://t.me/nas888tya</t>
+  </si>
+  <si>
+    <t>Калинина Ольга Игоревна</t>
+  </si>
+  <si>
+    <t>https://t.me/olgakalinina2103</t>
+  </si>
+  <si>
+    <t>Калугина Ирина Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Kalinkairinochka </t>
+  </si>
+  <si>
+    <t>Московская область, Волоколамск</t>
+  </si>
+  <si>
+    <t>Волоколамск</t>
+  </si>
+  <si>
+    <t>Калягина Ирина Геннадиевна</t>
+  </si>
+  <si>
+    <t>@ikalyagina</t>
+  </si>
+  <si>
+    <t>Карагезьян Артур Каренович</t>
+  </si>
+  <si>
+    <t>@Arturko86</t>
+  </si>
+  <si>
+    <t>Карпов Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t>@DmitriyKarpovl</t>
+  </si>
+  <si>
+    <t>Кузбасс</t>
+  </si>
+  <si>
+    <t>Новокузнецк</t>
+  </si>
+  <si>
+    <t>Кастрикин Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>@d_m_i_t_r_y_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алтайский край </t>
+  </si>
+  <si>
+    <t>Барнаул</t>
+  </si>
+  <si>
+    <t>Кашинина Оксана Брониславовна</t>
+  </si>
+  <si>
+    <t>https://t.me/oksy_kaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Бурятия </t>
+  </si>
+  <si>
+    <t>Улан-Удэ</t>
+  </si>
+  <si>
+    <t>Квас Ольга Михайловна</t>
+  </si>
+  <si>
+    <t>@klasit</t>
+  </si>
+  <si>
+    <t>Северо-Западный федеральный округ</t>
+  </si>
+  <si>
+    <t>Кильдюшевская Надежда Викторовна</t>
+  </si>
+  <si>
+    <t>https://t.me/Kil_N_V</t>
+  </si>
+  <si>
+    <t>Кирилина Ольга Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://t.me/okirilina</t>
+  </si>
+  <si>
+    <t>СЗФО</t>
+  </si>
+  <si>
+    <t>Клевакин Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>@Dmitriy_agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свердловская обл. </t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>Ковганов Михаил Олегович</t>
+  </si>
+  <si>
+    <t>@TereNNNnnn</t>
+  </si>
+  <si>
+    <t>Крым</t>
+  </si>
+  <si>
+    <t>Евпатория</t>
+  </si>
+  <si>
+    <t>Козулина Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>+79179331863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краснодарский край </t>
+  </si>
+  <si>
+    <t>Сочи</t>
+  </si>
+  <si>
+    <t>Колодкина Александра Андреевна</t>
+  </si>
+  <si>
+    <t>@alexanlun</t>
+  </si>
+  <si>
+    <t>Комиссаров Максим Олегович</t>
+  </si>
+  <si>
+    <t>@Wild_Fear_Of_Ants</t>
+  </si>
+  <si>
+    <t>Концевая Вера Николаевна</t>
+  </si>
+  <si>
+    <t>@hupokritka</t>
+  </si>
+  <si>
+    <t>город Орёл</t>
+  </si>
+  <si>
+    <t>Коробко Марина Александровна</t>
+  </si>
+  <si>
+    <t>tarte_tropezienne</t>
+  </si>
+  <si>
+    <t>Кортез Коринна Александровна</t>
+  </si>
+  <si>
+    <t>@k_korinna</t>
+  </si>
+  <si>
+    <t>Косырева Мария Михайловна</t>
+  </si>
+  <si>
+    <t>@pUn1ntended</t>
+  </si>
+  <si>
+    <t>Кревских Кирилл Алексеевич</t>
+  </si>
+  <si>
+    <t>@Serpenthide</t>
+  </si>
+  <si>
+    <t>Тамбов</t>
+  </si>
+  <si>
+    <t>Круглова Елена Викторовна</t>
+  </si>
+  <si>
+    <t>https://t.me/ElenKruglova</t>
+  </si>
+  <si>
+    <t>Новосибирский</t>
+  </si>
+  <si>
+    <t>Кудрявцев Максим Юрьевич</t>
+  </si>
+  <si>
+    <t>@biryzovimedved</t>
+  </si>
+  <si>
+    <t>Кузнецова Екатерина Ильдусовна</t>
+  </si>
+  <si>
+    <t>https://t.me/bagira_marks</t>
+  </si>
+  <si>
+    <t>Кузьмина Анна Викторовна</t>
+  </si>
+  <si>
+    <t>@KuzAncha</t>
+  </si>
+  <si>
+    <t>Купцова Ирина Витальевна</t>
+  </si>
+  <si>
+    <t>@DeReVnYa22</t>
+  </si>
+  <si>
+    <t>Оренбургская область</t>
+  </si>
+  <si>
+    <t>Оренбург</t>
+  </si>
+  <si>
+    <t>Курган Андрей Вячеславович</t>
+  </si>
+  <si>
+    <t>https://t.me/Antonio</t>
+  </si>
+  <si>
+    <t>, Башкирия</t>
+  </si>
+  <si>
+    <t>Лагунов Денис Александрович</t>
+  </si>
+  <si>
+    <t>@den_is2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пермский край </t>
+  </si>
+  <si>
+    <t>Пермь</t>
+  </si>
+  <si>
+    <t>Лебедева Алёна Витальевна</t>
+  </si>
+  <si>
+    <t>@alena7469</t>
+  </si>
+  <si>
+    <t>Лебедева Марина Николаевна</t>
+  </si>
+  <si>
+    <t>@marybalt</t>
+  </si>
+  <si>
+    <t>Лебедева ольга сергеевна</t>
+  </si>
+  <si>
+    <t>@olga29serg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижегородская область </t>
+  </si>
+  <si>
+    <t>Лебедева Светлана Игоревна</t>
+  </si>
+  <si>
+    <t>@Wildworld_lalalalalala</t>
+  </si>
+  <si>
+    <t>Томская обл.</t>
+  </si>
+  <si>
+    <t>Левина Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>https://t.me/OLga17o</t>
+  </si>
+  <si>
+    <t>Левченко Наталья Николаевна</t>
+  </si>
+  <si>
+    <t>@Nata2928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ульяновская область </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Димитровград </t>
+  </si>
+  <si>
+    <t>Лигачева Дарья Михайловна</t>
+  </si>
+  <si>
+    <t>@dashuta_net</t>
+  </si>
+  <si>
+    <t>Литвинова Ольга Юрьевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@olyalit2013 </t>
+  </si>
+  <si>
+    <t>Лобко Ксения Александровна</t>
+  </si>
+  <si>
+    <t>https://t.me/Kseniaa555</t>
+  </si>
+  <si>
+    <t>Рязань</t>
+  </si>
+  <si>
+    <t>Лобырев Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>https://t.me/ Serg_Grover</t>
+  </si>
+  <si>
+    <t>Калужская область</t>
+  </si>
+  <si>
+    <t>Калуга</t>
+  </si>
+  <si>
+    <t>Ломова Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t>@hamlaai</t>
+  </si>
+  <si>
+    <t>Лукина Баира Баировна</t>
+  </si>
+  <si>
+    <t>@karseret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иркутская область </t>
+  </si>
+  <si>
+    <t>Усть-Ордынский</t>
+  </si>
+  <si>
+    <t>Луковкина Елена Владимировна</t>
+  </si>
+  <si>
+    <t>@lenalukovkina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ульяновская область</t>
+  </si>
+  <si>
+    <t>Ульяновск</t>
+  </si>
+  <si>
+    <t>Лындин Никита Михайлович</t>
+  </si>
+  <si>
+    <t>@Ksilby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Химки </t>
+  </si>
+  <si>
+    <t>Львов Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>https://t.me/LexLvov</t>
+  </si>
+  <si>
+    <t>Малафеева Ирина Константиновна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t.me/irisha23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ростовская область </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ростов-на-Дону </t>
+  </si>
+  <si>
+    <t>Малахов Артем Алексеевич</t>
+  </si>
+  <si>
+    <t>https://t.me/Artxde</t>
+  </si>
+  <si>
+    <t>Алтайский край</t>
+  </si>
+  <si>
+    <t>Марьина Елизавета Дмитриевна</t>
+  </si>
+  <si>
+    <t>@lama_377</t>
+  </si>
+  <si>
+    <t>Матвеенко Данил Вячеславович</t>
+  </si>
+  <si>
+    <t>https://t.me/prpdbne</t>
+  </si>
+  <si>
+    <t>Забайкальский край</t>
+  </si>
+  <si>
+    <t>Краснокаменск</t>
+  </si>
+  <si>
+    <t>Матузник Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>https://t.me/IrinaMatu</t>
+  </si>
+  <si>
+    <t>Западно-Сибирский</t>
+  </si>
+  <si>
+    <t>Маханов артем викторович</t>
+  </si>
+  <si>
+    <t>https://t.me/Oneioltopp</t>
+  </si>
+  <si>
+    <t>Мельникова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>https://t.me/MelTaniaNikova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сосновый Бор </t>
+  </si>
+  <si>
+    <t>Мещерякова Анастасия Анатольевна</t>
+  </si>
+  <si>
+    <t>@vershkova</t>
+  </si>
+  <si>
+    <t>Пензенская область</t>
   </si>
   <si>
     <t>Пенза</t>
   </si>
   <si>
-    <t>Евсеева Ольга Александровна</t>
-  </si>
-  <si>
-    <t>@Ollyy22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новосибирск </t>
-  </si>
-  <si>
-    <t>Ежков Виталий Николаевич</t>
-  </si>
-  <si>
-    <t>@EzhkovVi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тверская область </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тверь </t>
-  </si>
-  <si>
-    <t>Екимова Елена Алексеевна</t>
-  </si>
-  <si>
-    <t>@Taslen1319</t>
-  </si>
-  <si>
-    <t>Новгородская область</t>
-  </si>
-  <si>
-    <t>Великий Новгород</t>
-  </si>
-  <si>
-    <t>Екимовский Дмитрий Викторович</t>
-  </si>
-  <si>
-    <t>@DvEseti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Челябинская область </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Челябинск </t>
-  </si>
-  <si>
-    <t>Ермаков Данила Николаевич</t>
-  </si>
-  <si>
-    <t>@ploxorosho0</t>
-  </si>
-  <si>
-    <t>Орловская область</t>
-  </si>
-  <si>
-    <t>Орёл</t>
-  </si>
-  <si>
-    <t>Ермакова Валентина Петровна</t>
-  </si>
-  <si>
-    <t>https://t.me/valentine253</t>
-  </si>
-  <si>
-    <t>Желязко Дмитрий Викторович</t>
-  </si>
-  <si>
-    <t>@Marik1917</t>
-  </si>
-  <si>
-    <t>Жердев Артем Евгеньевич</t>
-  </si>
-  <si>
-    <t>@Artem_Zherdev</t>
-  </si>
-  <si>
-    <t>Раменское</t>
-  </si>
-  <si>
-    <t>Жеребненко Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>https://t.me/uuuuttaa</t>
-  </si>
-  <si>
-    <t>Белгородская область</t>
-  </si>
-  <si>
-    <t>Белгород</t>
-  </si>
-  <si>
-    <t>Жолобова Любовь Александровна</t>
-  </si>
-  <si>
-    <t>https://t.me/LyubaZhol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Волгоград </t>
-  </si>
-  <si>
-    <t>Загороднева Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>@tatyanashelkova88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приволжский </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Самара </t>
-  </si>
-  <si>
-    <t>Зубащенко Анастасия Геннадьевна</t>
-  </si>
-  <si>
-    <t>@molly898</t>
-  </si>
-  <si>
-    <t>Ильенко Марина АНдреевна</t>
-  </si>
-  <si>
-    <t>@toxicGrinder</t>
-  </si>
-  <si>
-    <t>Новосибирская область</t>
-  </si>
-  <si>
-    <t>Ильинов Виктор Иванович</t>
-  </si>
-  <si>
-    <t>@Bytwh</t>
-  </si>
-  <si>
-    <t>Псковская область</t>
-  </si>
-  <si>
-    <t>Великие Луки</t>
-  </si>
-  <si>
-    <t>Казакова Анастасия Алексеевна</t>
-  </si>
-  <si>
-    <t>https://t.me/nas888tya</t>
-  </si>
-  <si>
-    <t>Калинина Ольга Игоревна</t>
-  </si>
-  <si>
-    <t>https://t.me/olgakalinina2103</t>
-  </si>
-  <si>
-    <t>Калугина Ирина Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Kalinkairinochka </t>
-  </si>
-  <si>
-    <t>Московская область, Волоколамск</t>
-  </si>
-  <si>
-    <t>Волоколамск</t>
-  </si>
-  <si>
-    <t>Калягина Ирина Геннадиевна</t>
-  </si>
-  <si>
-    <t>@ikalyagina</t>
-  </si>
-  <si>
-    <t>Карагезьян Артур Каренович</t>
-  </si>
-  <si>
-    <t>@Arturko86</t>
-  </si>
-  <si>
-    <t>Карпов Дмитрий Владимирович</t>
-  </si>
-  <si>
-    <t>@DmitriyKarpovl</t>
-  </si>
-  <si>
-    <t>Кузбасс</t>
-  </si>
-  <si>
-    <t>Новокузнецк</t>
-  </si>
-  <si>
-    <t>Кастрикин Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t>@d_m_i_t_r_y_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алтайский край </t>
-  </si>
-  <si>
-    <t>Барнаул</t>
-  </si>
-  <si>
-    <t>Кашинина Оксана Брониславовна</t>
-  </si>
-  <si>
-    <t>https://t.me/oksy_kaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Бурятия </t>
-  </si>
-  <si>
-    <t>Улан-Удэ</t>
-  </si>
-  <si>
-    <t>Квас Ольга Михайловна</t>
-  </si>
-  <si>
-    <t>@klasit</t>
-  </si>
-  <si>
-    <t>Северо-Западный федеральный округ</t>
-  </si>
-  <si>
-    <t>Кильдюшевская Надежда Викторовна</t>
-  </si>
-  <si>
-    <t>https://t.me/Kil_N_V</t>
-  </si>
-  <si>
-    <t>Кирилина Ольга Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://t.me/okirilina</t>
-  </si>
-  <si>
-    <t>СЗФО</t>
-  </si>
-  <si>
-    <t>Клевакин Дмитрий Алексеевич</t>
-  </si>
-  <si>
-    <t>@Dmitriy_agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свердловская обл. </t>
-  </si>
-  <si>
-    <t>Екатеринбург</t>
-  </si>
-  <si>
-    <t>Ковганов Михаил Олегович</t>
-  </si>
-  <si>
-    <t>@TereNNNnnn</t>
-  </si>
-  <si>
-    <t>Крым</t>
-  </si>
-  <si>
-    <t>Евпатория</t>
-  </si>
-  <si>
-    <t>Козулина Ольга Сергеевна</t>
-  </si>
-  <si>
-    <t>+79179331863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Краснодарский край </t>
-  </si>
-  <si>
-    <t>Сочи</t>
-  </si>
-  <si>
-    <t>Колодкина Александра Андреевна</t>
-  </si>
-  <si>
-    <t>@alexanlun</t>
-  </si>
-  <si>
-    <t>Комиссаров Максим Олегович</t>
-  </si>
-  <si>
-    <t>@Wild_Fear_Of_Ants</t>
-  </si>
-  <si>
-    <t>Концевая Вера Николаевна</t>
-  </si>
-  <si>
-    <t>@hupokritka</t>
-  </si>
-  <si>
-    <t>город Орёл</t>
-  </si>
-  <si>
-    <t>Коробко Марина Александровна</t>
-  </si>
-  <si>
-    <t>tarte_tropezienne</t>
-  </si>
-  <si>
-    <t>Кортез Коринна Александровна</t>
-  </si>
-  <si>
-    <t>@k_korinna</t>
-  </si>
-  <si>
-    <t>Косырева Мария Михайловна</t>
-  </si>
-  <si>
-    <t>@pUn1ntended</t>
-  </si>
-  <si>
-    <t>Кревских Кирилл Алексеевич</t>
-  </si>
-  <si>
-    <t>@Serpenthide</t>
-  </si>
-  <si>
-    <t>Тамбов</t>
-  </si>
-  <si>
-    <t>Круглова Елена Викторовна</t>
-  </si>
-  <si>
-    <t>https://t.me/ElenKruglova</t>
-  </si>
-  <si>
-    <t>Новосибирский</t>
-  </si>
-  <si>
-    <t>Кудрявцев Максим Юрьевич</t>
-  </si>
-  <si>
-    <t>@biryzovimedved</t>
-  </si>
-  <si>
-    <t>Кузнецова Екатерина Ильдусовна</t>
-  </si>
-  <si>
-    <t>https://t.me/bagira_marks</t>
-  </si>
-  <si>
-    <t>Кузьмина Анна Викторовна</t>
-  </si>
-  <si>
-    <t>@KuzAncha</t>
-  </si>
-  <si>
-    <t>Купцова Ирина Витальевна</t>
-  </si>
-  <si>
-    <t>@DeReVnYa22</t>
-  </si>
-  <si>
-    <t>Оренбургская область</t>
-  </si>
-  <si>
-    <t>Оренбург</t>
-  </si>
-  <si>
-    <t>Курган Андрей Вячеславович</t>
-  </si>
-  <si>
-    <t>https://t.me/Antonio</t>
-  </si>
-  <si>
-    <t>, Башкирия</t>
-  </si>
-  <si>
-    <t>Лагунов Денис Александрович</t>
-  </si>
-  <si>
-    <t>@den_is2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пермский край </t>
-  </si>
-  <si>
-    <t>Пермь</t>
-  </si>
-  <si>
-    <t>Лебедева Алёна Витальевна</t>
-  </si>
-  <si>
-    <t>@alena7469</t>
-  </si>
-  <si>
-    <t>Лебедева Марина Николаевна</t>
-  </si>
-  <si>
-    <t>@marybalt</t>
-  </si>
-  <si>
-    <t>Лебедева ольга сергеевна</t>
-  </si>
-  <si>
-    <t>@olga29serg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нижегородская область </t>
-  </si>
-  <si>
-    <t>Лебедева Светлана Игоревна</t>
-  </si>
-  <si>
-    <t>@Wildworld_lalalalalala</t>
-  </si>
-  <si>
-    <t>Томская обл.</t>
-  </si>
-  <si>
-    <t>Левина Ольга Николаевна</t>
-  </si>
-  <si>
-    <t>https://t.me/OLga17o</t>
-  </si>
-  <si>
-    <t>Левченко Наталья Николаевна</t>
-  </si>
-  <si>
-    <t>@Nata2928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ульяновская область </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Димитровград </t>
-  </si>
-  <si>
-    <t>Лигачева Дарья Михайловна</t>
-  </si>
-  <si>
-    <t>@dashuta_net</t>
-  </si>
-  <si>
-    <t>Литвинова Ольга Юрьевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@olyalit2013 </t>
-  </si>
-  <si>
-    <t>Лобко Ксения Александровна</t>
-  </si>
-  <si>
-    <t>https://t.me/Kseniaa555</t>
-  </si>
-  <si>
-    <t>Рязань</t>
-  </si>
-  <si>
-    <t>Лобырев Сергей Сергеевич</t>
-  </si>
-  <si>
-    <t>https://t.me/ Serg_Grover</t>
-  </si>
-  <si>
-    <t>Калужская область</t>
-  </si>
-  <si>
-    <t>Калуга</t>
-  </si>
-  <si>
-    <t>Ломова Анастасия Алексеевна</t>
-  </si>
-  <si>
-    <t>@hamlaai</t>
-  </si>
-  <si>
-    <t>Лукина Баира Баировна</t>
-  </si>
-  <si>
-    <t>@karseret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иркутская область </t>
-  </si>
-  <si>
-    <t>Усть-Ордынский</t>
-  </si>
-  <si>
-    <t>Луковкина Елена Владимировна</t>
-  </si>
-  <si>
-    <t>@lenalukovkina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ульяновская область</t>
-  </si>
-  <si>
-    <t>Ульяновск</t>
-  </si>
-  <si>
-    <t>Лындин Никита Михайлович</t>
-  </si>
-  <si>
-    <t>@Ksilby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Химки </t>
-  </si>
-  <si>
-    <t>Львов Александр Анатольевич</t>
-  </si>
-  <si>
-    <t>https://t.me/LexLvov</t>
-  </si>
-  <si>
-    <t>Малафеева Ирина Константиновна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t.me/irisha23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ростовская область </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ростов-на-Дону </t>
-  </si>
-  <si>
-    <t>Малахов Артем Алексеевич</t>
-  </si>
-  <si>
-    <t>https://t.me/Artxde</t>
-  </si>
-  <si>
-    <t>Алтайский край</t>
-  </si>
-  <si>
-    <t>Марьина Елизавета Дмитриевна</t>
-  </si>
-  <si>
-    <t>@lama_377</t>
-  </si>
-  <si>
-    <t>Матвеенко Данил Вячеславович</t>
-  </si>
-  <si>
-    <t>https://t.me/prpdbne</t>
-  </si>
-  <si>
-    <t>Забайкальский край</t>
-  </si>
-  <si>
-    <t>Краснокаменск</t>
-  </si>
-  <si>
-    <t>Матузник Ирина Николаевна</t>
-  </si>
-  <si>
-    <t>https://t.me/IrinaMatu</t>
-  </si>
-  <si>
-    <t>Западно-Сибирский</t>
-  </si>
-  <si>
-    <t>Маханов артем викторович</t>
-  </si>
-  <si>
-    <t>https://t.me/Oneioltopp</t>
-  </si>
-  <si>
-    <t>Мельникова Татьяна Владимировна</t>
-  </si>
-  <si>
-    <t>https://t.me/MelTaniaNikova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сосновый Бор </t>
-  </si>
-  <si>
-    <t>Мещерякова Анастасия Анатольевна</t>
-  </si>
-  <si>
-    <t>@vershkova</t>
-  </si>
-  <si>
-    <t>Пензенская область</t>
-  </si>
-  <si>
-    <t>Миркин Олег Игоревич</t>
-  </si>
-  <si>
-    <t>@Olegmirru</t>
+    <t>Обухова Надежда Алексеевна</t>
+  </si>
+  <si>
+    <t>https://t.me/@Obuhova_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удмуртская Республика </t>
   </si>
   <si>
     <t>Мирсабурова Лаура Мухамед-Алиевна</t>
@@ -1326,10 +1326,13 @@
     <t>@aglo_n</t>
   </si>
   <si>
-    <t>Одинцов Дмитрий Георгиевич</t>
-  </si>
-  <si>
-    <t>https://t.me/oddim17</t>
+    <t>Мачков Денис Викторович</t>
+  </si>
+  <si>
+    <t>@DanMachkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Россия </t>
   </si>
   <si>
     <t>Орехова Ирина Дмитриевна</t>
@@ -1789,6 +1792,9 @@
   </si>
   <si>
     <t>@ildarmotion</t>
+  </si>
+  <si>
+    <t>Выбыл</t>
   </si>
   <si>
     <t>Хисматова Лениза Ильдусовна</t>
@@ -1976,6 +1982,24 @@
   </si>
   <si>
     <t>t.me/IgorFilippov_02</t>
+  </si>
+  <si>
+    <t>Волосов Юрий Алексеевич</t>
+  </si>
+  <si>
+    <t>https://t.me/@YurVol71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">город Москва </t>
+  </si>
+  <si>
+    <t>Сапожников Александр Дмитриевич</t>
+  </si>
+  <si>
+    <t>@rzevskiyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Омская Область </t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2200,7 +2224,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2278,6 +2302,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2658,7 +2688,7 @@
         <v>19.0</v>
       </c>
       <c r="I2" s="14">
-        <f t="shared" ref="I2:I208" si="1">COUNTIF(J2:M2, "Да")+COUNTIF(J2:M2, "Запас")</f>
+        <f t="shared" ref="I2:I48" si="1">COUNTIF(J2:M2, "Да")+COUNTIF(J2:M2, "Запас")</f>
         <v>3</v>
       </c>
       <c r="J2" s="13" t="s">
@@ -2833,7 +2863,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -2906,7 +2936,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3019,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>48</v>
@@ -3030,8 +3060,12 @@
       <c r="M7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="15"/>
+      <c r="N7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="P7" s="16" t="s">
         <v>33</v>
       </c>
@@ -4161,7 +4195,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>27</v>
@@ -4172,8 +4206,12 @@
       <c r="M25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="N25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P25" s="13" t="s">
         <v>40</v>
       </c>
@@ -4469,8 +4507,8 @@
       <c r="N30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O30" s="13" t="s">
-        <v>32</v>
+      <c r="O30" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="P30" s="24" t="s">
         <v>33</v>
@@ -5086,8 +5124,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>39</v>
+      <c r="J40" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>39</v>
@@ -5098,8 +5136,12 @@
       <c r="M40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
+      <c r="N40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
@@ -5603,11 +5645,11 @@
       <c r="A49" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>210</v>
       </c>
       <c r="C49" s="14">
-        <v>8.9530222721E10</v>
+        <v>8.9197329022E10</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>23</v>
@@ -5619,17 +5661,16 @@
         <v>212</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H49" s="14">
-        <v>24.0</v>
-      </c>
-      <c r="I49" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>34.0</v>
+      </c>
+      <c r="I49" s="28">
+        <v>4.0</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>27</v>
@@ -5638,10 +5679,14 @@
         <v>27</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P49" s="13" t="s">
         <v>40</v>
       </c>
@@ -5687,7 +5732,7 @@
         <v>51.0</v>
       </c>
       <c r="I50" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I50:I62" si="2">COUNTIF(J50:M50, "Да")+COUNTIF(J50:M50, "Запас")</f>
         <v>2</v>
       </c>
       <c r="J50" s="13" t="s">
@@ -5741,7 +5786,7 @@
         <v>43.0</v>
       </c>
       <c r="I51" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J51" s="13" t="s">
@@ -5803,7 +5848,7 @@
         <v>39.0</v>
       </c>
       <c r="I52" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J52" s="13" t="s">
@@ -5865,7 +5910,7 @@
         <v>46.0</v>
       </c>
       <c r="I53" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J53" s="13" t="s">
@@ -5919,7 +5964,7 @@
         <v>20.0</v>
       </c>
       <c r="I54" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J54" s="13" t="s">
@@ -5973,7 +6018,7 @@
         <v>38.0</v>
       </c>
       <c r="I55" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J55" s="13" t="s">
@@ -6039,7 +6084,7 @@
         <v>44.0</v>
       </c>
       <c r="I56" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J56" s="13" t="s">
@@ -6093,7 +6138,7 @@
         <v>47.0</v>
       </c>
       <c r="I57" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J57" s="13" t="s">
@@ -6159,7 +6204,7 @@
         <v>35.0</v>
       </c>
       <c r="I58" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J58" s="13" t="s">
@@ -6213,7 +6258,7 @@
         <v>25.0</v>
       </c>
       <c r="I59" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J59" s="13" t="s">
@@ -6275,7 +6320,7 @@
         <v>37.0</v>
       </c>
       <c r="I60" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J60" s="13" t="s">
@@ -6329,7 +6374,7 @@
         <v>28.0</v>
       </c>
       <c r="I61" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J61" s="13" t="s">
@@ -6395,7 +6440,7 @@
         <v>19.0</v>
       </c>
       <c r="I62" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J62" s="13" t="s">
@@ -6439,26 +6484,25 @@
         <v>256</v>
       </c>
       <c r="C63" s="14">
-        <v>8.9602250948E10</v>
+        <v>8.9819760959E10</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H63" s="14">
-        <v>52.0</v>
-      </c>
-      <c r="I63" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>51.0</v>
+      </c>
+      <c r="I63" s="27">
+        <v>4.0</v>
       </c>
       <c r="J63" s="13" t="s">
         <v>27</v>
@@ -6467,7 +6511,7 @@
         <v>27</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>27</v>
@@ -6499,10 +6543,10 @@
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C64" s="14">
         <v>8.9151088299E10</v>
@@ -6523,7 +6567,7 @@
         <v>29.0</v>
       </c>
       <c r="I64" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I64:I114" si="3">COUNTIF(J64:M64, "Да")+COUNTIF(J64:M64, "Запас")</f>
         <v>3</v>
       </c>
       <c r="J64" s="13" t="s">
@@ -6557,10 +6601,10 @@
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C65" s="14">
         <v>8.985992443E10</v>
@@ -6581,7 +6625,7 @@
         <v>40.0</v>
       </c>
       <c r="I65" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J65" s="13" t="s">
@@ -6623,10 +6667,10 @@
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C66" s="14">
         <v>8.926124638E10</v>
@@ -6635,10 +6679,10 @@
         <v>23</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>26</v>
@@ -6647,7 +6691,7 @@
         <v>55.0</v>
       </c>
       <c r="I66" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J66" s="13" t="s">
@@ -6681,10 +6725,10 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C67" s="14">
         <v>8.9919333296E10</v>
@@ -6705,7 +6749,7 @@
         <v>40.0</v>
       </c>
       <c r="I67" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J67" s="13" t="s">
@@ -6747,10 +6791,10 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C68" s="14">
         <v>8.9251702749E10</v>
@@ -6771,7 +6815,7 @@
         <v>39.0</v>
       </c>
       <c r="I68" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J68" s="13" t="s">
@@ -6809,10 +6853,10 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C69" s="14">
         <v>8.9130729982E10</v>
@@ -6821,10 +6865,10 @@
         <v>23</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>38</v>
@@ -6833,7 +6877,7 @@
         <v>49.0</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J69" s="13" t="s">
@@ -6853,8 +6897,8 @@
       <c r="P69" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q69" s="13" t="s">
-        <v>32</v>
+      <c r="Q69" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
@@ -6867,10 +6911,10 @@
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C70" s="14">
         <v>8.9132640662E10</v>
@@ -6879,10 +6923,10 @@
         <v>23</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>38</v>
@@ -6891,7 +6935,7 @@
         <v>36.0</v>
       </c>
       <c r="I70" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J70" s="13" t="s">
@@ -6929,10 +6973,10 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C71" s="14">
         <v>8.9247517592E10</v>
@@ -6941,10 +6985,10 @@
         <v>23</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>26</v>
@@ -6953,7 +6997,7 @@
         <v>27.0</v>
       </c>
       <c r="I71" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J71" s="13" t="s">
@@ -6991,10 +7035,10 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C72" s="14">
         <v>8.964479124E10</v>
@@ -7003,7 +7047,7 @@
         <v>52</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>147</v>
@@ -7015,7 +7059,7 @@
         <v>46.0</v>
       </c>
       <c r="I72" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J72" s="13" t="s">
@@ -7057,10 +7101,10 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C73" s="14">
         <v>8.9112770365E10</v>
@@ -7081,7 +7125,7 @@
         <v>41.0</v>
       </c>
       <c r="I73" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J73" s="13" t="s">
@@ -7119,10 +7163,10 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C74" s="14">
         <v>8.9687946825E10</v>
@@ -7131,7 +7175,7 @@
         <v>23</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>147</v>
@@ -7143,7 +7187,7 @@
         <v>39.0</v>
       </c>
       <c r="I74" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J74" s="13" t="s">
@@ -7181,10 +7225,10 @@
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C75" s="14">
         <v>8.9527350033E10</v>
@@ -7193,10 +7237,10 @@
         <v>23</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>38</v>
@@ -7205,7 +7249,7 @@
         <v>32.0</v>
       </c>
       <c r="I75" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J75" s="13" t="s">
@@ -7247,10 +7291,10 @@
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C76" s="14">
         <v>8.9785537466E10</v>
@@ -7259,10 +7303,10 @@
         <v>23</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>38</v>
@@ -7271,7 +7315,7 @@
         <v>29.0</v>
       </c>
       <c r="I76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J76" s="13" t="s">
@@ -7309,10 +7353,10 @@
     </row>
     <row r="77">
       <c r="A77" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C77" s="14">
         <v>8.9179331863E10</v>
@@ -7321,10 +7365,10 @@
         <v>23</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>26</v>
@@ -7333,7 +7377,7 @@
         <v>37.0</v>
       </c>
       <c r="I77" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J77" s="13" t="s">
@@ -7375,10 +7419,10 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C78" s="14">
         <v>8.981918381E10</v>
@@ -7399,7 +7443,7 @@
         <v>27.0</v>
       </c>
       <c r="I78" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J78" s="13" t="s">
@@ -7441,10 +7485,10 @@
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C79" s="14">
         <v>8.9035574055E10</v>
@@ -7465,7 +7509,7 @@
         <v>39.0</v>
       </c>
       <c r="I79" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J79" s="13" t="s">
@@ -7507,10 +7551,10 @@
     </row>
     <row r="80">
       <c r="A80" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C80" s="14">
         <v>8.9997059291E10</v>
@@ -7522,7 +7566,7 @@
         <v>230</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>26</v>
@@ -7531,7 +7575,7 @@
         <v>21.0</v>
       </c>
       <c r="I80" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J80" s="13" t="s">
@@ -7573,10 +7617,10 @@
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C81" s="14">
         <v>8.9998421148E10</v>
@@ -7597,7 +7641,7 @@
         <v>32.0</v>
       </c>
       <c r="I81" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J81" s="13" t="s">
@@ -7627,10 +7671,10 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C82" s="14">
         <v>8.9268474554E10</v>
@@ -7651,7 +7695,7 @@
         <v>41.0</v>
       </c>
       <c r="I82" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J82" s="13" t="s">
@@ -7689,10 +7733,10 @@
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C83" s="14">
         <v>8.9172956229E10</v>
@@ -7713,7 +7757,7 @@
         <v>27.0</v>
       </c>
       <c r="I83" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J83" s="13" t="s">
@@ -7755,10 +7799,10 @@
     </row>
     <row r="84">
       <c r="A84" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C84" s="14">
         <v>8.9106545358E10</v>
@@ -7770,7 +7814,7 @@
         <v>207</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>38</v>
@@ -7779,7 +7823,7 @@
         <v>33.0</v>
       </c>
       <c r="I84" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J84" s="13" t="s">
@@ -7821,10 +7865,10 @@
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C85" s="14">
         <v>8.9061930784E10</v>
@@ -7833,7 +7877,7 @@
         <v>23</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>215</v>
@@ -7845,7 +7889,7 @@
         <v>50.0</v>
       </c>
       <c r="I85" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J85" s="13" t="s">
@@ -7879,10 +7923,10 @@
     </row>
     <row r="86">
       <c r="A86" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C86" s="14">
         <v>8.985216852E10</v>
@@ -7903,7 +7947,7 @@
         <v>20.0</v>
       </c>
       <c r="I86" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J86" s="13" t="s">
@@ -7937,10 +7981,10 @@
     </row>
     <row r="87">
       <c r="A87" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C87" s="14">
         <v>8.9171106075E10</v>
@@ -7961,7 +8005,7 @@
         <v>35.0</v>
       </c>
       <c r="I87" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J87" s="13" t="s">
@@ -7999,10 +8043,10 @@
     </row>
     <row r="88">
       <c r="A88" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C88" s="14">
         <v>8.9065573691E10</v>
@@ -8023,7 +8067,7 @@
         <v>40.0</v>
       </c>
       <c r="I88" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J88" s="13" t="s">
@@ -8061,10 +8105,10 @@
     </row>
     <row r="89">
       <c r="A89" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C89" s="14">
         <v>8.9228861925E10</v>
@@ -8073,10 +8117,10 @@
         <v>23</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>26</v>
@@ -8085,7 +8129,7 @@
         <v>49.0</v>
       </c>
       <c r="I89" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J89" s="13" t="s">
@@ -8123,10 +8167,10 @@
     </row>
     <row r="90">
       <c r="A90" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C90" s="14">
         <v>8.9173817627E10</v>
@@ -8135,7 +8179,7 @@
         <v>23</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>54</v>
@@ -8147,7 +8191,7 @@
         <v>45.0</v>
       </c>
       <c r="I90" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J90" s="13" t="s">
@@ -8185,10 +8229,10 @@
     </row>
     <row r="91">
       <c r="A91" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C91" s="14">
         <v>8.9024729922E10</v>
@@ -8197,10 +8241,10 @@
         <v>23</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>38</v>
@@ -8209,7 +8253,7 @@
         <v>47.0</v>
       </c>
       <c r="I91" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J91" s="13" t="s">
@@ -8247,10 +8291,10 @@
     </row>
     <row r="92">
       <c r="A92" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C92" s="14">
         <v>8.9667548632E10</v>
@@ -8271,7 +8315,7 @@
         <v>27.0</v>
       </c>
       <c r="I92" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J92" s="13" t="s">
@@ -8301,10 +8345,10 @@
     </row>
     <row r="93">
       <c r="A93" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C93" s="14">
         <v>8.9127629383E10</v>
@@ -8325,7 +8369,7 @@
         <v>36.0</v>
       </c>
       <c r="I93" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J93" s="13" t="s">
@@ -8359,10 +8403,10 @@
     </row>
     <row r="94">
       <c r="A94" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C94" s="14">
         <v>8.910107075E10</v>
@@ -8371,7 +8415,7 @@
         <v>23</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>124</v>
@@ -8383,7 +8427,7 @@
         <v>34.0</v>
       </c>
       <c r="I94" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J94" s="13" t="s">
@@ -8417,10 +8461,10 @@
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C95" s="14">
         <v>8.9234380914E10</v>
@@ -8429,7 +8473,7 @@
         <v>52</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>47</v>
@@ -8441,7 +8485,7 @@
         <v>33.0</v>
       </c>
       <c r="I95" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J95" s="13" t="s">
@@ -8479,10 +8523,10 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C96" s="14">
         <v>8.90238138E10</v>
@@ -8503,7 +8547,7 @@
         <v>49.0</v>
       </c>
       <c r="I96" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J96" s="13" t="s">
@@ -8541,10 +8585,10 @@
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C97" s="14">
         <v>8.9063900692E10</v>
@@ -8553,10 +8597,10 @@
         <v>23</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>26</v>
@@ -8565,7 +8609,7 @@
         <v>40.0</v>
       </c>
       <c r="I97" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J97" s="13" t="s">
@@ -8603,10 +8647,10 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C98" s="14">
         <v>8.9288423575E10</v>
@@ -8627,7 +8671,7 @@
         <v>34.0</v>
       </c>
       <c r="I98" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J98" s="13" t="s">
@@ -8661,10 +8705,10 @@
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C99" s="14">
         <v>8.9272552207E10</v>
@@ -8685,7 +8729,7 @@
         <v>50.0</v>
       </c>
       <c r="I99" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J99" s="13" t="s">
@@ -8727,10 +8771,10 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C100" s="14">
         <v>8.9105012024E10</v>
@@ -8739,10 +8783,10 @@
         <v>52</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>26</v>
@@ -8751,7 +8795,7 @@
         <v>28.0</v>
       </c>
       <c r="I100" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J100" s="13" t="s">
@@ -8785,10 +8829,10 @@
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C101" s="14">
         <v>8.9533316231E10</v>
@@ -8797,10 +8841,10 @@
         <v>23</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>38</v>
@@ -8809,7 +8853,7 @@
         <v>43.0</v>
       </c>
       <c r="I101" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J101" s="13" t="s">
@@ -8847,10 +8891,10 @@
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C102" s="14">
         <v>8.9262840669E10</v>
@@ -8871,7 +8915,7 @@
         <v>24.0</v>
       </c>
       <c r="I102" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J102" s="13" t="s">
@@ -8913,10 +8957,10 @@
     </row>
     <row r="103">
       <c r="A103" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C103" s="14">
         <v>8.9247047975E10</v>
@@ -8925,10 +8969,10 @@
         <v>23</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>26</v>
@@ -8937,7 +8981,7 @@
         <v>33.0</v>
       </c>
       <c r="I103" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J103" s="13" t="s">
@@ -8979,10 +9023,10 @@
     </row>
     <row r="104">
       <c r="A104" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C104" s="14">
         <v>8.9176004996E10</v>
@@ -8991,10 +9035,10 @@
         <v>23</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>26</v>
@@ -9003,7 +9047,7 @@
         <v>40.0</v>
       </c>
       <c r="I104" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J104" s="13" t="s">
@@ -9033,10 +9077,10 @@
     </row>
     <row r="105">
       <c r="A105" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C105" s="14">
         <v>8.9958810686E10</v>
@@ -9048,7 +9092,7 @@
         <v>195</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>38</v>
@@ -9057,7 +9101,7 @@
         <v>21.0</v>
       </c>
       <c r="I105" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J105" s="13" t="s">
@@ -9095,10 +9139,10 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C106" s="14">
         <v>8.9213285851E10</v>
@@ -9119,7 +9163,7 @@
         <v>51.0</v>
       </c>
       <c r="I106" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J106" s="13" t="s">
@@ -9149,10 +9193,10 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C107" s="14">
         <v>8.9882503041E10</v>
@@ -9161,10 +9205,10 @@
         <v>23</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>26</v>
@@ -9173,7 +9217,7 @@
         <v>28.0</v>
       </c>
       <c r="I107" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J107" s="13" t="s">
@@ -9207,10 +9251,10 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C108" s="14">
         <v>8.9530371763E10</v>
@@ -9219,10 +9263,10 @@
         <v>23</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>38</v>
@@ -9231,7 +9275,7 @@
         <v>22.0</v>
       </c>
       <c r="I108" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J108" s="13" t="s">
@@ -9269,10 +9313,10 @@
     </row>
     <row r="109">
       <c r="A109" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C109" s="14">
         <v>8.9867433286E10</v>
@@ -9293,7 +9337,7 @@
         <v>23.0</v>
       </c>
       <c r="I109" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J109" s="13" t="s">
@@ -9323,10 +9367,10 @@
     </row>
     <row r="110">
       <c r="A110" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C110" s="14">
         <v>8.9144752213E10</v>
@@ -9335,10 +9379,10 @@
         <v>23</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G110" s="13" t="s">
         <v>38</v>
@@ -9347,7 +9391,7 @@
         <v>22.0</v>
       </c>
       <c r="I110" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J110" s="13" t="s">
@@ -9389,10 +9433,10 @@
     </row>
     <row r="111">
       <c r="A111" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C111" s="14">
         <v>8.9528012694E10</v>
@@ -9401,7 +9445,7 @@
         <v>23</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>47</v>
@@ -9413,7 +9457,7 @@
         <v>47.0</v>
       </c>
       <c r="I111" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J111" s="13" t="s">
@@ -9451,10 +9495,10 @@
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C112" s="14">
         <v>8.9835458415E10</v>
@@ -9463,10 +9507,10 @@
         <v>23</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G112" s="13" t="s">
         <v>38</v>
@@ -9475,7 +9519,7 @@
         <v>26.0</v>
       </c>
       <c r="I112" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J112" s="13" t="s">
@@ -9509,10 +9553,10 @@
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C113" s="14">
         <v>8.9045573468E10</v>
@@ -9524,7 +9568,7 @@
         <v>105</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G113" s="13" t="s">
         <v>26</v>
@@ -9533,7 +9577,7 @@
         <v>35.0</v>
       </c>
       <c r="I113" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J113" s="13" t="s">
@@ -9571,10 +9615,10 @@
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C114" s="14">
         <v>8.9656357339E10</v>
@@ -9583,10 +9627,10 @@
         <v>23</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>212</v>
+        <v>403</v>
       </c>
       <c r="G114" s="13" t="s">
         <v>26</v>
@@ -9595,7 +9639,7 @@
         <v>30.0</v>
       </c>
       <c r="I114" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J114" s="13" t="s">
@@ -9633,32 +9677,28 @@
     </row>
     <row r="115">
       <c r="A115" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B115" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="C115" s="14">
+        <v>8.9124676438E10</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="C115" s="14">
-        <v>8.9172921468E10</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="F115" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H115" s="14">
-        <v>49.0</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
       <c r="I115" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>COUNTIF(J115:M115, "Да")</f>
+        <v>2</v>
       </c>
       <c r="J115" s="13" t="s">
         <v>39</v>
@@ -9707,7 +9747,7 @@
         <v>52</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>409</v>
@@ -9719,7 +9759,7 @@
         <v>23.0</v>
       </c>
       <c r="I116" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I116:I127" si="4">COUNTIF(J116:M116, "Да")+COUNTIF(J116:M116, "Запас")</f>
         <v>4</v>
       </c>
       <c r="J116" s="13" t="s">
@@ -9761,7 +9801,7 @@
         <v>23</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>412</v>
@@ -9773,7 +9813,7 @@
         <v>36.0</v>
       </c>
       <c r="I117" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J117" s="13" t="s">
@@ -9839,7 +9879,7 @@
         <v>28.0</v>
       </c>
       <c r="I118" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J118" s="13" t="s">
@@ -9901,7 +9941,7 @@
         <v>27.0</v>
       </c>
       <c r="I119" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J119" s="13" t="s">
@@ -9967,7 +10007,7 @@
         <v>26.0</v>
       </c>
       <c r="I120" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J120" s="13" t="s">
@@ -10033,7 +10073,7 @@
         <v>48.0</v>
       </c>
       <c r="I121" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J121" s="13" t="s">
@@ -10091,7 +10131,7 @@
         <v>35.0</v>
       </c>
       <c r="I122" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J122" s="13" t="s">
@@ -10157,7 +10197,7 @@
         <v>27.0</v>
       </c>
       <c r="I123" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J123" s="13" t="s">
@@ -10211,7 +10251,7 @@
         <v>51.0</v>
       </c>
       <c r="I124" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J124" s="13" t="s">
@@ -10277,7 +10317,7 @@
         <v>28.0</v>
       </c>
       <c r="I125" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J125" s="13" t="s">
@@ -10343,7 +10383,7 @@
         <v>29.0</v>
       </c>
       <c r="I126" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J126" s="13" t="s">
@@ -10405,7 +10445,7 @@
         <v>26.0</v>
       </c>
       <c r="I127" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J127" s="13" t="s">
@@ -10437,30 +10477,29 @@
       <c r="A128" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="18" t="s">
         <v>438</v>
       </c>
       <c r="C128" s="14">
-        <v>8.9053192353E10</v>
+        <v>8.9967686968E10</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>96</v>
+        <v>439</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="G128" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H128" s="14">
-        <v>51.0</v>
-      </c>
-      <c r="I128" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>45.0</v>
+      </c>
+      <c r="I128" s="27">
+        <v>4.0</v>
       </c>
       <c r="J128" s="13" t="s">
         <v>27</v>
@@ -10469,7 +10508,7 @@
         <v>27</v>
       </c>
       <c r="L128" s="13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M128" s="13" t="s">
         <v>27</v>
@@ -10501,10 +10540,10 @@
     </row>
     <row r="129">
       <c r="A129" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C129" s="14">
         <v>8.9061968689E10</v>
@@ -10513,10 +10552,10 @@
         <v>23</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G129" s="13" t="s">
         <v>26</v>
@@ -10525,7 +10564,7 @@
         <v>29.0</v>
       </c>
       <c r="I129" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I129:I209" si="5">COUNTIF(J129:M129, "Да")+COUNTIF(J129:M129, "Запас")</f>
         <v>2</v>
       </c>
       <c r="J129" s="13" t="s">
@@ -10563,10 +10602,10 @@
     </row>
     <row r="130">
       <c r="A130" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C130" s="14">
         <v>8.9525293042E10</v>
@@ -10587,7 +10626,7 @@
         <v>20.0</v>
       </c>
       <c r="I130" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J130" s="13" t="s">
@@ -10621,10 +10660,10 @@
     </row>
     <row r="131">
       <c r="A131" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C131" s="14">
         <v>8.9680138063E10</v>
@@ -10645,7 +10684,7 @@
         <v>31.0</v>
       </c>
       <c r="I131" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J131" s="13" t="s">
@@ -10679,10 +10718,10 @@
     </row>
     <row r="132">
       <c r="A132" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C132" s="14">
         <v>8.9009053337E10</v>
@@ -10691,10 +10730,10 @@
         <v>23</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G132" s="13" t="s">
         <v>26</v>
@@ -10703,7 +10742,7 @@
         <v>39.0</v>
       </c>
       <c r="I132" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J132" s="13" t="s">
@@ -10737,10 +10776,10 @@
     </row>
     <row r="133">
       <c r="A133" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C133" s="14">
         <v>8.9043817591E10</v>
@@ -10749,10 +10788,10 @@
         <v>23</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G133" s="13" t="s">
         <v>38</v>
@@ -10761,7 +10800,7 @@
         <v>40.0</v>
       </c>
       <c r="I133" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J133" s="13" t="s">
@@ -10803,10 +10842,10 @@
     </row>
     <row r="134">
       <c r="A134" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C134" s="14">
         <v>8.9969233065E10</v>
@@ -10818,7 +10857,7 @@
         <v>36</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G134" s="13" t="s">
         <v>38</v>
@@ -10827,7 +10866,7 @@
         <v>28.0</v>
       </c>
       <c r="I134" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J134" s="13" t="s">
@@ -10869,10 +10908,10 @@
     </row>
     <row r="135">
       <c r="A135" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C135" s="14">
         <v>8.914152599E10</v>
@@ -10881,10 +10920,10 @@
         <v>23</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G135" s="13" t="s">
         <v>26</v>
@@ -10893,7 +10932,7 @@
         <v>44.0</v>
       </c>
       <c r="I135" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J135" s="13" t="s">
@@ -10927,10 +10966,10 @@
     </row>
     <row r="136">
       <c r="A136" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C136" s="14">
         <v>8.902783375E10</v>
@@ -10939,10 +10978,10 @@
         <v>23</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G136" s="13" t="s">
         <v>26</v>
@@ -10951,7 +10990,7 @@
         <v>55.0</v>
       </c>
       <c r="I136" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J136" s="13" t="s">
@@ -10985,10 +11024,10 @@
     </row>
     <row r="137">
       <c r="A137" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C137" s="14">
         <v>8.9536775789E10</v>
@@ -10997,10 +11036,10 @@
         <v>23</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G137" s="13" t="s">
         <v>26</v>
@@ -11009,7 +11048,7 @@
         <v>36.0</v>
       </c>
       <c r="I137" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J137" s="13" t="s">
@@ -11047,10 +11086,10 @@
     </row>
     <row r="138">
       <c r="A138" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C138" s="14">
         <v>8.9155929465E10</v>
@@ -11059,10 +11098,10 @@
         <v>23</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G138" s="13" t="s">
         <v>26</v>
@@ -11071,7 +11110,7 @@
         <v>54.0</v>
       </c>
       <c r="I138" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J138" s="13" t="s">
@@ -11113,10 +11152,10 @@
     </row>
     <row r="139">
       <c r="A139" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C139" s="14">
         <v>8.9278729101E10</v>
@@ -11125,10 +11164,10 @@
         <v>23</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G139" s="13" t="s">
         <v>26</v>
@@ -11137,7 +11176,7 @@
         <v>46.0</v>
       </c>
       <c r="I139" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J139" s="13" t="s">
@@ -11175,10 +11214,10 @@
     </row>
     <row r="140">
       <c r="A140" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C140" s="14">
         <v>8.9005539866E10</v>
@@ -11199,7 +11238,7 @@
         <v>32.0</v>
       </c>
       <c r="I140" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J140" s="13" t="s">
@@ -11233,10 +11272,10 @@
     </row>
     <row r="141">
       <c r="A141" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C141" s="14">
         <v>8.9640046593E10</v>
@@ -11245,10 +11284,10 @@
         <v>23</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G141" s="13" t="s">
         <v>26</v>
@@ -11257,7 +11296,7 @@
         <v>26.0</v>
       </c>
       <c r="I141" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J141" s="13" t="s">
@@ -11299,10 +11338,10 @@
     </row>
     <row r="142">
       <c r="A142" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C142" s="14">
         <v>8.9818441643E10</v>
@@ -11323,7 +11362,7 @@
         <v>30.0</v>
       </c>
       <c r="I142" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J142" s="13" t="s">
@@ -11361,10 +11400,10 @@
     </row>
     <row r="143">
       <c r="A143" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C143" s="14">
         <v>8.9281190239E10</v>
@@ -11373,10 +11412,10 @@
         <v>23</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G143" s="13" t="s">
         <v>26</v>
@@ -11385,7 +11424,7 @@
         <v>42.0</v>
       </c>
       <c r="I143" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J143" s="13" t="s">
@@ -11427,10 +11466,10 @@
     </row>
     <row r="144">
       <c r="A144" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C144" s="14">
         <v>8.9042105542E10</v>
@@ -11451,7 +11490,7 @@
         <v>37.0</v>
       </c>
       <c r="I144" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J144" s="13" t="s">
@@ -11489,10 +11528,10 @@
     </row>
     <row r="145">
       <c r="A145" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C145" s="14">
         <v>8.9786742029E10</v>
@@ -11501,10 +11540,10 @@
         <v>52</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G145" s="13" t="s">
         <v>38</v>
@@ -11513,7 +11552,7 @@
         <v>32.0</v>
       </c>
       <c r="I145" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J145" s="13" t="s">
@@ -11551,10 +11590,10 @@
     </row>
     <row r="146">
       <c r="A146" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C146" s="14">
         <v>8.900606158E10</v>
@@ -11563,10 +11602,10 @@
         <v>23</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G146" s="13" t="s">
         <v>38</v>
@@ -11575,7 +11614,7 @@
         <v>26.0</v>
       </c>
       <c r="I146" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J146" s="13" t="s">
@@ -11613,10 +11652,10 @@
     </row>
     <row r="147">
       <c r="A147" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C147" s="14">
         <v>8.9504479502E10</v>
@@ -11625,10 +11664,10 @@
         <v>52</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G147" s="13" t="s">
         <v>38</v>
@@ -11637,7 +11676,7 @@
         <v>39.0</v>
       </c>
       <c r="I147" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J147" s="13" t="s">
@@ -11679,10 +11718,10 @@
     </row>
     <row r="148">
       <c r="A148" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C148" s="14">
         <v>8.9376248031E10</v>
@@ -11703,7 +11742,7 @@
         <v>19.0</v>
       </c>
       <c r="I148" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J148" s="13" t="s">
@@ -11737,10 +11776,10 @@
     </row>
     <row r="149">
       <c r="A149" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C149" s="14">
         <v>8.9377894952E10</v>
@@ -11761,7 +11800,7 @@
         <v>20.0</v>
       </c>
       <c r="I149" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J149" s="13" t="s">
@@ -11791,10 +11830,10 @@
     </row>
     <row r="150">
       <c r="A150" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C150" s="14">
         <v>8.9062467575E10</v>
@@ -11815,7 +11854,7 @@
         <v>50.0</v>
       </c>
       <c r="I150" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J150" s="13" t="s">
@@ -11857,10 +11896,10 @@
     </row>
     <row r="151">
       <c r="A151" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C151" s="14">
         <v>8.9254200879E10</v>
@@ -11869,7 +11908,7 @@
         <v>52</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F151" s="13" t="s">
         <v>77</v>
@@ -11881,7 +11920,7 @@
         <v>33.0</v>
       </c>
       <c r="I151" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J151" s="13" t="s">
@@ -11923,10 +11962,10 @@
     </row>
     <row r="152">
       <c r="A152" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C152" s="14">
         <v>8.9999822516E10</v>
@@ -11947,7 +11986,7 @@
         <v>27.0</v>
       </c>
       <c r="I152" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J152" s="13" t="s">
@@ -11981,10 +12020,10 @@
     </row>
     <row r="153">
       <c r="A153" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C153" s="14">
         <v>8.9063478626E10</v>
@@ -12005,7 +12044,7 @@
         <v>24.0</v>
       </c>
       <c r="I153" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J153" s="13" t="s">
@@ -12035,10 +12074,10 @@
     </row>
     <row r="154">
       <c r="A154" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C154" s="14">
         <v>8.9370280509E10</v>
@@ -12050,7 +12089,7 @@
         <v>202</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G154" s="13" t="s">
         <v>38</v>
@@ -12059,7 +12098,7 @@
         <v>33.0</v>
       </c>
       <c r="I154" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J154" s="13" t="s">
@@ -12093,10 +12132,10 @@
     </row>
     <row r="155">
       <c r="A155" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C155" s="14">
         <v>8.9082514848E10</v>
@@ -12105,10 +12144,10 @@
         <v>23</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G155" s="13" t="s">
         <v>38</v>
@@ -12117,7 +12156,7 @@
         <v>31.0</v>
       </c>
       <c r="I155" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J155" s="13" t="s">
@@ -12155,10 +12194,10 @@
     </row>
     <row r="156">
       <c r="A156" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C156" s="14">
         <v>8.9200106562E10</v>
@@ -12167,7 +12206,7 @@
         <v>23</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F156" s="13" t="s">
         <v>100</v>
@@ -12179,7 +12218,7 @@
         <v>35.0</v>
       </c>
       <c r="I156" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J156" s="13" t="s">
@@ -12217,10 +12256,10 @@
     </row>
     <row r="157">
       <c r="A157" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C157" s="14">
         <v>8.9647238483E10</v>
@@ -12241,7 +12280,7 @@
         <v>31.0</v>
       </c>
       <c r="I157" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J157" s="13" t="s">
@@ -12271,10 +12310,10 @@
     </row>
     <row r="158">
       <c r="A158" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C158" s="14">
         <v>8.9530897291E10</v>
@@ -12283,10 +12322,10 @@
         <v>52</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G158" s="13" t="s">
         <v>26</v>
@@ -12295,7 +12334,7 @@
         <v>39.0</v>
       </c>
       <c r="I158" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J158" s="13" t="s">
@@ -12333,10 +12372,10 @@
     </row>
     <row r="159">
       <c r="A159" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C159" s="14">
         <v>8.9057841817E10</v>
@@ -12348,7 +12387,7 @@
         <v>77</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G159" s="13" t="s">
         <v>38</v>
@@ -12357,7 +12396,7 @@
         <v>41.0</v>
       </c>
       <c r="I159" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J159" s="13" t="s">
@@ -12395,10 +12434,10 @@
     </row>
     <row r="160">
       <c r="A160" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C160" s="14">
         <v>8.9998246317E10</v>
@@ -12419,7 +12458,7 @@
         <v>28.0</v>
       </c>
       <c r="I160" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J160" s="13" t="s">
@@ -12461,10 +12500,10 @@
     </row>
     <row r="161">
       <c r="A161" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C161" s="14">
         <v>8.9122122008E10</v>
@@ -12473,10 +12512,10 @@
         <v>23</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G161" s="13" t="s">
         <v>38</v>
@@ -12485,7 +12524,7 @@
         <v>32.0</v>
       </c>
       <c r="I161" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J161" s="13" t="s">
@@ -12527,10 +12566,10 @@
     </row>
     <row r="162">
       <c r="A162" s="13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C162" s="14">
         <v>8.9030939903E10</v>
@@ -12551,7 +12590,7 @@
         <v>39.0</v>
       </c>
       <c r="I162" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J162" s="13" t="s">
@@ -12589,10 +12628,10 @@
     </row>
     <row r="163">
       <c r="A163" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C163" s="14">
         <v>8.9872341275E10</v>
@@ -12604,7 +12643,7 @@
         <v>96</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G163" s="13" t="s">
         <v>26</v>
@@ -12613,7 +12652,7 @@
         <v>49.0</v>
       </c>
       <c r="I163" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J163" s="13" t="s">
@@ -12643,7 +12682,7 @@
     </row>
     <row r="164">
       <c r="A164" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -12653,7 +12692,7 @@
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
       <c r="I164" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J164" s="13"/>
@@ -12671,10 +12710,10 @@
     </row>
     <row r="165">
       <c r="A165" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C165" s="14">
         <v>8.9022506257E10</v>
@@ -12683,10 +12722,10 @@
         <v>23</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G165" s="13" t="s">
         <v>26</v>
@@ -12695,7 +12734,7 @@
         <v>42.0</v>
       </c>
       <c r="I165" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J165" s="13" t="s">
@@ -12729,10 +12768,10 @@
     </row>
     <row r="166">
       <c r="A166" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C166" s="14">
         <v>8.9850554712E10</v>
@@ -12753,7 +12792,7 @@
         <v>39.0</v>
       </c>
       <c r="I166" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J166" s="13" t="s">
@@ -12783,10 +12822,10 @@
     </row>
     <row r="167">
       <c r="A167" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C167" s="14">
         <v>8.9245122895E10</v>
@@ -12795,10 +12834,10 @@
         <v>52</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G167" s="13" t="s">
         <v>38</v>
@@ -12807,7 +12846,7 @@
         <v>36.0</v>
       </c>
       <c r="I167" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J167" s="13" t="s">
@@ -12841,10 +12880,10 @@
     </row>
     <row r="168">
       <c r="A168" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C168" s="14">
         <v>8.9153899817E10</v>
@@ -12865,7 +12904,7 @@
         <v>30.0</v>
       </c>
       <c r="I168" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J168" s="13" t="s">
@@ -12903,10 +12942,10 @@
     </row>
     <row r="169">
       <c r="A169" s="13" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C169" s="14">
         <v>8.9237183977E10</v>
@@ -12915,10 +12954,10 @@
         <v>23</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G169" s="13" t="s">
         <v>26</v>
@@ -12927,7 +12966,7 @@
         <v>52.0</v>
       </c>
       <c r="I169" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J169" s="13" t="s">
@@ -12965,10 +13004,10 @@
     </row>
     <row r="170">
       <c r="A170" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C170" s="14">
         <v>8.9106637291E10</v>
@@ -12989,7 +13028,7 @@
         <v>28.0</v>
       </c>
       <c r="I170" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J170" s="13" t="s">
@@ -13031,10 +13070,10 @@
     </row>
     <row r="171">
       <c r="A171" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C171" s="14">
         <v>8.9021258174E10</v>
@@ -13043,10 +13082,10 @@
         <v>23</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G171" s="13" t="s">
         <v>26</v>
@@ -13055,7 +13094,7 @@
         <v>28.0</v>
       </c>
       <c r="I171" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J171" s="13" t="s">
@@ -13097,10 +13136,10 @@
     </row>
     <row r="172">
       <c r="A172" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C172" s="14">
         <v>8.9204644775E10</v>
@@ -13121,7 +13160,7 @@
         <v>39.0</v>
       </c>
       <c r="I172" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J172" s="13" t="s">
@@ -13151,10 +13190,10 @@
     </row>
     <row r="173">
       <c r="A173" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C173" s="14">
         <v>8.9148921589E10</v>
@@ -13163,10 +13202,10 @@
         <v>23</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G173" s="13" t="s">
         <v>38</v>
@@ -13175,7 +13214,7 @@
         <v>32.0</v>
       </c>
       <c r="I173" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J173" s="13" t="s">
@@ -13213,10 +13252,10 @@
     </row>
     <row r="174">
       <c r="A174" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C174" s="14">
         <v>8.9616215222E10</v>
@@ -13228,7 +13267,7 @@
         <v>230</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G174" s="13" t="s">
         <v>38</v>
@@ -13237,7 +13276,7 @@
         <v>37.0</v>
       </c>
       <c r="I174" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J174" s="13" t="s">
@@ -13279,10 +13318,10 @@
     </row>
     <row r="175">
       <c r="A175" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C175" s="14">
         <v>8.9067439189E10</v>
@@ -13303,7 +13342,7 @@
         <v>36.0</v>
       </c>
       <c r="I175" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J175" s="13" t="s">
@@ -13341,10 +13380,10 @@
     </row>
     <row r="176">
       <c r="A176" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C176" s="14">
         <v>8.9194938539E10</v>
@@ -13353,10 +13392,10 @@
         <v>23</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G176" s="13" t="s">
         <v>26</v>
@@ -13365,7 +13404,7 @@
         <v>40.0</v>
       </c>
       <c r="I176" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J176" s="13" t="s">
@@ -13403,10 +13442,10 @@
     </row>
     <row r="177">
       <c r="A177" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C177" s="14">
         <v>8.9202178168E10</v>
@@ -13427,7 +13466,7 @@
         <v>29.0</v>
       </c>
       <c r="I177" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J177" s="13" t="s">
@@ -13465,10 +13504,10 @@
     </row>
     <row r="178">
       <c r="A178" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C178" s="14">
         <v>8.9204263795E10</v>
@@ -13489,7 +13528,7 @@
         <v>46.0</v>
       </c>
       <c r="I178" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J178" s="13" t="s">
@@ -13527,10 +13566,10 @@
     </row>
     <row r="179">
       <c r="A179" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C179" s="14">
         <v>8.9225729642E10</v>
@@ -13551,7 +13590,7 @@
         <v>29.0</v>
       </c>
       <c r="I179" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J179" s="13" t="s">
@@ -13593,10 +13632,10 @@
     </row>
     <row r="180">
       <c r="A180" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C180" s="14">
         <v>8.9170154915E10</v>
@@ -13617,7 +13656,7 @@
         <v>31.0</v>
       </c>
       <c r="I180" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J180" s="13" t="s">
@@ -13651,10 +13690,10 @@
     </row>
     <row r="181">
       <c r="A181" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C181" s="14">
         <v>8.964892566E10</v>
@@ -13663,10 +13702,10 @@
         <v>23</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G181" s="13" t="s">
         <v>38</v>
@@ -13675,7 +13714,7 @@
         <v>37.0</v>
       </c>
       <c r="I181" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J181" s="13" t="s">
@@ -13709,10 +13748,10 @@
     </row>
     <row r="182">
       <c r="A182" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C182" s="14">
         <v>8.9780181832E10</v>
@@ -13721,10 +13760,10 @@
         <v>23</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G182" s="13" t="s">
         <v>26</v>
@@ -13733,7 +13772,7 @@
         <v>35.0</v>
       </c>
       <c r="I182" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J182" s="13" t="s">
@@ -13775,10 +13814,10 @@
     </row>
     <row r="183">
       <c r="A183" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C183" s="14">
         <v>8.9376015841E10</v>
@@ -13799,7 +13838,7 @@
         <v>24.0</v>
       </c>
       <c r="I183" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J183" s="13" t="s">
@@ -13841,10 +13880,10 @@
     </row>
     <row r="184">
       <c r="A184" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C184" s="14">
         <v>8.9213016909E10</v>
@@ -13865,7 +13904,7 @@
         <v>47.0</v>
       </c>
       <c r="I184" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J184" s="13" t="s">
@@ -13895,10 +13934,10 @@
     </row>
     <row r="185">
       <c r="A185" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C185" s="14">
         <v>8.9052475558E10</v>
@@ -13919,7 +13958,7 @@
         <v>33.0</v>
       </c>
       <c r="I185" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J185" s="13" t="s">
@@ -13961,10 +14000,10 @@
     </row>
     <row r="186">
       <c r="A186" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C186" s="14">
         <v>8.9375276504E10</v>
@@ -13985,11 +14024,11 @@
         <v>28.0</v>
       </c>
       <c r="I186" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J186" s="13" t="s">
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J186" s="27" t="s">
+        <v>593</v>
       </c>
       <c r="K186" s="13" t="s">
         <v>27</v>
@@ -14000,17 +14039,13 @@
       <c r="M186" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N186" s="13" t="s">
+      <c r="N186" s="13"/>
+      <c r="O186" s="13"/>
+      <c r="P186" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q186" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="O186" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P186" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q186" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="R186" s="13" t="s">
         <v>31</v>
@@ -14027,10 +14062,10 @@
     </row>
     <row r="187">
       <c r="A187" s="13" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C187" s="14">
         <v>8.9374814898E10</v>
@@ -14051,7 +14086,7 @@
         <v>25.0</v>
       </c>
       <c r="I187" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J187" s="13" t="s">
@@ -14081,10 +14116,10 @@
     </row>
     <row r="188">
       <c r="A188" s="13" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C188" s="14">
         <v>8.9373035646E10</v>
@@ -14096,7 +14131,7 @@
         <v>54</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G188" s="13" t="s">
         <v>38</v>
@@ -14105,11 +14140,11 @@
         <v>37.0</v>
       </c>
       <c r="I188" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J188" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K188" s="13" t="s">
         <v>27</v>
@@ -14120,12 +14155,8 @@
       <c r="M188" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N188" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O188" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="N188" s="13"/>
+      <c r="O188" s="13"/>
       <c r="P188" s="13" t="s">
         <v>40</v>
       </c>
@@ -14147,10 +14178,10 @@
     </row>
     <row r="189">
       <c r="A189" s="13" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C189" s="14">
         <v>8.9588214329E10</v>
@@ -14171,7 +14202,7 @@
         <v>45.0</v>
       </c>
       <c r="I189" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J189" s="13" t="s">
@@ -14205,10 +14236,10 @@
     </row>
     <row r="190">
       <c r="A190" s="13" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C190" s="14">
         <v>8.9177600606E10</v>
@@ -14229,7 +14260,7 @@
         <v>34.0</v>
       </c>
       <c r="I190" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J190" s="13" t="s">
@@ -14271,10 +14302,10 @@
     </row>
     <row r="191">
       <c r="A191" s="13" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C191" s="14">
         <v>8.9173562459E10</v>
@@ -14295,7 +14326,7 @@
         <v>34.0</v>
       </c>
       <c r="I191" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J191" s="13" t="s">
@@ -14337,10 +14368,10 @@
     </row>
     <row r="192">
       <c r="A192" s="13" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C192" s="14">
         <v>8.9160050216E10</v>
@@ -14352,7 +14383,7 @@
         <v>36</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G192" s="13" t="s">
         <v>38</v>
@@ -14361,7 +14392,7 @@
         <v>37.0</v>
       </c>
       <c r="I192" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J192" s="13" t="s">
@@ -14395,10 +14426,10 @@
     </row>
     <row r="193">
       <c r="A193" s="13" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C193" s="14">
         <v>8.9537668955E10</v>
@@ -14407,7 +14438,7 @@
         <v>23</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F193" s="13" t="s">
         <v>208</v>
@@ -14419,7 +14450,7 @@
         <v>41.0</v>
       </c>
       <c r="I193" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J193" s="13" t="s">
@@ -14461,10 +14492,10 @@
     </row>
     <row r="194">
       <c r="A194" s="13" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C194" s="14">
         <v>8.9163947948E10</v>
@@ -14485,7 +14516,7 @@
         <v>42.0</v>
       </c>
       <c r="I194" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J194" s="13" t="s">
@@ -14515,10 +14546,10 @@
     </row>
     <row r="195">
       <c r="A195" s="13" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C195" s="14">
         <v>8.9835221226E10</v>
@@ -14527,10 +14558,10 @@
         <v>23</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G195" s="13" t="s">
         <v>38</v>
@@ -14539,7 +14570,7 @@
         <v>22.0</v>
       </c>
       <c r="I195" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J195" s="13" t="s">
@@ -14573,10 +14604,10 @@
     </row>
     <row r="196">
       <c r="A196" s="13" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C196" s="14">
         <v>8.9913273527E10</v>
@@ -14597,7 +14628,7 @@
         <v>32.0</v>
       </c>
       <c r="I196" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J196" s="13" t="s">
@@ -14635,10 +14666,10 @@
     </row>
     <row r="197">
       <c r="A197" s="13" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C197" s="14">
         <v>8.9022772153E10</v>
@@ -14659,7 +14690,7 @@
         <v>52.0</v>
       </c>
       <c r="I197" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J197" s="13" t="s">
@@ -14701,10 +14732,10 @@
     </row>
     <row r="198">
       <c r="A198" s="13" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C198" s="14">
         <v>8.9174249921E10</v>
@@ -14716,7 +14747,7 @@
         <v>109</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G198" s="13" t="s">
         <v>26</v>
@@ -14725,7 +14756,7 @@
         <v>41.0</v>
       </c>
       <c r="I198" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J198" s="13" t="s">
@@ -14763,10 +14794,10 @@
     </row>
     <row r="199">
       <c r="A199" s="13" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C199" s="14">
         <v>8.9374741119E10</v>
@@ -14787,7 +14818,7 @@
         <v>25.0</v>
       </c>
       <c r="I199" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J199" s="13" t="s">
@@ -14829,10 +14860,10 @@
     </row>
     <row r="200">
       <c r="A200" s="13" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C200" s="14">
         <v>8.9304070991E10</v>
@@ -14853,7 +14884,7 @@
         <v>55.0</v>
       </c>
       <c r="I200" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J200" s="13" t="s">
@@ -14891,10 +14922,10 @@
     </row>
     <row r="201">
       <c r="A201" s="13" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C201" s="14">
         <v>8.90424781E10</v>
@@ -14903,10 +14934,10 @@
         <v>52</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G201" s="13" t="s">
         <v>38</v>
@@ -14915,7 +14946,7 @@
         <v>44.0</v>
       </c>
       <c r="I201" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J201" s="13" t="s">
@@ -14945,10 +14976,10 @@
     </row>
     <row r="202">
       <c r="A202" s="13" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C202" s="14">
         <v>8.9272617778E10</v>
@@ -14969,7 +15000,7 @@
         <v>25.0</v>
       </c>
       <c r="I202" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J202" s="13" t="s">
@@ -15003,10 +15034,10 @@
     </row>
     <row r="203">
       <c r="A203" s="13" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C203" s="14">
         <v>8.9081727263E10</v>
@@ -15015,10 +15046,10 @@
         <v>23</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G203" s="13" t="s">
         <v>26</v>
@@ -15027,7 +15058,7 @@
         <v>34.0</v>
       </c>
       <c r="I203" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J203" s="13" t="s">
@@ -15057,10 +15088,10 @@
     </row>
     <row r="204">
       <c r="A204" s="13" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C204" s="14">
         <v>8.9167787739E10</v>
@@ -15081,7 +15112,7 @@
         <v>42.0</v>
       </c>
       <c r="I204" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J204" s="13" t="s">
@@ -15119,10 +15150,10 @@
     </row>
     <row r="205">
       <c r="A205" s="13" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C205" s="14">
         <v>8.9168048734E10</v>
@@ -15134,7 +15165,7 @@
         <v>36</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G205" s="13" t="s">
         <v>26</v>
@@ -15143,7 +15174,7 @@
         <v>35.0</v>
       </c>
       <c r="I205" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J205" s="13" t="s">
@@ -15173,10 +15204,10 @@
     </row>
     <row r="206">
       <c r="A206" s="13" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C206" s="14">
         <v>8.9119960778E10</v>
@@ -15197,7 +15228,7 @@
         <v>50.0</v>
       </c>
       <c r="I206" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J206" s="13" t="s">
@@ -15227,10 +15258,10 @@
     </row>
     <row r="207">
       <c r="A207" s="13" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C207" s="14">
         <v>8.9244436996E10</v>
@@ -15239,10 +15270,10 @@
         <v>23</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G207" s="13" t="s">
         <v>26</v>
@@ -15251,7 +15282,7 @@
         <v>18.0</v>
       </c>
       <c r="I207" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J207" s="13" t="s">
@@ -15281,10 +15312,10 @@
     </row>
     <row r="208">
       <c r="A208" s="13" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C208" s="14">
         <v>8.9273039771E10</v>
@@ -15305,7 +15336,7 @@
         <v>42.0</v>
       </c>
       <c r="I208" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J208" s="13" t="s">
@@ -15332,6 +15363,108 @@
       <c r="S208" s="13"/>
       <c r="T208" s="13"/>
       <c r="U208" s="13"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="B209" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C209" s="14">
+        <v>8.9166188342E10</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G209" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H209" s="14">
+        <v>53.0</v>
+      </c>
+      <c r="I209" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J209" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K209" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L209" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M209" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P209" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q209" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="C210" s="14">
+        <v>8.9139676837E10</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="G210" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H210" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I210" s="14">
+        <f>COUNTIF(J210:M210, "Да")</f>
+        <v>1</v>
+      </c>
+      <c r="J210" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K210" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L210" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M210" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N210" s="13"/>
+      <c r="O210" s="13"/>
+      <c r="P210" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q210" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R210" s="13"/>
+      <c r="S210" s="13"/>
+      <c r="T210" s="13"/>
+      <c r="U210" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H19:H20 H23:H26 H28">
@@ -15403,41 +15536,43 @@
     <hyperlink r:id="rId40" ref="B111"/>
     <hyperlink r:id="rId41" ref="B112"/>
     <hyperlink r:id="rId42" ref="B113"/>
-    <hyperlink r:id="rId43" ref="B121"/>
-    <hyperlink r:id="rId44" ref="B123"/>
-    <hyperlink r:id="rId45" ref="B125"/>
-    <hyperlink r:id="rId46" ref="B126"/>
-    <hyperlink r:id="rId47" ref="B128"/>
-    <hyperlink r:id="rId48" ref="B130"/>
-    <hyperlink r:id="rId49" ref="B133"/>
-    <hyperlink r:id="rId50" ref="B135"/>
-    <hyperlink r:id="rId51" ref="B146"/>
-    <hyperlink r:id="rId52" ref="B147"/>
-    <hyperlink r:id="rId53" ref="B148"/>
-    <hyperlink r:id="rId54" ref="B151"/>
-    <hyperlink r:id="rId55" ref="B152"/>
-    <hyperlink r:id="rId56" ref="B153"/>
-    <hyperlink r:id="rId57" ref="B155"/>
-    <hyperlink r:id="rId58" ref="B161"/>
-    <hyperlink r:id="rId59" ref="B162"/>
-    <hyperlink r:id="rId60" ref="B165"/>
-    <hyperlink r:id="rId61" ref="B170"/>
-    <hyperlink r:id="rId62" ref="B171"/>
-    <hyperlink r:id="rId63" ref="B173"/>
-    <hyperlink r:id="rId64" ref="B184"/>
-    <hyperlink r:id="rId65" ref="B185"/>
-    <hyperlink r:id="rId66" ref="B188"/>
-    <hyperlink r:id="rId67" ref="B192"/>
-    <hyperlink r:id="rId68" ref="B193"/>
-    <hyperlink r:id="rId69" ref="B196"/>
-    <hyperlink r:id="rId70" ref="B199"/>
-    <hyperlink r:id="rId71" ref="B202"/>
-    <hyperlink r:id="rId72" ref="B203"/>
-    <hyperlink r:id="rId73" ref="B206"/>
-    <hyperlink r:id="rId74" ref="B207"/>
-    <hyperlink r:id="rId75" ref="B208"/>
+    <hyperlink r:id="rId43" ref="B115"/>
+    <hyperlink r:id="rId44" ref="B121"/>
+    <hyperlink r:id="rId45" ref="B123"/>
+    <hyperlink r:id="rId46" ref="B125"/>
+    <hyperlink r:id="rId47" ref="B126"/>
+    <hyperlink r:id="rId48" ref="B128"/>
+    <hyperlink r:id="rId49" ref="B130"/>
+    <hyperlink r:id="rId50" ref="B133"/>
+    <hyperlink r:id="rId51" ref="B135"/>
+    <hyperlink r:id="rId52" ref="B146"/>
+    <hyperlink r:id="rId53" ref="B147"/>
+    <hyperlink r:id="rId54" ref="B148"/>
+    <hyperlink r:id="rId55" ref="B151"/>
+    <hyperlink r:id="rId56" ref="B152"/>
+    <hyperlink r:id="rId57" ref="B153"/>
+    <hyperlink r:id="rId58" ref="B155"/>
+    <hyperlink r:id="rId59" ref="B161"/>
+    <hyperlink r:id="rId60" ref="B162"/>
+    <hyperlink r:id="rId61" ref="B165"/>
+    <hyperlink r:id="rId62" ref="B170"/>
+    <hyperlink r:id="rId63" ref="B171"/>
+    <hyperlink r:id="rId64" ref="B173"/>
+    <hyperlink r:id="rId65" ref="B184"/>
+    <hyperlink r:id="rId66" ref="B185"/>
+    <hyperlink r:id="rId67" ref="B188"/>
+    <hyperlink r:id="rId68" ref="B192"/>
+    <hyperlink r:id="rId69" ref="B193"/>
+    <hyperlink r:id="rId70" ref="B196"/>
+    <hyperlink r:id="rId71" ref="B199"/>
+    <hyperlink r:id="rId72" ref="B202"/>
+    <hyperlink r:id="rId73" ref="B203"/>
+    <hyperlink r:id="rId74" ref="B206"/>
+    <hyperlink r:id="rId75" ref="B207"/>
+    <hyperlink r:id="rId76" ref="B208"/>
+    <hyperlink r:id="rId77" ref="B209"/>
   </hyperlinks>
-  <drawing r:id="rId76"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
 
@@ -15453,84 +15588,84 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>652</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>654</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>655</v>
+      <c r="B2" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>662</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>659</v>
+      <c r="B3" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>663</v>
+      <c r="B5" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>665</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>667</v>
+      <c r="B6" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -15571,10 +15706,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2">
@@ -15582,7 +15717,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3">
@@ -15590,7 +15725,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5">
@@ -15598,7 +15733,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6">
@@ -15606,7 +15741,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="683">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -1930,10 +1930,10 @@
     <t>Ижевск</t>
   </si>
   <si>
-    <t>Янкин Артем Александрович</t>
-  </si>
-  <si>
-    <t>https://t.me/junk1n</t>
+    <t>Нелепа Юрий Сергеевич</t>
+  </si>
+  <si>
+    <t>@yuriy_nelepa</t>
   </si>
   <si>
     <t>Богатырева Анна Александровна</t>
@@ -2000,6 +2000,12 @@
   </si>
   <si>
     <t xml:space="preserve">Омская Область </t>
+  </si>
+  <si>
+    <t>Акатьева Лиана Дигналовна</t>
+  </si>
+  <si>
+    <t>@liana_sultanova</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2863,7 +2869,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -2936,7 +2942,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3086,7 +3092,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -5679,7 +5685,7 @@
         <v>27</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>31</v>
@@ -5699,11 +5705,11 @@
       <c r="S49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T49" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="U49" s="24" t="s">
-        <v>33</v>
+      <c r="T49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U49" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -9410,7 +9416,7 @@
         <v>40</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P110" s="13" t="s">
         <v>31</v>
@@ -9698,10 +9704,10 @@
       <c r="H115" s="13"/>
       <c r="I115" s="14">
         <f>COUNTIF(J115:M115, "Да")</f>
-        <v>2</v>
-      </c>
-      <c r="J115" s="13" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="J115" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="K115" s="13" t="s">
         <v>27</v>
@@ -9712,8 +9718,12 @@
       <c r="M115" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
+      <c r="N115" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O115" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P115" s="13" t="s">
         <v>29</v>
       </c>
@@ -14978,30 +14988,30 @@
       <c r="A202" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="B202" s="20" t="s">
+      <c r="B202" s="18" t="s">
         <v>633</v>
       </c>
       <c r="C202" s="14">
-        <v>8.9272617778E10</v>
+        <v>8.9064006239E10</v>
       </c>
       <c r="D202" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="G202" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H202" s="14">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="I202" s="14">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J202" s="13" t="s">
         <v>39</v>
@@ -15013,7 +15023,7 @@
         <v>48</v>
       </c>
       <c r="M202" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N202" s="13"/>
       <c r="O202" s="13"/>
@@ -15465,6 +15475,61 @@
       <c r="S210" s="13"/>
       <c r="T210" s="13"/>
       <c r="U210" s="13"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C211" s="14">
+        <v>8.9162052211E10</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G211" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H211" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I211" s="14">
+        <f>COUNTIF(J211:M211, "Да")+COUNTIF(J211:M211, "Запас")</f>
+        <v>3</v>
+      </c>
+      <c r="J211" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K211" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L211" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M211" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N211" s="13"/>
+      <c r="O211" s="13"/>
+      <c r="P211" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q211" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R211" s="13"/>
+      <c r="S211" s="13"/>
+      <c r="T211" s="13"/>
+      <c r="U211" s="13"/>
+      <c r="V211" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H19:H20 H23:H26 H28">
@@ -15588,16 +15653,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2">
@@ -15605,16 +15670,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3">
@@ -15622,16 +15687,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5">
@@ -15639,16 +15704,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6">
@@ -15656,16 +15721,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -15706,10 +15771,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2">
@@ -15717,7 +15782,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3">
@@ -15725,7 +15790,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5">
@@ -15733,7 +15798,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6">
@@ -15741,7 +15806,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="677">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -1853,12 +1853,6 @@
   </si>
   <si>
     <t>Сибирский федеральный округ</t>
-  </si>
-  <si>
-    <t>Чуланов Александр Александрович</t>
-  </si>
-  <si>
-    <t>@adolfinii</t>
   </si>
   <si>
     <t>Шауберт Георгий Романович</t>
@@ -2938,7 +2932,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -6035,8 +6029,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>39</v>
+      <c r="J55" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>27</v>
@@ -6047,8 +6041,12 @@
       <c r="M55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
+      <c r="N55" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="P55" s="13" t="s">
         <v>40</v>
       </c>
@@ -10516,7 +10514,7 @@
         <v>29.0</v>
       </c>
       <c r="I128" s="14">
-        <f t="shared" ref="I128:I207" si="5">COUNTIF(J128:M128, "Да")+COUNTIF(J128:M128, "Запас")</f>
+        <f t="shared" ref="I128:I206" si="5">COUNTIF(J128:M128, "Да")+COUNTIF(J128:M128, "Запас")</f>
         <v>2</v>
       </c>
       <c r="J128" s="13" t="s">
@@ -14392,29 +14390,29 @@
         <v>608</v>
       </c>
       <c r="C192" s="14">
-        <v>8.9163947948E10</v>
+        <v>8.9835221226E10</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>76</v>
+        <v>609</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>76</v>
+        <v>610</v>
       </c>
       <c r="G192" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H192" s="14">
-        <v>42.0</v>
+        <v>22.0</v>
       </c>
       <c r="I192" s="14">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J192" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K192" s="13" t="s">
         <v>27</v>
@@ -14423,139 +14421,151 @@
         <v>39</v>
       </c>
       <c r="M192" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N192" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N192" s="13"/>
+      <c r="O192" s="13"/>
+      <c r="P192" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O192" s="13" t="s">
+      <c r="Q192" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P192" s="13"/>
-      <c r="Q192" s="13"/>
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
-      <c r="T192" s="13"/>
-      <c r="U192" s="13"/>
+      <c r="T192" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U192" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>610</v>
+        <v>611</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>612</v>
       </c>
       <c r="C193" s="14">
-        <v>8.9835221226E10</v>
+        <v>8.9913273527E10</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>611</v>
+        <v>120</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>612</v>
+        <v>121</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H193" s="14">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="I193" s="14">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J193" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K193" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L193" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M193" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N193" s="13"/>
-      <c r="O193" s="13"/>
-      <c r="P193" s="13" t="s">
+      <c r="N193" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O193" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="13"/>
+      <c r="R193" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S193" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T193" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q193" s="13" t="s">
+      <c r="U193" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="R193" s="13"/>
-      <c r="S193" s="13"/>
-      <c r="T193" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U193" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="B194" s="20" t="s">
+      <c r="B194" s="13" t="s">
         <v>614</v>
       </c>
       <c r="C194" s="14">
-        <v>8.9913273527E10</v>
+        <v>8.9022772153E10</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G194" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H194" s="14">
-        <v>32.0</v>
+        <v>52.0</v>
       </c>
       <c r="I194" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J194" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K194" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L194" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M194" s="13" t="s">
         <v>27</v>
       </c>
       <c r="N194" s="13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="O194" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P194" s="13"/>
-      <c r="Q194" s="13"/>
-      <c r="R194" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S194" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="P194" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q194" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R194" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S194" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="T194" s="13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="U194" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -14566,22 +14576,22 @@
         <v>616</v>
       </c>
       <c r="C195" s="14">
-        <v>8.9022772153E10</v>
+        <v>8.9174249921E10</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>128</v>
+        <v>617</v>
       </c>
       <c r="G195" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H195" s="14">
-        <v>52.0</v>
+        <v>41.0</v>
       </c>
       <c r="I195" s="14">
         <f t="shared" si="5"/>
@@ -14591,19 +14601,19 @@
         <v>27</v>
       </c>
       <c r="K195" s="13" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L195" s="13" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M195" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N195" s="13" t="s">
         <v>29</v>
       </c>
       <c r="O195" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P195" s="25" t="s">
         <v>33</v>
@@ -14617,53 +14627,49 @@
       <c r="S195" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="T195" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U195" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="T195" s="13"/>
+      <c r="U195" s="13"/>
     </row>
     <row r="196">
       <c r="A196" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="B196" s="13" t="s">
         <v>618</v>
       </c>
+      <c r="B196" s="20" t="s">
+        <v>619</v>
+      </c>
       <c r="C196" s="14">
-        <v>8.9174249921E10</v>
+        <v>8.9374741119E10</v>
       </c>
       <c r="D196" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>619</v>
+        <v>54</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H196" s="14">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="I196" s="14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J196" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K196" s="13" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L196" s="13" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M196" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N196" s="13" t="s">
         <v>29</v>
@@ -14671,85 +14677,85 @@
       <c r="O196" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P196" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q196" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R196" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S196" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T196" s="13"/>
-      <c r="U196" s="13"/>
+      <c r="P196" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q196" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R196" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S196" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T196" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U196" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="B197" s="20" t="s">
+      <c r="B197" s="13" t="s">
         <v>621</v>
       </c>
       <c r="C197" s="14">
-        <v>8.9374741119E10</v>
+        <v>8.9304070991E10</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H197" s="14">
-        <v>25.0</v>
+        <v>55.0</v>
       </c>
       <c r="I197" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J197" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K197" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L197" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M197" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N197" s="13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O197" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P197" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q197" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R197" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S197" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="T197" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U197" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="P197" s="13"/>
+      <c r="Q197" s="13"/>
+      <c r="R197" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S197" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T197" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U197" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="198">
@@ -14760,88 +14766,84 @@
         <v>623</v>
       </c>
       <c r="C198" s="14">
-        <v>8.9304070991E10</v>
+        <v>8.90424781E10</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>120</v>
+        <v>624</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>121</v>
+        <v>625</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H198" s="14">
-        <v>55.0</v>
+        <v>44.0</v>
       </c>
       <c r="I198" s="14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J198" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K198" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L198" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="L198" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="M198" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N198" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O198" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P198" s="13"/>
-      <c r="Q198" s="13"/>
-      <c r="R198" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S198" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T198" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="U198" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="N198" s="13"/>
+      <c r="O198" s="13"/>
+      <c r="P198" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q198" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R198" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S198" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T198" s="13"/>
+      <c r="U198" s="13"/>
     </row>
     <row r="199">
       <c r="A199" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="B199" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>627</v>
       </c>
       <c r="C199" s="14">
-        <v>8.90424781E10</v>
+        <v>8.9064006239E10</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>626</v>
+        <v>183</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>627</v>
+        <v>184</v>
       </c>
       <c r="G199" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H199" s="14">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="I199" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J199" s="13" t="s">
         <v>39</v>
@@ -14849,25 +14851,25 @@
       <c r="K199" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L199" s="28" t="s">
-        <v>27</v>
+      <c r="L199" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="M199" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N199" s="13"/>
       <c r="O199" s="13"/>
       <c r="P199" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q199" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R199" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S199" s="13" t="s">
-        <v>32</v>
+      <c r="R199" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S199" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="T199" s="13"/>
       <c r="U199" s="13"/>
@@ -14876,112 +14878,116 @@
       <c r="A200" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="20" t="s">
         <v>629</v>
       </c>
       <c r="C200" s="14">
-        <v>8.9064006239E10</v>
+        <v>8.9081727263E10</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>183</v>
+        <v>379</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>184</v>
+        <v>630</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H200" s="14">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="I200" s="14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J200" s="13" t="s">
         <v>39</v>
       </c>
       <c r="K200" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L200" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M200" s="13" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N200" s="13"/>
       <c r="O200" s="13"/>
-      <c r="P200" s="13" t="s">
+      <c r="P200" s="13"/>
+      <c r="Q200" s="13"/>
+      <c r="R200" s="13"/>
+      <c r="S200" s="13"/>
+      <c r="T200" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q200" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R200" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S200" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T200" s="13"/>
-      <c r="U200" s="13"/>
+      <c r="U200" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="B201" s="20" t="s">
         <v>631</v>
       </c>
+      <c r="B201" s="13" t="s">
+        <v>632</v>
+      </c>
       <c r="C201" s="14">
-        <v>8.9081727263E10</v>
+        <v>8.9167787739E10</v>
       </c>
       <c r="D201" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>632</v>
+        <v>77</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H201" s="14">
-        <v>34.0</v>
+        <v>42.0</v>
       </c>
       <c r="I201" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J201" s="13" t="s">
         <v>39</v>
       </c>
       <c r="K201" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L201" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M201" s="13" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N201" s="13"/>
       <c r="O201" s="13"/>
-      <c r="P201" s="13"/>
-      <c r="Q201" s="13"/>
-      <c r="R201" s="13"/>
-      <c r="S201" s="13"/>
-      <c r="T201" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U201" s="13" t="s">
-        <v>32</v>
+      <c r="P201" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q201" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R201" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S201" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T201" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U201" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="202">
@@ -14992,35 +14998,35 @@
         <v>634</v>
       </c>
       <c r="C202" s="14">
-        <v>8.9167787739E10</v>
+        <v>8.9168048734E10</v>
       </c>
       <c r="D202" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>77</v>
+        <v>635</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H202" s="14">
-        <v>42.0</v>
+        <v>35.0</v>
       </c>
       <c r="I202" s="14">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J202" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K202" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L202" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M202" s="13" t="s">
         <v>48</v>
@@ -15028,69 +15034,61 @@
       <c r="N202" s="13"/>
       <c r="O202" s="13"/>
       <c r="P202" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q202" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="R202" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S202" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T202" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="U202" s="25" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="R202" s="13"/>
+      <c r="S202" s="13"/>
+      <c r="T202" s="13"/>
+      <c r="U202" s="13"/>
     </row>
     <row r="203">
       <c r="A203" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="B203" s="13" t="s">
         <v>636</v>
       </c>
+      <c r="B203" s="20" t="s">
+        <v>637</v>
+      </c>
       <c r="C203" s="14">
-        <v>8.9168048734E10</v>
+        <v>8.9119960778E10</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>637</v>
+        <v>143</v>
       </c>
       <c r="G203" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H203" s="14">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="I203" s="14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J203" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K203" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L203" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K203" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L203" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="M203" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N203" s="13"/>
       <c r="O203" s="13"/>
       <c r="P203" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q203" s="13" t="s">
         <v>32</v>
@@ -15108,22 +15106,22 @@
         <v>639</v>
       </c>
       <c r="C204" s="14">
-        <v>8.9119960778E10</v>
+        <v>8.9244436996E10</v>
       </c>
       <c r="D204" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E204" s="13" t="s">
-        <v>143</v>
+        <v>640</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>143</v>
+        <v>641</v>
       </c>
       <c r="G204" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H204" s="14">
-        <v>50.0</v>
+        <v>18.0</v>
       </c>
       <c r="I204" s="14">
         <f t="shared" si="5"/>
@@ -15136,18 +15134,18 @@
         <v>27</v>
       </c>
       <c r="L204" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M204" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="M204" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="N204" s="13"/>
       <c r="O204" s="13"/>
       <c r="P204" s="13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q204" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R204" s="13"/>
       <c r="S204" s="13"/>
@@ -15156,28 +15154,28 @@
     </row>
     <row r="205">
       <c r="A205" s="13" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C205" s="14">
-        <v>8.9244436996E10</v>
+        <v>8.9273039771E10</v>
       </c>
       <c r="D205" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>642</v>
+        <v>131</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>643</v>
+        <v>54</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H205" s="14">
-        <v>18.0</v>
+        <v>42.0</v>
       </c>
       <c r="I205" s="14">
         <f t="shared" si="5"/>
@@ -15190,10 +15188,10 @@
         <v>27</v>
       </c>
       <c r="L205" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M205" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N205" s="13"/>
       <c r="O205" s="13"/>
@@ -15216,26 +15214,26 @@
         <v>645</v>
       </c>
       <c r="C206" s="14">
-        <v>8.9273039771E10</v>
+        <v>8.9166188342E10</v>
       </c>
       <c r="D206" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>131</v>
+        <v>646</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G206" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H206" s="14">
-        <v>42.0</v>
+        <v>53.0</v>
       </c>
       <c r="I206" s="14">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J206" s="13" t="s">
         <v>39</v>
@@ -15244,100 +15242,100 @@
         <v>27</v>
       </c>
       <c r="L206" s="13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M206" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N206" s="13"/>
-      <c r="O206" s="13"/>
       <c r="P206" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q206" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R206" s="13"/>
-      <c r="S206" s="13"/>
-      <c r="T206" s="13"/>
-      <c r="U206" s="13"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="B207" s="20" t="s">
         <v>647</v>
       </c>
+      <c r="B207" s="13" t="s">
+        <v>648</v>
+      </c>
       <c r="C207" s="14">
-        <v>8.9166188342E10</v>
+        <v>8.9139676837E10</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>76</v>
+        <v>610</v>
       </c>
       <c r="G207" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H207" s="14">
-        <v>53.0</v>
+        <v>33.0</v>
       </c>
       <c r="I207" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>COUNTIF(J207:M207, "Да")</f>
+        <v>1</v>
       </c>
       <c r="J207" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K207" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L207" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M207" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="N207" s="13"/>
+      <c r="O207" s="13"/>
       <c r="P207" s="13" t="s">
         <v>31</v>
       </c>
       <c r="Q207" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="R207" s="13"/>
+      <c r="S207" s="13"/>
+      <c r="T207" s="13"/>
+      <c r="U207" s="13"/>
     </row>
     <row r="208">
       <c r="A208" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C208" s="14">
-        <v>8.9139676837E10</v>
+        <v>8.9162052211E10</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>651</v>
+        <v>77</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>612</v>
+        <v>77</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H208" s="14">
         <v>33.0</v>
       </c>
       <c r="I208" s="14">
-        <f>COUNTIF(J208:M208, "Да")</f>
-        <v>1</v>
+        <f>COUNTIF(J208:M208, "Да")+COUNTIF(J208:M208, "Запас")</f>
+        <v>3</v>
       </c>
       <c r="J208" s="13" t="s">
         <v>48</v>
@@ -15346,82 +15344,28 @@
         <v>27</v>
       </c>
       <c r="L208" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M208" s="13" t="s">
-        <v>39</v>
+        <v>39</v>
+      </c>
+      <c r="M208" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N208" s="13"/>
       <c r="O208" s="13"/>
       <c r="P208" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q208" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R208" s="13"/>
       <c r="S208" s="13"/>
-      <c r="T208" s="13"/>
-      <c r="U208" s="13"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="C209" s="14">
-        <v>8.9162052211E10</v>
-      </c>
-      <c r="D209" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F209" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G209" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H209" s="14">
-        <v>33.0</v>
-      </c>
-      <c r="I209" s="14">
-        <f>COUNTIF(J209:M209, "Да")+COUNTIF(J209:M209, "Запас")</f>
-        <v>3</v>
-      </c>
-      <c r="J209" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K209" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L209" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M209" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N209" s="13"/>
-      <c r="O209" s="13"/>
-      <c r="P209" s="13" t="s">
+      <c r="T208" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q209" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="R209" s="13"/>
-      <c r="S209" s="13"/>
-      <c r="T209" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U209" s="13" t="s">
+      <c r="U208" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="V209" s="13"/>
+      <c r="V208" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H19:H20 H23:H27">
@@ -15440,7 +15384,7 @@
       <formula>NOT(ISERROR(SEARCH(("Нет, не готов предоставить запись аудиозвонка"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A6 A14:A18 A21:A22 A28:A994">
+  <conditionalFormatting sqref="A1:A6 A14:A18 A21:A22 A28:A993">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>COUNTIF(A:A,A1)&gt;=2</formula>
     </cfRule>
@@ -15519,14 +15463,14 @@
     <hyperlink r:id="rId66" ref="B186"/>
     <hyperlink r:id="rId67" ref="B190"/>
     <hyperlink r:id="rId68" ref="B191"/>
-    <hyperlink r:id="rId69" ref="B194"/>
-    <hyperlink r:id="rId70" ref="B197"/>
-    <hyperlink r:id="rId71" ref="B200"/>
-    <hyperlink r:id="rId72" ref="B201"/>
-    <hyperlink r:id="rId73" ref="B204"/>
-    <hyperlink r:id="rId74" ref="B205"/>
-    <hyperlink r:id="rId75" ref="B206"/>
-    <hyperlink r:id="rId76" ref="B207"/>
+    <hyperlink r:id="rId69" ref="B193"/>
+    <hyperlink r:id="rId70" ref="B196"/>
+    <hyperlink r:id="rId71" ref="B199"/>
+    <hyperlink r:id="rId72" ref="B200"/>
+    <hyperlink r:id="rId73" ref="B203"/>
+    <hyperlink r:id="rId74" ref="B204"/>
+    <hyperlink r:id="rId75" ref="B205"/>
+    <hyperlink r:id="rId76" ref="B206"/>
   </hyperlinks>
   <drawing r:id="rId77"/>
 </worksheet>
@@ -15544,16 +15488,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>655</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="2">
@@ -15561,16 +15505,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>659</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="3">
@@ -15578,16 +15522,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>663</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="5">
@@ -15595,16 +15539,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>667</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>668</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="6">
@@ -15612,16 +15556,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>671</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -15662,10 +15606,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2">
@@ -15673,7 +15617,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3">
@@ -15681,7 +15625,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5">
@@ -15689,7 +15633,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6">
@@ -15697,7 +15641,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="683">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -1988,6 +1988,24 @@
   </si>
   <si>
     <t>@liana_sultanova</t>
+  </si>
+  <si>
+    <t>Дудинова Оксана Николаевна</t>
+  </si>
+  <si>
+    <t>@O9533695187</t>
+  </si>
+  <si>
+    <t>Вологодская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Череповец </t>
+  </si>
+  <si>
+    <t>Дербилова Светлана Сергеевна</t>
+  </si>
+  <si>
+    <t>@pantera800</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2859,7 +2877,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -2932,7 +2950,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3009,7 +3027,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3082,7 +3100,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -3891,7 +3909,7 @@
         <v>27</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>27</v>
@@ -4821,8 +4839,8 @@
       <c r="J35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>39</v>
+      <c r="K35" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="L35" s="13" t="s">
         <v>27</v>
@@ -5000,11 +5018,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>39</v>
+      <c r="J38" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>27</v>
@@ -5012,17 +5030,17 @@
       <c r="M38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="25" t="s">
-        <v>33</v>
+      <c r="N38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="R38" s="13" t="s">
         <v>40</v>
@@ -6038,8 +6056,8 @@
       <c r="L55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M55" s="13" t="s">
-        <v>39</v>
+      <c r="M55" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>29</v>
@@ -6055,8 +6073,12 @@
       </c>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
+      <c r="T55" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
@@ -6728,8 +6750,8 @@
       <c r="S66" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="T66" s="13" t="s">
-        <v>29</v>
+      <c r="T66" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="U66" s="13" t="s">
         <v>30</v>
@@ -11347,7 +11369,7 @@
         <v>40</v>
       </c>
       <c r="S141" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T141" s="13" t="s">
         <v>29</v>
@@ -14188,8 +14210,8 @@
       <c r="T188" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="U188" s="13" t="s">
-        <v>32</v>
+      <c r="U188" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="189">
@@ -14237,7 +14259,7 @@
         <v>40</v>
       </c>
       <c r="O189" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P189" s="13" t="s">
         <v>31</v>
@@ -15366,6 +15388,122 @@
         <v>31</v>
       </c>
       <c r="V208" s="13"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="C209" s="14">
+        <v>8.9533695187E10</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="G209" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H209" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="I209" s="14">
+        <f t="shared" ref="I209:I210" si="6">COUNTIF(J209:M209, "Да")</f>
+        <v>2</v>
+      </c>
+      <c r="J209" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K209" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L209" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M209" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N209" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O209" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P209" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q209" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R209" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S209" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T209" s="13"/>
+      <c r="U209" s="13"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C210" s="14">
+        <v>8.9686015075E10</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G210" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H210" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="I210" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J210" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K210" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L210" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M210" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N210" s="13"/>
+      <c r="O210" s="13"/>
+      <c r="P210" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q210" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R210" s="13"/>
+      <c r="S210" s="13"/>
+      <c r="T210" s="13"/>
+      <c r="U210" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H19:H20 H23:H27">
@@ -15488,16 +15626,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2">
@@ -15505,16 +15643,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3">
@@ -15522,16 +15660,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5">
@@ -15539,16 +15677,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6">
@@ -15556,16 +15694,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -15606,10 +15744,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2">
@@ -15617,7 +15755,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3">
@@ -15625,7 +15763,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5">
@@ -15633,7 +15771,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6">
@@ -15641,7 +15779,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="683">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -13828,10 +13828,10 @@
         <v>27</v>
       </c>
       <c r="L182" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M182" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
@@ -13841,10 +13841,18 @@
       <c r="Q182" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R182" s="13"/>
-      <c r="S182" s="13"/>
-      <c r="T182" s="13"/>
-      <c r="U182" s="13"/>
+      <c r="R182" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S182" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T182" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U182" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="13" t="s">

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="685">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2006,6 +2006,12 @@
   </si>
   <si>
     <t>@pantera800</t>
+  </si>
+  <si>
+    <t>Томашева Кокшурн Юлия Анатольевна</t>
+  </si>
+  <si>
+    <t>https://t.me/soulfinfer</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2950,7 +2956,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3100,7 +3106,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -15512,6 +15518,61 @@
       <c r="S210" s="13"/>
       <c r="T210" s="13"/>
       <c r="U210" s="13"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="C211" s="14">
+        <v>8.9184008826E10</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G211" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H211" s="14">
+        <v>45.0</v>
+      </c>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K211" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L211" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M211" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N211" s="13"/>
+      <c r="O211" s="13"/>
+      <c r="P211" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q211" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R211" s="13"/>
+      <c r="S211" s="13"/>
+      <c r="T211" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U211" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H19:H20 H23:H27">
@@ -15617,8 +15678,9 @@
     <hyperlink r:id="rId74" ref="B204"/>
     <hyperlink r:id="rId75" ref="B205"/>
     <hyperlink r:id="rId76" ref="B206"/>
+    <hyperlink r:id="rId77" ref="B211"/>
   </hyperlinks>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
 
@@ -15634,16 +15696,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2">
@@ -15651,16 +15713,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3">
@@ -15668,16 +15730,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5">
@@ -15685,16 +15747,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6">
@@ -15702,16 +15764,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -15752,10 +15814,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2">
@@ -15763,7 +15825,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3">
@@ -15771,7 +15833,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5">
@@ -15779,7 +15841,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6">
@@ -15787,7 +15849,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="685">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -10435,8 +10435,8 @@
       <c r="L126" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M126" s="13" t="s">
-        <v>39</v>
+      <c r="M126" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
@@ -10448,8 +10448,12 @@
       </c>
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
-      <c r="T126" s="13"/>
-      <c r="U126" s="13"/>
+      <c r="T126" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U126" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="13" t="s">
@@ -14945,8 +14949,8 @@
       <c r="K200" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L200" s="13" t="s">
-        <v>39</v>
+      <c r="L200" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="M200" s="13" t="s">
         <v>27</v>
@@ -14955,8 +14959,12 @@
       <c r="O200" s="13"/>
       <c r="P200" s="13"/>
       <c r="Q200" s="13"/>
-      <c r="R200" s="13"/>
-      <c r="S200" s="13"/>
+      <c r="R200" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S200" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T200" s="13" t="s">
         <v>31</v>
       </c>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="685">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -6065,8 +6065,8 @@
       <c r="M55" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="N55" s="13" t="s">
-        <v>29</v>
+      <c r="N55" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="O55" s="13" t="s">
         <v>30</v>
@@ -15069,8 +15069,8 @@
       <c r="K202" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L202" s="13" t="s">
-        <v>39</v>
+      <c r="L202" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="M202" s="13" t="s">
         <v>48</v>
@@ -15083,8 +15083,12 @@
       <c r="Q202" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R202" s="13"/>
-      <c r="S202" s="13"/>
+      <c r="R202" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S202" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T202" s="13"/>
       <c r="U202" s="13"/>
     </row>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="685">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -5888,8 +5888,8 @@
       <c r="L52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M52" s="13" t="s">
-        <v>39</v>
+      <c r="M52" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -5901,8 +5901,12 @@
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
+      <c r="T52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U52" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
@@ -15122,7 +15126,7 @@
         <v>3</v>
       </c>
       <c r="J203" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K203" s="13" t="s">
         <v>27</v>
@@ -15131,10 +15135,14 @@
         <v>48</v>
       </c>
       <c r="M203" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N203" s="13"/>
-      <c r="O203" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="N203" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O203" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P203" s="13" t="s">
         <v>40</v>
       </c>
@@ -15143,8 +15151,12 @@
       </c>
       <c r="R203" s="13"/>
       <c r="S203" s="13"/>
-      <c r="T203" s="13"/>
-      <c r="U203" s="13"/>
+      <c r="T203" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U203" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="13" t="s">

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="690">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -1068,6 +1068,9 @@
     <t xml:space="preserve">Димитровград </t>
   </si>
   <si>
+    <t>Выбыл</t>
+  </si>
+  <si>
     <t>Лигачева Дарья Михайловна</t>
   </si>
   <si>
@@ -1780,9 +1783,6 @@
   </si>
   <si>
     <t>@ildarmotion</t>
-  </si>
-  <si>
-    <t>Выбыл</t>
   </si>
   <si>
     <t>Хисматова Лениза Ильдусовна</t>
@@ -2012,6 +2012,21 @@
   </si>
   <si>
     <t>https://t.me/soulfinfer</t>
+  </si>
+  <si>
+    <t>Ульянова Дарья Павловна</t>
+  </si>
+  <si>
+    <t>https://t.me/Nastysha_0205</t>
+  </si>
+  <si>
+    <t>Салават</t>
+  </si>
+  <si>
+    <t>Кулешова Надежда Петровна</t>
+  </si>
+  <si>
+    <t>https://t.me/zanozkin</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2883,7 +2898,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -2956,7 +2971,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3033,7 +3048,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3106,7 +3121,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -3909,7 +3924,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>27</v>
@@ -3920,8 +3935,12 @@
       <c r="M20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="N20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P20" s="13" t="s">
         <v>29</v>
       </c>
@@ -6307,8 +6326,8 @@
       <c r="K59" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="13" t="s">
-        <v>39</v>
+      <c r="L59" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>27</v>
@@ -6317,8 +6336,12 @@
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
+      <c r="R59" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T59" s="13" t="s">
         <v>31</v>
       </c>
@@ -8588,7 +8611,7 @@
       </c>
       <c r="I96" s="14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" s="13" t="s">
         <v>39</v>
@@ -8596,8 +8619,8 @@
       <c r="K96" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L96" s="13" t="s">
-        <v>27</v>
+      <c r="L96" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="M96" s="13" t="s">
         <v>27</v>
@@ -8610,14 +8633,14 @@
       <c r="Q96" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="R96" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S96" s="13" t="s">
-        <v>32</v>
+      <c r="R96" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S96" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="T96" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="U96" s="13" t="s">
         <v>32</v>
@@ -8625,10 +8648,10 @@
     </row>
     <row r="97">
       <c r="A97" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C97" s="14">
         <v>8.9288423575E10</v>
@@ -8683,10 +8706,10 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C98" s="14">
         <v>8.9272552207E10</v>
@@ -8749,10 +8772,10 @@
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C99" s="14">
         <v>8.9105012024E10</v>
@@ -8761,10 +8784,10 @@
         <v>52</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>26</v>
@@ -8807,10 +8830,10 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C100" s="14">
         <v>8.9533316231E10</v>
@@ -8819,10 +8842,10 @@
         <v>23</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>38</v>
@@ -8869,10 +8892,10 @@
     </row>
     <row r="101">
       <c r="A101" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C101" s="14">
         <v>8.9262840669E10</v>
@@ -8935,10 +8958,10 @@
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C102" s="14">
         <v>8.9247047975E10</v>
@@ -8947,10 +8970,10 @@
         <v>23</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G102" s="13" t="s">
         <v>26</v>
@@ -9001,10 +9024,10 @@
     </row>
     <row r="103">
       <c r="A103" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C103" s="14">
         <v>8.9176004996E10</v>
@@ -9013,10 +9036,10 @@
         <v>23</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>26</v>
@@ -9055,10 +9078,10 @@
     </row>
     <row r="104">
       <c r="A104" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C104" s="14">
         <v>8.9958810686E10</v>
@@ -9070,7 +9093,7 @@
         <v>191</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>38</v>
@@ -9117,10 +9140,10 @@
     </row>
     <row r="105">
       <c r="A105" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C105" s="14">
         <v>8.9213285851E10</v>
@@ -9171,10 +9194,10 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C106" s="14">
         <v>8.9882503041E10</v>
@@ -9183,10 +9206,10 @@
         <v>23</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>26</v>
@@ -9204,8 +9227,8 @@
       <c r="K106" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L106" s="13" t="s">
-        <v>39</v>
+      <c r="L106" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="M106" s="13" t="s">
         <v>27</v>
@@ -9218,8 +9241,12 @@
       <c r="Q106" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
+      <c r="R106" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S106" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T106" s="13" t="s">
         <v>31</v>
       </c>
@@ -9229,10 +9256,10 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C107" s="14">
         <v>8.9530371763E10</v>
@@ -9241,7 +9268,7 @@
         <v>23</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>273</v>
@@ -9291,10 +9318,10 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C108" s="14">
         <v>8.9867433286E10</v>
@@ -9345,10 +9372,10 @@
     </row>
     <row r="109">
       <c r="A109" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C109" s="14">
         <v>8.9144752213E10</v>
@@ -9357,10 +9384,10 @@
         <v>23</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>38</v>
@@ -9411,10 +9438,10 @@
     </row>
     <row r="110">
       <c r="A110" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C110" s="14">
         <v>8.9528012694E10</v>
@@ -9423,7 +9450,7 @@
         <v>23</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>47</v>
@@ -9473,10 +9500,10 @@
     </row>
     <row r="111">
       <c r="A111" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C111" s="14">
         <v>8.9835458415E10</v>
@@ -9485,7 +9512,7 @@
         <v>23</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>273</v>
@@ -9531,10 +9558,10 @@
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C112" s="14">
         <v>8.9045573468E10</v>
@@ -9546,7 +9573,7 @@
         <v>105</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G112" s="13" t="s">
         <v>26</v>
@@ -9593,10 +9620,10 @@
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C113" s="14">
         <v>8.9656357339E10</v>
@@ -9605,10 +9632,10 @@
         <v>23</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G113" s="13" t="s">
         <v>26</v>
@@ -9655,10 +9682,10 @@
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C114" s="14">
         <v>8.9124676438E10</v>
@@ -9667,7 +9694,7 @@
         <v>23</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>180</v>
@@ -9717,10 +9744,10 @@
     </row>
     <row r="115">
       <c r="A115" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C115" s="14">
         <v>8.9960238005E10</v>
@@ -9729,10 +9756,10 @@
         <v>52</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G115" s="13" t="s">
         <v>26</v>
@@ -9771,10 +9798,10 @@
     </row>
     <row r="116">
       <c r="A116" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C116" s="14">
         <v>8.9375458841E10</v>
@@ -9786,7 +9813,7 @@
         <v>296</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G116" s="13" t="s">
         <v>26</v>
@@ -9837,10 +9864,10 @@
     </row>
     <row r="117">
       <c r="A117" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C117" s="14">
         <v>8.9670678091E10</v>
@@ -9852,7 +9879,7 @@
         <v>77</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G117" s="13" t="s">
         <v>26</v>
@@ -9899,10 +9926,10 @@
     </row>
     <row r="118">
       <c r="A118" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C118" s="14">
         <v>8.9372625551E10</v>
@@ -9965,10 +9992,10 @@
     </row>
     <row r="119">
       <c r="A119" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C119" s="14">
         <v>8.9114711736E10</v>
@@ -10031,10 +10058,10 @@
     </row>
     <row r="120">
       <c r="A120" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C120" s="14">
         <v>8.9829151333E10</v>
@@ -10089,10 +10116,10 @@
     </row>
     <row r="121">
       <c r="A121" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C121" s="14">
         <v>8.9234036597E10</v>
@@ -10155,10 +10182,10 @@
     </row>
     <row r="122">
       <c r="A122" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C122" s="14">
         <v>8.9171791637E10</v>
@@ -10167,7 +10194,7 @@
         <v>23</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>73</v>
@@ -10209,10 +10236,10 @@
     </row>
     <row r="123">
       <c r="A123" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C123" s="14">
         <v>8.9196070227E10</v>
@@ -10224,7 +10251,7 @@
         <v>131</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G123" s="13" t="s">
         <v>26</v>
@@ -10275,10 +10302,10 @@
     </row>
     <row r="124">
       <c r="A124" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C124" s="14">
         <v>8.986907922E10</v>
@@ -10341,10 +10368,10 @@
     </row>
     <row r="125">
       <c r="A125" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C125" s="14">
         <v>8.9233503408E10</v>
@@ -10353,7 +10380,7 @@
         <v>23</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>139</v>
@@ -10403,10 +10430,10 @@
     </row>
     <row r="126">
       <c r="A126" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C126" s="14">
         <v>8.927607349E10</v>
@@ -10461,10 +10488,10 @@
     </row>
     <row r="127">
       <c r="A127" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C127" s="14">
         <v>8.9967686968E10</v>
@@ -10473,7 +10500,7 @@
         <v>23</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>143</v>
@@ -10526,10 +10553,10 @@
     </row>
     <row r="128">
       <c r="A128" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C128" s="14">
         <v>8.9061968689E10</v>
@@ -10541,7 +10568,7 @@
         <v>272</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G128" s="13" t="s">
         <v>26</v>
@@ -10588,10 +10615,10 @@
     </row>
     <row r="129">
       <c r="A129" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C129" s="14">
         <v>8.9525293042E10</v>
@@ -10646,10 +10673,10 @@
     </row>
     <row r="130">
       <c r="A130" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C130" s="14">
         <v>8.9680138063E10</v>
@@ -10704,10 +10731,10 @@
     </row>
     <row r="131">
       <c r="A131" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C131" s="14">
         <v>8.9009053337E10</v>
@@ -10716,10 +10743,10 @@
         <v>23</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G131" s="13" t="s">
         <v>26</v>
@@ -10762,10 +10789,10 @@
     </row>
     <row r="132">
       <c r="A132" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C132" s="14">
         <v>8.9043817591E10</v>
@@ -10774,7 +10801,7 @@
         <v>23</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F132" s="13" t="s">
         <v>289</v>
@@ -10828,10 +10855,10 @@
     </row>
     <row r="133">
       <c r="A133" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C133" s="14">
         <v>8.9969233065E10</v>
@@ -10843,7 +10870,7 @@
         <v>36</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G133" s="13" t="s">
         <v>38</v>
@@ -10894,10 +10921,10 @@
     </row>
     <row r="134">
       <c r="A134" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C134" s="14">
         <v>8.914152599E10</v>
@@ -10906,10 +10933,10 @@
         <v>23</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G134" s="13" t="s">
         <v>26</v>
@@ -10952,10 +10979,10 @@
     </row>
     <row r="135">
       <c r="A135" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C135" s="14">
         <v>8.902783375E10</v>
@@ -10967,7 +10994,7 @@
         <v>341</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G135" s="13" t="s">
         <v>26</v>
@@ -11010,10 +11037,10 @@
     </row>
     <row r="136">
       <c r="A136" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C136" s="14">
         <v>8.9536775789E10</v>
@@ -11022,10 +11049,10 @@
         <v>23</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G136" s="13" t="s">
         <v>26</v>
@@ -11072,10 +11099,10 @@
     </row>
     <row r="137">
       <c r="A137" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C137" s="14">
         <v>8.9155929465E10</v>
@@ -11084,10 +11111,10 @@
         <v>23</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G137" s="13" t="s">
         <v>26</v>
@@ -11138,10 +11165,10 @@
     </row>
     <row r="138">
       <c r="A138" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C138" s="14">
         <v>8.9278729101E10</v>
@@ -11150,10 +11177,10 @@
         <v>23</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G138" s="13" t="s">
         <v>26</v>
@@ -11200,10 +11227,10 @@
     </row>
     <row r="139">
       <c r="A139" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C139" s="14">
         <v>8.9640046593E10</v>
@@ -11212,10 +11239,10 @@
         <v>23</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G139" s="13" t="s">
         <v>26</v>
@@ -11266,10 +11293,10 @@
     </row>
     <row r="140">
       <c r="A140" s="13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C140" s="14">
         <v>8.9818441643E10</v>
@@ -11328,10 +11355,10 @@
     </row>
     <row r="141">
       <c r="A141" s="13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C141" s="14">
         <v>8.9281190239E10</v>
@@ -11340,10 +11367,10 @@
         <v>23</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G141" s="13" t="s">
         <v>26</v>
@@ -11394,10 +11421,10 @@
     </row>
     <row r="142">
       <c r="A142" s="13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C142" s="14">
         <v>8.9042105542E10</v>
@@ -11456,10 +11483,10 @@
     </row>
     <row r="143">
       <c r="A143" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C143" s="14">
         <v>8.9786742029E10</v>
@@ -11468,10 +11495,10 @@
         <v>52</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G143" s="13" t="s">
         <v>38</v>
@@ -11518,10 +11545,10 @@
     </row>
     <row r="144">
       <c r="A144" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C144" s="14">
         <v>8.900606158E10</v>
@@ -11530,10 +11557,10 @@
         <v>23</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G144" s="13" t="s">
         <v>38</v>
@@ -11580,10 +11607,10 @@
     </row>
     <row r="145">
       <c r="A145" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C145" s="14">
         <v>8.9504479502E10</v>
@@ -11592,7 +11619,7 @@
         <v>52</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F145" s="13" t="s">
         <v>334</v>
@@ -11646,10 +11673,10 @@
     </row>
     <row r="146">
       <c r="A146" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C146" s="14">
         <v>8.9376248031E10</v>
@@ -11704,10 +11731,10 @@
     </row>
     <row r="147">
       <c r="A147" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C147" s="14">
         <v>8.9377894952E10</v>
@@ -11758,10 +11785,10 @@
     </row>
     <row r="148">
       <c r="A148" s="13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C148" s="14">
         <v>8.9062467575E10</v>
@@ -11824,10 +11851,10 @@
     </row>
     <row r="149">
       <c r="A149" s="13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C149" s="14">
         <v>8.9254200879E10</v>
@@ -11836,7 +11863,7 @@
         <v>52</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F149" s="13" t="s">
         <v>77</v>
@@ -11890,10 +11917,10 @@
     </row>
     <row r="150">
       <c r="A150" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C150" s="14">
         <v>8.9999822516E10</v>
@@ -11948,10 +11975,10 @@
     </row>
     <row r="151">
       <c r="A151" s="13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C151" s="14">
         <v>8.9063478626E10</v>
@@ -11985,7 +12012,7 @@
         <v>39</v>
       </c>
       <c r="M151" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N151" s="13"/>
       <c r="O151" s="13"/>
@@ -11997,15 +12024,19 @@
       </c>
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
-      <c r="T151" s="13"/>
-      <c r="U151" s="13"/>
+      <c r="T151" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U151" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C152" s="14">
         <v>8.9370280509E10</v>
@@ -12017,7 +12048,7 @@
         <v>198</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G152" s="13" t="s">
         <v>38</v>
@@ -12060,10 +12091,10 @@
     </row>
     <row r="153">
       <c r="A153" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C153" s="14">
         <v>8.9082514848E10</v>
@@ -12072,10 +12103,10 @@
         <v>23</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G153" s="13" t="s">
         <v>38</v>
@@ -12085,7 +12116,7 @@
       </c>
       <c r="I153" s="14">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J153" s="13" t="s">
         <v>48</v>
@@ -12096,8 +12127,8 @@
       <c r="L153" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M153" s="13" t="s">
-        <v>27</v>
+      <c r="M153" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="N153" s="25" t="s">
         <v>33</v>
@@ -12113,19 +12144,19 @@
       </c>
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
-      <c r="T153" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U153" s="13" t="s">
-        <v>30</v>
+      <c r="T153" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U153" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C154" s="14">
         <v>8.9200106562E10</v>
@@ -12184,10 +12215,10 @@
     </row>
     <row r="155">
       <c r="A155" s="13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C155" s="14">
         <v>8.9647238483E10</v>
@@ -12238,10 +12269,10 @@
     </row>
     <row r="156">
       <c r="A156" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C156" s="14">
         <v>8.9530897291E10</v>
@@ -12250,10 +12281,10 @@
         <v>52</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G156" s="13" t="s">
         <v>26</v>
@@ -12300,10 +12331,10 @@
     </row>
     <row r="157">
       <c r="A157" s="13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C157" s="14">
         <v>8.9057841817E10</v>
@@ -12315,7 +12346,7 @@
         <v>77</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G157" s="13" t="s">
         <v>38</v>
@@ -12362,10 +12393,10 @@
     </row>
     <row r="158">
       <c r="A158" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C158" s="14">
         <v>8.9998246317E10</v>
@@ -12428,10 +12459,10 @@
     </row>
     <row r="159">
       <c r="A159" s="13" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C159" s="14">
         <v>8.9122122008E10</v>
@@ -12440,7 +12471,7 @@
         <v>23</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F159" s="13" t="s">
         <v>289</v>
@@ -12494,10 +12525,10 @@
     </row>
     <row r="160">
       <c r="A160" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C160" s="14">
         <v>8.9030939903E10</v>
@@ -12556,10 +12587,10 @@
     </row>
     <row r="161">
       <c r="A161" s="13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C161" s="14">
         <v>8.9872341275E10</v>
@@ -12571,7 +12602,7 @@
         <v>96</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G161" s="13" t="s">
         <v>26</v>
@@ -12610,7 +12641,7 @@
     </row>
     <row r="162">
       <c r="A162" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -12638,10 +12669,10 @@
     </row>
     <row r="163">
       <c r="A163" s="13" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C163" s="14">
         <v>8.9022506257E10</v>
@@ -12650,10 +12681,10 @@
         <v>23</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G163" s="13" t="s">
         <v>26</v>
@@ -12696,10 +12727,10 @@
     </row>
     <row r="164">
       <c r="A164" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C164" s="14">
         <v>8.9850554712E10</v>
@@ -12750,10 +12781,10 @@
     </row>
     <row r="165">
       <c r="A165" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C165" s="14">
         <v>8.9245122895E10</v>
@@ -12762,10 +12793,10 @@
         <v>52</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G165" s="13" t="s">
         <v>38</v>
@@ -12808,10 +12839,10 @@
     </row>
     <row r="166">
       <c r="A166" s="13" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C166" s="14">
         <v>8.9153899817E10</v>
@@ -12870,10 +12901,10 @@
     </row>
     <row r="167">
       <c r="A167" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C167" s="14">
         <v>8.9237183977E10</v>
@@ -12885,7 +12916,7 @@
         <v>272</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G167" s="13" t="s">
         <v>26</v>
@@ -12932,10 +12963,10 @@
     </row>
     <row r="168">
       <c r="A168" s="13" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C168" s="14">
         <v>8.9106637291E10</v>
@@ -12998,10 +13029,10 @@
     </row>
     <row r="169">
       <c r="A169" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C169" s="14">
         <v>8.9021258174E10</v>
@@ -13010,10 +13041,10 @@
         <v>23</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G169" s="13" t="s">
         <v>26</v>
@@ -13064,10 +13095,10 @@
     </row>
     <row r="170">
       <c r="A170" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C170" s="14">
         <v>8.9204644775E10</v>
@@ -13118,10 +13149,10 @@
     </row>
     <row r="171">
       <c r="A171" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C171" s="14">
         <v>8.9148921589E10</v>
@@ -13130,10 +13161,10 @@
         <v>23</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G171" s="13" t="s">
         <v>38</v>
@@ -13180,10 +13211,10 @@
     </row>
     <row r="172">
       <c r="A172" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C172" s="14">
         <v>8.9616215222E10</v>
@@ -13195,7 +13226,7 @@
         <v>227</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G172" s="13" t="s">
         <v>38</v>
@@ -13246,10 +13277,10 @@
     </row>
     <row r="173">
       <c r="A173" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C173" s="14">
         <v>8.9067439189E10</v>
@@ -13308,10 +13339,10 @@
     </row>
     <row r="174">
       <c r="A174" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C174" s="14">
         <v>8.9194938539E10</v>
@@ -13320,7 +13351,7 @@
         <v>23</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F174" s="13" t="s">
         <v>334</v>
@@ -13370,10 +13401,10 @@
     </row>
     <row r="175">
       <c r="A175" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C175" s="14">
         <v>8.9202178168E10</v>
@@ -13432,10 +13463,10 @@
     </row>
     <row r="176">
       <c r="A176" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C176" s="14">
         <v>8.9204263795E10</v>
@@ -13494,10 +13525,10 @@
     </row>
     <row r="177">
       <c r="A177" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C177" s="14">
         <v>8.9225729642E10</v>
@@ -13560,10 +13591,10 @@
     </row>
     <row r="178">
       <c r="A178" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C178" s="14">
         <v>8.9170154915E10</v>
@@ -13618,10 +13649,10 @@
     </row>
     <row r="179">
       <c r="A179" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C179" s="14">
         <v>8.964892566E10</v>
@@ -13630,10 +13661,10 @@
         <v>23</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G179" s="13" t="s">
         <v>38</v>
@@ -13676,10 +13707,10 @@
     </row>
     <row r="180">
       <c r="A180" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C180" s="14">
         <v>8.9780181832E10</v>
@@ -13691,7 +13722,7 @@
         <v>292</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G180" s="13" t="s">
         <v>26</v>
@@ -13742,10 +13773,10 @@
     </row>
     <row r="181">
       <c r="A181" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C181" s="14">
         <v>8.9376015841E10</v>
@@ -13808,10 +13839,10 @@
     </row>
     <row r="182">
       <c r="A182" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C182" s="14">
         <v>8.9213016909E10</v>
@@ -13870,10 +13901,10 @@
     </row>
     <row r="183">
       <c r="A183" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C183" s="14">
         <v>8.9052475558E10</v>
@@ -13936,10 +13967,10 @@
     </row>
     <row r="184">
       <c r="A184" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C184" s="14">
         <v>8.9375276504E10</v>
@@ -13964,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="J184" s="28" t="s">
-        <v>589</v>
+        <v>351</v>
       </c>
       <c r="K184" s="13" t="s">
         <v>27</v>
@@ -14151,7 +14182,7 @@
         <v>28</v>
       </c>
       <c r="M187" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N187" s="13"/>
       <c r="O187" s="13"/>
@@ -14167,8 +14198,12 @@
       <c r="S187" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="T187" s="13"/>
-      <c r="U187" s="13"/>
+      <c r="T187" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U187" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="13" t="s">
@@ -14832,7 +14867,7 @@
         <v>4</v>
       </c>
       <c r="J198" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K198" s="13" t="s">
         <v>27</v>
@@ -14841,10 +14876,14 @@
         <v>27</v>
       </c>
       <c r="M198" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N198" s="13"/>
-      <c r="O198" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="N198" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O198" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P198" s="13" t="s">
         <v>40</v>
       </c>
@@ -14857,8 +14896,12 @@
       <c r="S198" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T198" s="13"/>
-      <c r="U198" s="13"/>
+      <c r="T198" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U198" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="13" t="s">
@@ -14932,7 +14975,7 @@
         <v>23</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F200" s="13" t="s">
         <v>630</v>
@@ -15597,6 +15640,126 @@
       <c r="U211" s="13" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="C212" s="14">
+        <v>8.987601203E10</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F212" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="G212" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="I212" s="14">
+        <f t="shared" ref="I212:I213" si="7">COUNTIF(J212:M212, "Да")</f>
+        <v>2</v>
+      </c>
+      <c r="J212" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K212" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L212" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M212" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N212" s="13"/>
+      <c r="O212" s="13"/>
+      <c r="P212" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q212" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R212" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S212" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T212" s="13"/>
+      <c r="U212" s="13"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="C213" s="14">
+        <v>8.9153120412E10</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H213" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="I213" s="14">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J213" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K213" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L213" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M213" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N213" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O213" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P213" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q213" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R213" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S213" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T213" s="13"/>
+      <c r="U213" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H19:H20 H23:H27">
@@ -15703,8 +15866,10 @@
     <hyperlink r:id="rId75" ref="B205"/>
     <hyperlink r:id="rId76" ref="B206"/>
     <hyperlink r:id="rId77" ref="B211"/>
+    <hyperlink r:id="rId78" ref="B212"/>
+    <hyperlink r:id="rId79" ref="B213"/>
   </hyperlinks>
-  <drawing r:id="rId78"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -15720,16 +15885,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2">
@@ -15737,16 +15902,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3">
@@ -15754,16 +15919,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5">
@@ -15771,16 +15936,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6">
@@ -15788,16 +15953,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -15838,10 +16003,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2">
@@ -15849,7 +16014,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3">
@@ -15857,7 +16022,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5">
@@ -15865,7 +16030,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6">
@@ -15873,7 +16038,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="690">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -4302,7 +4302,7 @@
         <v>27</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>39</v>
@@ -4315,8 +4315,12 @@
       <c r="Q26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="R26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
@@ -5602,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>39</v>
@@ -5613,8 +5617,12 @@
       <c r="M47" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
+      <c r="N47" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
@@ -8326,7 +8334,7 @@
         <v>27</v>
       </c>
       <c r="L91" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M91" s="13" t="s">
         <v>48</v>
@@ -8339,8 +8347,12 @@
       <c r="Q91" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
+      <c r="R91" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S91" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T91" s="13"/>
       <c r="U91" s="13"/>
     </row>
@@ -10458,27 +10470,35 @@
         <v>4</v>
       </c>
       <c r="J126" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K126" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L126" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M126" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N126" s="13"/>
-      <c r="O126" s="13"/>
+      <c r="N126" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O126" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="P126" s="13" t="s">
         <v>31</v>
       </c>
       <c r="Q126" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R126" s="13"/>
-      <c r="S126" s="13"/>
+      <c r="R126" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S126" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="T126" s="13" t="s">
         <v>31</v>
       </c>
@@ -12755,27 +12775,35 @@
         <v>3</v>
       </c>
       <c r="J164" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K164" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L164" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M164" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N164" s="13"/>
-      <c r="O164" s="13"/>
+      <c r="N164" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O164" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P164" s="13" t="s">
         <v>29</v>
       </c>
       <c r="Q164" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R164" s="13"/>
-      <c r="S164" s="13"/>
+      <c r="R164" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S164" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T164" s="13"/>
       <c r="U164" s="13"/>
     </row>
@@ -13123,27 +13151,35 @@
         <v>3</v>
       </c>
       <c r="J170" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K170" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L170" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M170" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N170" s="13"/>
-      <c r="O170" s="13"/>
+      <c r="N170" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O170" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P170" s="13" t="s">
         <v>40</v>
       </c>
       <c r="Q170" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R170" s="13"/>
-      <c r="S170" s="13"/>
+      <c r="R170" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S170" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T170" s="13"/>
       <c r="U170" s="13"/>
     </row>
@@ -14990,8 +15026,8 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J200" s="13" t="s">
-        <v>39</v>
+      <c r="J200" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="K200" s="13" t="s">
         <v>39</v>
@@ -15002,8 +15038,12 @@
       <c r="M200" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N200" s="13"/>
-      <c r="O200" s="13"/>
+      <c r="N200" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O200" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P200" s="13"/>
       <c r="Q200" s="13"/>
       <c r="R200" s="13" t="s">
@@ -15619,7 +15659,7 @@
         <v>27</v>
       </c>
       <c r="L211" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M211" s="13" t="s">
         <v>27</v>
@@ -15632,8 +15672,12 @@
       <c r="Q211" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R211" s="13"/>
-      <c r="S211" s="13"/>
+      <c r="R211" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S211" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T211" s="13" t="s">
         <v>40</v>
       </c>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="703">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2027,6 +2027,45 @@
   </si>
   <si>
     <t>https://t.me/zanozkin</t>
+  </si>
+  <si>
+    <t>Асадулин Алексей Алексеевич</t>
+  </si>
+  <si>
+    <t>@Aleksey_05</t>
+  </si>
+  <si>
+    <t>Энгельс</t>
+  </si>
+  <si>
+    <t>Берестов Сергей Юрьевич</t>
+  </si>
+  <si>
+    <t>@Berestov_Sergey</t>
+  </si>
+  <si>
+    <t>Болмат Максим Алексеевич</t>
+  </si>
+  <si>
+    <t>@coconana512</t>
+  </si>
+  <si>
+    <t>Ростовская область</t>
+  </si>
+  <si>
+    <t>Таганрог</t>
+  </si>
+  <si>
+    <t>Борисова Дарья Алексеевна</t>
+  </si>
+  <si>
+    <t>https://t.me/dainerissss</t>
+  </si>
+  <si>
+    <t>Горбушин Дмитрий Андреевич</t>
+  </si>
+  <si>
+    <t>https://t.me/D1men1r</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2898,7 +2937,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3121,7 +3160,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -9188,8 +9227,8 @@
       <c r="L105" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M105" s="13" t="s">
-        <v>39</v>
+      <c r="M105" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N105" s="13"/>
       <c r="O105" s="13"/>
@@ -9201,8 +9240,12 @@
       </c>
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="13"/>
+      <c r="T105" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U105" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
@@ -10779,7 +10822,7 @@
         <v>4</v>
       </c>
       <c r="J131" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K131" s="13" t="s">
         <v>27</v>
@@ -10790,11 +10833,11 @@
       <c r="M131" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N131" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O131" s="25" t="s">
-        <v>33</v>
+      <c r="N131" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O131" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P131" s="13" t="s">
         <v>29</v>
@@ -15804,6 +15847,288 @@
       </c>
       <c r="T213" s="13"/>
       <c r="U213" s="13"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="C214" s="14">
+        <v>8.9297750545E10</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="G214" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H214" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="I214" s="13"/>
+      <c r="J214" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K214" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L214" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M214" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N214" s="13"/>
+      <c r="O214" s="13"/>
+      <c r="P214" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q214" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R214" s="13"/>
+      <c r="S214" s="13"/>
+      <c r="T214" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U214" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="C215" s="14">
+        <v>8.9253550559E10</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F215" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G215" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H215" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K215" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L215" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M215" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N215" s="13"/>
+      <c r="O215" s="13"/>
+      <c r="P215" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q215" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R215" s="13"/>
+      <c r="S215" s="13"/>
+      <c r="T215" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U215" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C216" s="14">
+        <v>8.9002447867E10</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="G216" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H216" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="I216" s="13"/>
+      <c r="J216" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K216" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L216" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M216" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N216" s="13"/>
+      <c r="O216" s="13"/>
+      <c r="P216" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q216" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R216" s="13"/>
+      <c r="S216" s="13"/>
+      <c r="T216" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U216" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="B217" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="C217" s="14">
+        <v>8.9869876416E10</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E217" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G217" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H217" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="I217" s="14">
+        <f>COUNTIF(J217:M217, "Да")</f>
+        <v>0</v>
+      </c>
+      <c r="J217" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K217" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L217" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M217" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N217" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O217" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P217" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q217" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R217" s="13"/>
+      <c r="S217" s="13"/>
+      <c r="T217" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U217" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="B218" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="C218" s="14">
+        <v>8.9969769301E10</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E218" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F218" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G218" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H218" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K218" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L218" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M218" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N218" s="13"/>
+      <c r="O218" s="13"/>
+      <c r="P218" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q218" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R218" s="13"/>
+      <c r="S218" s="13"/>
+      <c r="T218" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U218" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H19:H20 H23:H27">
@@ -15912,8 +16237,10 @@
     <hyperlink r:id="rId77" ref="B211"/>
     <hyperlink r:id="rId78" ref="B212"/>
     <hyperlink r:id="rId79" ref="B213"/>
+    <hyperlink r:id="rId80" ref="B217"/>
+    <hyperlink r:id="rId81" ref="B218"/>
   </hyperlinks>
-  <drawing r:id="rId80"/>
+  <drawing r:id="rId82"/>
 </worksheet>
 </file>
 
@@ -15929,16 +16256,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2">
@@ -15946,16 +16273,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3">
@@ -15963,16 +16290,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5">
@@ -15980,16 +16307,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6">
@@ -15997,16 +16324,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -16047,10 +16374,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2">
@@ -16058,7 +16385,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3">
@@ -16066,7 +16393,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5">
@@ -16074,7 +16401,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6">
@@ -16082,7 +16409,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -3010,7 +3010,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -15883,8 +15883,8 @@
       <c r="L214" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M214" s="13" t="s">
-        <v>39</v>
+      <c r="M214" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N214" s="13"/>
       <c r="O214" s="13"/>
@@ -15938,8 +15938,8 @@
       <c r="L215" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M215" s="13" t="s">
-        <v>39</v>
+      <c r="M215" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N215" s="13"/>
       <c r="O215" s="13"/>
@@ -15993,8 +15993,8 @@
       <c r="L216" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M216" s="13" t="s">
-        <v>39</v>
+      <c r="M216" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N216" s="13"/>
       <c r="O216" s="13"/>
@@ -16040,19 +16040,19 @@
       </c>
       <c r="I217" s="14">
         <f>COUNTIF(J217:M217, "Да")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J217" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K217" s="13" t="s">
-        <v>28</v>
+      <c r="K217" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="L217" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M217" s="13" t="s">
-        <v>39</v>
+      <c r="M217" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N217" s="13" t="s">
         <v>33</v>
@@ -16110,8 +16110,8 @@
       <c r="L218" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M218" s="13" t="s">
-        <v>39</v>
+      <c r="M218" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="N218" s="13"/>
       <c r="O218" s="13"/>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="726">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2066,6 +2066,75 @@
   </si>
   <si>
     <t>https://t.me/D1men1r</t>
+  </si>
+  <si>
+    <t>Дворецкий Дмитрий Викторович</t>
+  </si>
+  <si>
+    <t>https://t.me/zzomer</t>
+  </si>
+  <si>
+    <t>Демьянович Николай Олегович</t>
+  </si>
+  <si>
+    <t>https://t.me/nick.demy</t>
+  </si>
+  <si>
+    <t>Балаково</t>
+  </si>
+  <si>
+    <t>Чиквиладзе Лали Левановна</t>
+  </si>
+  <si>
+    <t>@LaLi19_07</t>
+  </si>
+  <si>
+    <t>Бомеева Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>https://t.me/Katrin_rzn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рязанская область </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рязань </t>
+  </si>
+  <si>
+    <t>Гарипова Асия Жаудатовна</t>
+  </si>
+  <si>
+    <t>https://t.me/etelindaaa</t>
+  </si>
+  <si>
+    <t>Воронков Алексей Павлович</t>
+  </si>
+  <si>
+    <t>@patriot9000</t>
+  </si>
+  <si>
+    <t>Еврасов Антон Александрович</t>
+  </si>
+  <si>
+    <t>@Anton_Evrasov</t>
+  </si>
+  <si>
+    <t>Карпенко Людмила Константиновна</t>
+  </si>
+  <si>
+    <t>Lusik88</t>
+  </si>
+  <si>
+    <t>Поминов Максим Александрович</t>
+  </si>
+  <si>
+    <t>https://t.me/Pominov29</t>
+  </si>
+  <si>
+    <t>Соломатов Артем Андреевич</t>
+  </si>
+  <si>
+    <t>@Korroder</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2937,7 +3006,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3010,7 +3079,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3087,7 +3156,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3160,7 +3229,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -6058,7 +6127,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>48</v>
@@ -6069,11 +6138,11 @@
       <c r="M54" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N54" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O54" s="25" t="s">
-        <v>33</v>
+      <c r="N54" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P54" s="25" t="s">
         <v>33</v>
@@ -6619,27 +6688,35 @@
         <v>3</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K63" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
+      <c r="N63" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P63" s="13" t="s">
         <v>29</v>
       </c>
       <c r="Q63" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
+      <c r="R63" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T63" s="25" t="s">
         <v>33</v>
       </c>
@@ -8304,8 +8381,8 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J90" s="13" t="s">
-        <v>39</v>
+      <c r="J90" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="K90" s="13" t="s">
         <v>27</v>
@@ -8316,8 +8393,12 @@
       <c r="M90" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
+      <c r="N90" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P90" s="13" t="s">
         <v>29</v>
       </c>
@@ -9102,8 +9183,8 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J103" s="13" t="s">
-        <v>39</v>
+      <c r="J103" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="K103" s="13" t="s">
         <v>27</v>
@@ -9114,8 +9195,12 @@
       <c r="M103" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
+      <c r="N103" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O103" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="P103" s="13" t="s">
         <v>29</v>
       </c>
@@ -12066,27 +12151,35 @@
         <v>4</v>
       </c>
       <c r="J151" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K151" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L151" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M151" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N151" s="13"/>
-      <c r="O151" s="13"/>
+      <c r="N151" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O151" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P151" s="13" t="s">
         <v>29</v>
       </c>
       <c r="Q151" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R151" s="13"/>
-      <c r="S151" s="13"/>
+      <c r="R151" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S151" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T151" s="13" t="s">
         <v>29</v>
       </c>
@@ -16129,6 +16222,604 @@
       <c r="U218" s="13" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="B219" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="C219" s="14">
+        <v>8.9152556278E10</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G219" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H219" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="I219" s="14">
+        <f t="shared" ref="I219:I221" si="8">COUNTIF(J219:M219, "Да")</f>
+        <v>1</v>
+      </c>
+      <c r="J219" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K219" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L219" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M219" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N219" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O219" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P219" s="13"/>
+      <c r="Q219" s="13"/>
+      <c r="R219" s="13"/>
+      <c r="S219" s="13"/>
+      <c r="T219" s="13"/>
+      <c r="U219" s="13"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="C220" s="14">
+        <v>8.9271013828E10</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F220" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="G220" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H220" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="I220" s="14">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J220" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K220" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L220" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M220" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N220" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O220" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P220" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q220" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R220" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S220" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T220" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U220" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C221" s="14">
+        <v>8.9376548981E10</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G221" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H221" s="14">
+        <v>55.0</v>
+      </c>
+      <c r="I221" s="14">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J221" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K221" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L221" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M221" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N221" s="13"/>
+      <c r="O221" s="13"/>
+      <c r="P221" s="13"/>
+      <c r="Q221" s="13"/>
+      <c r="R221" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S221" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T221" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U221" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="C222" s="14">
+        <v>8.9209721302E10</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="F222" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="G222" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H222" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="I222" s="13"/>
+      <c r="J222" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K222" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L222" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M222" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N222" s="13"/>
+      <c r="O222" s="13"/>
+      <c r="P222" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q222" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R222" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S222" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T222" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U222" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="C223" s="14">
+        <v>8.9966077622E10</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G223" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H223" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="I223" s="14">
+        <f t="shared" ref="I223:I224" si="9">COUNTIF(J223:M223, "Да")+COUNTIF(J223:M223, "Запас")</f>
+        <v>4</v>
+      </c>
+      <c r="J223" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K223" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L223" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M223" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N223" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O223" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P223" s="13"/>
+      <c r="Q223" s="13"/>
+      <c r="R223" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S223" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T223" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U223" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C224" s="14">
+        <v>8.9177702506E10</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G224" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H224" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I224" s="14">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J224" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K224" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L224" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M224" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N224" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O224" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P224" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q224" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R224" s="13"/>
+      <c r="S224" s="13"/>
+      <c r="T224" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U224" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C225" s="14">
+        <v>8.9267031708E10</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F225" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G225" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H225" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I225" s="13"/>
+      <c r="J225" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K225" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L225" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M225" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N225" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O225" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P225" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q225" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R225" s="13"/>
+      <c r="S225" s="13"/>
+      <c r="T225" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U225" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C226" s="14">
+        <v>8.9046309313E10</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F226" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G226" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="I226" s="14">
+        <f>COUNTIF(J226:M226, "Да")+COUNTIF(J226:M226, "Запас")</f>
+        <v>4</v>
+      </c>
+      <c r="J226" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K226" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L226" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M226" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N226" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O226" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P226" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q226" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R226" s="25"/>
+      <c r="S226" s="25"/>
+      <c r="T226" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U226" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="B227" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="C227" s="14">
+        <v>8.9228008587E10</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F227" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G227" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H227" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="I227" s="14">
+        <f t="shared" ref="I227:I228" si="10">COUNTIF(J227:M227, "Да")</f>
+        <v>1</v>
+      </c>
+      <c r="J227" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K227" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L227" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M227" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N227" s="13"/>
+      <c r="O227" s="13"/>
+      <c r="P227" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q227" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R227" s="13"/>
+      <c r="S227" s="13"/>
+      <c r="T227" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U227" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="C228" s="14">
+        <v>8.9659095929E10</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="F228" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G228" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H228" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="I228" s="14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J228" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K228" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L228" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M228" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N228" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O228" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P228" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q228" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R228" s="13"/>
+      <c r="S228" s="13"/>
+      <c r="T228" s="13"/>
+      <c r="U228" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H19:H20 H23:H27">
@@ -16239,8 +16930,13 @@
     <hyperlink r:id="rId79" ref="B213"/>
     <hyperlink r:id="rId80" ref="B217"/>
     <hyperlink r:id="rId81" ref="B218"/>
+    <hyperlink r:id="rId82" ref="B219"/>
+    <hyperlink r:id="rId83" ref="B220"/>
+    <hyperlink r:id="rId84" ref="B222"/>
+    <hyperlink r:id="rId85" ref="B223"/>
+    <hyperlink r:id="rId86" ref="B227"/>
   </hyperlinks>
-  <drawing r:id="rId82"/>
+  <drawing r:id="rId87"/>
 </worksheet>
 </file>
 
@@ -16256,16 +16952,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2">
@@ -16273,16 +16969,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3">
@@ -16290,16 +16986,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5">
@@ -16307,16 +17003,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>692</v>
+        <v>715</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>693</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6">
@@ -16324,16 +17020,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>694</v>
+        <v>717</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>695</v>
+        <v>718</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>697</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -16374,10 +17070,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2">
@@ -16385,7 +17081,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3">
@@ -16393,7 +17089,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5">
@@ -16401,7 +17097,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6">
@@ -16409,7 +17105,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -7,13 +7,15 @@
     <sheet state="visible" name="Ссылки на инструкции" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$242</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="764">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2135,6 +2137,120 @@
   </si>
   <si>
     <t>@Korroder</t>
+  </si>
+  <si>
+    <t>Ильина Марина Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zxxfor2na </t>
+  </si>
+  <si>
+    <t>Летунов Юрий Николаевич</t>
+  </si>
+  <si>
+    <t>https://t.me/letun15</t>
+  </si>
+  <si>
+    <t>Курганская область</t>
+  </si>
+  <si>
+    <t>Курган</t>
+  </si>
+  <si>
+    <t>Алиуллов Ринат Наилевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Татарстан </t>
+  </si>
+  <si>
+    <t>Булатова Татьяна Дмитриевна</t>
+  </si>
+  <si>
+    <t>@tdmitrievna</t>
+  </si>
+  <si>
+    <t>Тюфтяева Мария Андреевна</t>
+  </si>
+  <si>
+    <t>@masha_tf</t>
+  </si>
+  <si>
+    <t>Нижегородский</t>
+  </si>
+  <si>
+    <t>Степанова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@st_ns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ульяновская обл </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ульяновск </t>
+  </si>
+  <si>
+    <t>Гомоюнова Дарья Олеговна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Daria_Gomoiunova </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иркутск </t>
+  </si>
+  <si>
+    <t>Кудинов Кирилл Юрьевич</t>
+  </si>
+  <si>
+    <t>https://t.me/NecrisPhayder</t>
+  </si>
+  <si>
+    <t>Юркина Марина Андреевна</t>
+  </si>
+  <si>
+    <t>@Marina881712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каменск-Уральский </t>
+  </si>
+  <si>
+    <t>Пак Валерия Тесуевна</t>
+  </si>
+  <si>
+    <t>профиль - @IPValeriya</t>
+  </si>
+  <si>
+    <t>Величко Елена Андреевна</t>
+  </si>
+  <si>
+    <t>@HelenVelichko89</t>
+  </si>
+  <si>
+    <t>Плиткина Елена Николаевна</t>
+  </si>
+  <si>
+    <t>@EeLenaPl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Санкт-Петербург и Ленинградская обл </t>
+  </si>
+  <si>
+    <t>Копылов Андрей Александрович</t>
+  </si>
+  <si>
+    <t>@BearBeerBee</t>
+  </si>
+  <si>
+    <t>Смоленская область</t>
+  </si>
+  <si>
+    <t>Смоленск</t>
+  </si>
+  <si>
+    <t>Брант Полина Борисовна</t>
+  </si>
+  <si>
+    <t>@PolinaBrant</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2276,7 +2392,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2343,6 +2459,12 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -2364,7 +2486,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2450,6 +2572,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3006,7 +3131,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3079,7 +3204,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3156,7 +3281,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3229,7 +3354,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -11528,13 +11653,13 @@
       </c>
       <c r="I141" s="14">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J141" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K141" s="13" t="s">
-        <v>28</v>
+      <c r="K141" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="L141" s="13" t="s">
         <v>27</v>
@@ -11548,11 +11673,11 @@
       <c r="O141" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P141" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q141" s="25" t="s">
-        <v>33</v>
+      <c r="P141" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q141" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="R141" s="13" t="s">
         <v>40</v>
@@ -12106,8 +12231,12 @@
       </c>
       <c r="N150" s="13"/>
       <c r="O150" s="13"/>
-      <c r="P150" s="13"/>
-      <c r="Q150" s="13"/>
+      <c r="P150" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q150" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="R150" s="13" t="s">
         <v>29</v>
       </c>
@@ -15165,8 +15294,8 @@
       <c r="J200" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K200" s="13" t="s">
-        <v>39</v>
+      <c r="K200" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="L200" s="28" t="s">
         <v>27</v>
@@ -15180,8 +15309,12 @@
       <c r="O200" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P200" s="13"/>
-      <c r="Q200" s="13"/>
+      <c r="P200" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q200" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="R200" s="13" t="s">
         <v>31</v>
       </c>
@@ -16499,7 +16632,7 @@
         <v>27</v>
       </c>
       <c r="M223" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N223" s="25" t="s">
         <v>33</v>
@@ -16731,7 +16864,7 @@
         <v>31.0</v>
       </c>
       <c r="I227" s="14">
-        <f t="shared" ref="I227:I228" si="10">COUNTIF(J227:M227, "Да")</f>
+        <f t="shared" ref="I227:I242" si="10">COUNTIF(J227:M227, "Да")</f>
         <v>1</v>
       </c>
       <c r="J227" s="13" t="s">
@@ -16821,7 +16954,808 @@
       <c r="T228" s="13"/>
       <c r="U228" s="13"/>
     </row>
+    <row r="229">
+      <c r="A229" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="C229" s="14">
+        <v>8.9170592416E10</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="F229" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G229" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H229" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="I229" s="14">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="J229" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K229" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L229" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M229" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N229" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O229" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P229" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q229" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R229" s="13"/>
+      <c r="S229" s="13"/>
+      <c r="T229" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U229" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="B230" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="C230" s="14">
+        <v>8.9828075796E10</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="F230" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="G230" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H230" s="14">
+        <v>42.0</v>
+      </c>
+      <c r="I230" s="14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J230" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K230" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L230" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M230" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N230" s="13"/>
+      <c r="O230" s="13"/>
+      <c r="P230" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q230" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R230" s="13"/>
+      <c r="S230" s="13"/>
+      <c r="T230" s="13"/>
+      <c r="U230" s="13"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C231" s="14">
+        <v>8.9046739603E10</v>
+      </c>
+      <c r="D231" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="F231" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G231" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H231" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="I231" s="14">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="J231" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K231" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L231" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M231" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N231" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O231" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P231" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q231" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R231" s="13"/>
+      <c r="S231" s="13"/>
+      <c r="T231" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U231" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="C232" s="14">
+        <v>8.9108800735E10</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F232" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G232" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H232" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="I232" s="14">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J232" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K232" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L232" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M232" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N232" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O232" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P232" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q232" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R232" s="13"/>
+      <c r="S232" s="13"/>
+      <c r="T232" s="13"/>
+      <c r="U232" s="13"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="C233" s="14">
+        <v>8.9991203955E10</v>
+      </c>
+      <c r="D233" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="F233" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G233" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H233" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="I233" s="14">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="J233" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K233" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L233" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M233" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N233" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O233" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P233" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q233" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R233" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S233" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T233" s="13"/>
+      <c r="U233" s="13"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="C234" s="14">
+        <v>8.9022109491E10</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="G234" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H234" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="I234" s="14">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J234" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K234" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L234" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M234" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N234" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O234" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P234" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q234" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R234" s="13"/>
+      <c r="S234" s="13"/>
+      <c r="T234" s="13"/>
+      <c r="U234" s="13"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="C235" s="14">
+        <v>8.9501390435E10</v>
+      </c>
+      <c r="D235" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="F235" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="G235" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H235" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="I235" s="14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J235" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K235" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L235" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M235" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N235" s="13"/>
+      <c r="O235" s="13"/>
+      <c r="P235" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q235" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R235" s="13"/>
+      <c r="S235" s="13"/>
+      <c r="T235" s="13"/>
+      <c r="U235" s="13"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="B236" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="C236" s="14">
+        <v>8.9263103151E10</v>
+      </c>
+      <c r="D236" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G236" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H236" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="I236" s="14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J236" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K236" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L236" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M236" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N236" s="13"/>
+      <c r="O236" s="13"/>
+      <c r="P236" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q236" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R236" s="13"/>
+      <c r="S236" s="13"/>
+      <c r="T236" s="13"/>
+      <c r="U236" s="13"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="C237" s="14">
+        <v>8.9827023992E10</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F237" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="G237" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H237" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="I237" s="14">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J237" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K237" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L237" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M237" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N237" s="13"/>
+      <c r="O237" s="13"/>
+      <c r="P237" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q237" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R237" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S237" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T237" s="13"/>
+      <c r="U237" s="13"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="C238" s="14">
+        <v>8.9161909226E10</v>
+      </c>
+      <c r="D238" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G238" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H238" s="14">
+        <v>48.0</v>
+      </c>
+      <c r="I238" s="14">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J238" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K238" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L238" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M238" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N238" s="13"/>
+      <c r="O238" s="13"/>
+      <c r="P238" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q238" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R238" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S238" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T238" s="13"/>
+      <c r="U238" s="13"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="C239" s="14">
+        <v>8.9373555368E10</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G239" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H239" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="I239" s="14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J239" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K239" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L239" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M239" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N239" s="13"/>
+      <c r="O239" s="13"/>
+      <c r="P239" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q239" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R239" s="13"/>
+      <c r="S239" s="13"/>
+      <c r="T239" s="13"/>
+      <c r="U239" s="13"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="C240" s="14">
+        <v>8.9052794342E10</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G240" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H240" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="I240" s="14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J240" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K240" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L240" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M240" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N240" s="13"/>
+      <c r="O240" s="13"/>
+      <c r="P240" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q240" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R240" s="13"/>
+      <c r="S240" s="13"/>
+      <c r="T240" s="13"/>
+      <c r="U240" s="13"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="C241" s="14">
+        <v>8.919859592E10</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="G241" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H241" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I241" s="14">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J241" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K241" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L241" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M241" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N241" s="13"/>
+      <c r="O241" s="13"/>
+      <c r="P241" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q241" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R241" s="13"/>
+      <c r="S241" s="13"/>
+      <c r="T241" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U241" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C242" s="14">
+        <v>8.9164941794E10</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G242" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H242" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="I242" s="14">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J242" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K242" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L242" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M242" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N242" s="13"/>
+      <c r="O242" s="13"/>
+      <c r="P242" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q242" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R242" s="13"/>
+      <c r="S242" s="13"/>
+      <c r="T242" s="13"/>
+      <c r="U242" s="13"/>
+    </row>
   </sheetData>
+  <autoFilter ref="$A$1:$AA$242"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -16935,8 +17869,10 @@
     <hyperlink r:id="rId84" ref="B222"/>
     <hyperlink r:id="rId85" ref="B223"/>
     <hyperlink r:id="rId86" ref="B227"/>
+    <hyperlink r:id="rId87" ref="B230"/>
+    <hyperlink r:id="rId88" ref="B236"/>
   </hyperlinks>
-  <drawing r:id="rId87"/>
+  <drawing r:id="rId89"/>
 </worksheet>
 </file>
 
@@ -16952,84 +17888,84 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>701</v>
+        <v>739</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>703</v>
+        <v>741</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>704</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>705</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>708</v>
+      <c r="B2" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>709</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>710</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>712</v>
+      <c r="B3" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>713</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>714</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>715</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>716</v>
+      <c r="B5" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>720</v>
+      <c r="B6" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -17070,10 +18006,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>721</v>
+        <v>759</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>722</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2">
@@ -17081,7 +18017,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>723</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3">
@@ -17089,7 +18025,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>724</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5">
@@ -17097,7 +18033,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>724</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
@@ -17105,7 +18041,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>725</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="764">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -5784,8 +5784,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J46" s="13" t="s">
-        <v>39</v>
+      <c r="J46" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>39</v>
@@ -5796,8 +5796,12 @@
       <c r="M46" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
+      <c r="N46" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3842" uniqueCount="764">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -275,6 +275,9 @@
     <t>Набережные Челны</t>
   </si>
   <si>
+    <t>Выбыл</t>
+  </si>
+  <si>
     <t>Андрюшин Тимофей Алексеевич</t>
   </si>
   <si>
@@ -1068,9 +1071,6 @@
   </si>
   <si>
     <t xml:space="preserve">Димитровград </t>
-  </si>
-  <si>
-    <t>Выбыл</t>
   </si>
   <si>
     <t>Лигачева Дарья Михайловна</t>
@@ -2563,13 +2563,13 @@
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>39</v>
@@ -3647,8 +3647,8 @@
       <c r="K12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>27</v>
+      <c r="L12" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>48</v>
@@ -3661,11 +3661,11 @@
       <c r="Q12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>32</v>
+      <c r="R12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="T12" s="25" t="s">
         <v>33</v>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="14">
         <v>8.9088969532E10</v>
@@ -3688,10 +3688,10 @@
         <v>52</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>38</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="14">
         <v>8.915792384E10</v>
@@ -3750,10 +3750,10 @@
         <v>23</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>38</v>
@@ -3789,16 +3789,16 @@
       <c r="U14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="Y14" s="26"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="Y14" s="27"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="14">
         <v>8.9178876516E10</v>
@@ -3807,10 +3807,10 @@
         <v>52</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>38</v>
@@ -3854,16 +3854,16 @@
       <c r="U15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="Y15" s="26"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="Y15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="s">
-        <v>98</v>
+      <c r="A16" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="14">
         <v>8.9087273237E10</v>
@@ -3872,10 +3872,10 @@
         <v>23</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>26</v>
@@ -3923,16 +3923,16 @@
       <c r="U16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="Y16" s="26"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="Y16" s="27"/>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="14">
         <v>8.9114256905E10</v>
@@ -3988,16 +3988,16 @@
       <c r="U17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="Y17" s="26"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="Y17" s="27"/>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="14">
         <v>8.9045575058E10</v>
@@ -4006,10 +4006,10 @@
         <v>23</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>26</v>
@@ -4057,16 +4057,16 @@
       <c r="U18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="Y18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="Y18" s="27"/>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" s="14">
         <v>8.9279224382E10</v>
@@ -4075,7 +4075,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>54</v>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" s="14">
         <v>8.9027838373E10</v>
@@ -4141,10 +4141,10 @@
         <v>23</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>26</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" s="14">
         <v>8.9155423781E10</v>
@@ -4207,10 +4207,10 @@
         <v>23</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>26</v>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" s="14">
         <v>8.9050507937E10</v>
@@ -4273,10 +4273,10 @@
         <v>52</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>38</v>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="14">
         <v>8.9087443413E10</v>
@@ -4327,10 +4327,10 @@
         <v>23</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>26</v>
@@ -4381,10 +4381,10 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="14">
         <v>8.912600083E10</v>
@@ -4393,10 +4393,10 @@
         <v>52</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>26</v>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" s="14">
         <v>8.9270807999E10</v>
@@ -4451,7 +4451,7 @@
         <v>52</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>54</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" s="14">
         <v>8.926561274E10</v>
@@ -4513,10 +4513,10 @@
         <v>23</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>38</v>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" s="14">
         <v>8.9135864648E10</v>
@@ -4571,10 +4571,10 @@
         <v>23</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>38</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" s="14">
         <v>8.9522703999E10</v>
@@ -4633,10 +4633,10 @@
         <v>23</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>38</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" s="14">
         <v>8.9053939977E10</v>
@@ -4699,10 +4699,10 @@
         <v>23</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>38</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C30" s="14">
         <v>8.9256267759E10</v>
@@ -4815,10 +4815,10 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31" s="14">
         <v>8.9012849535E10</v>
@@ -4827,10 +4827,10 @@
         <v>52</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>38</v>
@@ -4881,10 +4881,10 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" s="14">
         <v>8.9649669677E10</v>
@@ -4893,10 +4893,10 @@
         <v>23</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>26</v>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" s="14">
         <v>8.9523546538E10</v>
@@ -4959,10 +4959,10 @@
         <v>52</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>26</v>
@@ -5009,10 +5009,10 @@
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="14">
         <v>8.9256453735E10</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C35" s="14">
         <v>8.9265105883E10</v>
@@ -5129,10 +5129,10 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C36" s="14">
         <v>8.9290220229E10</v>
@@ -5144,7 +5144,7 @@
         <v>32.0</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>26</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37" s="14">
         <v>8.9520522216E10</v>
@@ -5203,10 +5203,10 @@
         <v>23</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>38</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C38" s="14">
         <v>8.9601483424E10</v>
@@ -5265,10 +5265,10 @@
         <v>23</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>26</v>
@@ -5280,7 +5280,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="J38" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K38" s="13" t="s">
@@ -5319,10 +5319,10 @@
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" s="14">
         <v>8.9656092161E10</v>
@@ -5331,10 +5331,10 @@
         <v>52</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>26</v>
@@ -5346,7 +5346,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J39" s="28" t="s">
+      <c r="J39" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K39" s="13" t="s">
@@ -5377,10 +5377,10 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C40" s="14">
         <v>8.9127602734E10</v>
@@ -5389,10 +5389,10 @@
         <v>23</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>38</v>
@@ -5443,10 +5443,10 @@
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C41" s="14">
         <v>8.9627586248E10</v>
@@ -5455,10 +5455,10 @@
         <v>23</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>38</v>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C42" s="14">
         <v>8.9997858443E10</v>
@@ -5521,10 +5521,10 @@
         <v>52</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>38</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C43" s="14">
         <v>8.993562109E10</v>
@@ -5583,10 +5583,10 @@
         <v>23</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>38</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C44" s="14">
         <v>8.9371400349E10</v>
@@ -5645,10 +5645,10 @@
         <v>23</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>26</v>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C45" s="14">
         <v>8.9198366717E10</v>
@@ -5703,10 +5703,10 @@
         <v>23</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>38</v>
@@ -5757,10 +5757,10 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C46" s="14">
         <v>8.9277422165E10</v>
@@ -5769,10 +5769,10 @@
         <v>23</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>26</v>
@@ -5784,7 +5784,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J46" s="28" t="s">
+      <c r="J46" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K46" s="13" t="s">
@@ -5815,10 +5815,10 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C47" s="14">
         <v>8.9930204203E10</v>
@@ -5827,10 +5827,10 @@
         <v>23</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>26</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C48" s="14">
         <v>8.9197329022E10</v>
@@ -5885,10 +5885,10 @@
         <v>23</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>38</v>
@@ -5938,10 +5938,10 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C49" s="14">
         <v>8.913010014E10</v>
@@ -5950,10 +5950,10 @@
         <v>23</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>26</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C50" s="14">
         <v>8.903806837E10</v>
@@ -6004,10 +6004,10 @@
         <v>23</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>38</v>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C51" s="14">
         <v>8.9052917856E10</v>
@@ -6066,10 +6066,10 @@
         <v>23</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>26</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C52" s="14">
         <v>8.9507304422E10</v>
@@ -6128,10 +6128,10 @@
         <v>52</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>38</v>
@@ -6152,7 +6152,7 @@
       <c r="L52" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M52" s="28" t="s">
+      <c r="M52" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N52" s="13"/>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C53" s="14">
         <v>8.9092265685E10</v>
@@ -6186,10 +6186,10 @@
         <v>52</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>38</v>
@@ -6228,10 +6228,10 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C54" s="14">
         <v>8.9031792497E10</v>
@@ -6294,10 +6294,10 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C55" s="14">
         <v>8.9258555361E10</v>
@@ -6321,7 +6321,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J55" s="28" t="s">
+      <c r="J55" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K55" s="13" t="s">
@@ -6330,7 +6330,7 @@
       <c r="L55" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M55" s="28" t="s">
+      <c r="M55" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N55" s="21" t="s">
@@ -6356,10 +6356,10 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C56" s="14">
         <v>8.9266007193E10</v>
@@ -6371,7 +6371,7 @@
         <v>77</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>38</v>
@@ -6422,10 +6422,10 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C57" s="14">
         <v>8.9205844695E10</v>
@@ -6434,10 +6434,10 @@
         <v>23</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>26</v>
@@ -6476,10 +6476,10 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C58" s="14">
         <v>8.9616748559E10</v>
@@ -6488,10 +6488,10 @@
         <v>52</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>26</v>
@@ -6538,10 +6538,10 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C59" s="14">
         <v>8.9279007996E10</v>
@@ -6550,10 +6550,10 @@
         <v>23</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>26</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C60" s="14">
         <v>8.9202209701E10</v>
@@ -6608,10 +6608,10 @@
         <v>52</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>26</v>
@@ -6662,10 +6662,10 @@
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C61" s="14">
         <v>8.9538619255E10</v>
@@ -6674,10 +6674,10 @@
         <v>23</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>26</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C62" s="14">
         <v>8.9819760959E10</v>
@@ -6736,10 +6736,10 @@
         <v>23</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>26</v>
@@ -6747,7 +6747,7 @@
       <c r="H62" s="14">
         <v>51.0</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="26">
         <v>4.0</v>
       </c>
       <c r="J62" s="13" t="s">
@@ -6789,10 +6789,10 @@
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C63" s="14">
         <v>8.9151088299E10</v>
@@ -6855,10 +6855,10 @@
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C64" s="14">
         <v>8.985992443E10</v>
@@ -6921,10 +6921,10 @@
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C65" s="14">
         <v>8.926124638E10</v>
@@ -6933,10 +6933,10 @@
         <v>23</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>26</v>
@@ -6979,10 +6979,10 @@
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C66" s="14">
         <v>8.9919333296E10</v>
@@ -7045,10 +7045,10 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" s="14">
         <v>8.9251702749E10</v>
@@ -7107,10 +7107,10 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C68" s="14">
         <v>8.9130729982E10</v>
@@ -7119,10 +7119,10 @@
         <v>23</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>38</v>
@@ -7151,7 +7151,7 @@
       <c r="P68" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q68" s="28" t="s">
+      <c r="Q68" s="26" t="s">
         <v>31</v>
       </c>
       <c r="R68" s="13"/>
@@ -7165,10 +7165,10 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C69" s="14">
         <v>8.9132640662E10</v>
@@ -7177,10 +7177,10 @@
         <v>23</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>38</v>
@@ -7227,10 +7227,10 @@
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C70" s="14">
         <v>8.9247517592E10</v>
@@ -7239,10 +7239,10 @@
         <v>23</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>26</v>
@@ -7289,10 +7289,10 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C71" s="14">
         <v>8.964479124E10</v>
@@ -7301,10 +7301,10 @@
         <v>52</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>26</v>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C72" s="14">
         <v>8.9112770365E10</v>
@@ -7367,10 +7367,10 @@
         <v>23</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>26</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C73" s="14">
         <v>8.9687946825E10</v>
@@ -7429,10 +7429,10 @@
         <v>23</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>26</v>
@@ -7479,10 +7479,10 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C74" s="14">
         <v>8.9527350033E10</v>
@@ -7491,10 +7491,10 @@
         <v>23</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>38</v>
@@ -7545,10 +7545,10 @@
     </row>
     <row r="75">
       <c r="A75" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C75" s="14">
         <v>8.9785537466E10</v>
@@ -7557,10 +7557,10 @@
         <v>23</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>38</v>
@@ -7607,10 +7607,10 @@
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C76" s="14">
         <v>8.9179331863E10</v>
@@ -7619,10 +7619,10 @@
         <v>23</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>26</v>
@@ -7673,10 +7673,10 @@
     </row>
     <row r="77">
       <c r="A77" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C77" s="14">
         <v>8.981918381E10</v>
@@ -7685,10 +7685,10 @@
         <v>52</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>26</v>
@@ -7739,10 +7739,10 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C78" s="14">
         <v>8.9035574055E10</v>
@@ -7805,10 +7805,10 @@
     </row>
     <row r="79">
       <c r="A79" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C79" s="14">
         <v>8.9997059291E10</v>
@@ -7817,10 +7817,10 @@
         <v>52</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>26</v>
@@ -7871,10 +7871,10 @@
     </row>
     <row r="80">
       <c r="A80" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C80" s="14">
         <v>8.9998421148E10</v>
@@ -7925,10 +7925,10 @@
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C81" s="14">
         <v>8.9268474554E10</v>
@@ -7987,10 +7987,10 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C82" s="14">
         <v>8.9172956229E10</v>
@@ -8002,7 +8002,7 @@
         <v>84</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>26</v>
@@ -8053,10 +8053,10 @@
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C83" s="14">
         <v>8.9106545358E10</v>
@@ -8065,10 +8065,10 @@
         <v>23</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>38</v>
@@ -8119,10 +8119,10 @@
     </row>
     <row r="84">
       <c r="A84" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C84" s="14">
         <v>8.9061930784E10</v>
@@ -8131,10 +8131,10 @@
         <v>23</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>26</v>
@@ -8177,10 +8177,10 @@
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C85" s="14">
         <v>8.985216852E10</v>
@@ -8192,7 +8192,7 @@
         <v>36</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>38</v>
@@ -8235,10 +8235,10 @@
     </row>
     <row r="86">
       <c r="A86" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C86" s="14">
         <v>8.9171106075E10</v>
@@ -8247,10 +8247,10 @@
         <v>23</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>26</v>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="87">
       <c r="A87" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C87" s="14">
         <v>8.9065573691E10</v>
@@ -8309,10 +8309,10 @@
         <v>23</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>26</v>
@@ -8359,10 +8359,10 @@
     </row>
     <row r="88">
       <c r="A88" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C88" s="14">
         <v>8.9228861925E10</v>
@@ -8371,10 +8371,10 @@
         <v>23</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>26</v>
@@ -8421,10 +8421,10 @@
     </row>
     <row r="89">
       <c r="A89" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C89" s="14">
         <v>8.9173817627E10</v>
@@ -8433,7 +8433,7 @@
         <v>23</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>54</v>
@@ -8483,10 +8483,10 @@
     </row>
     <row r="90">
       <c r="A90" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C90" s="14">
         <v>8.9024729922E10</v>
@@ -8495,10 +8495,10 @@
         <v>23</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G90" s="13" t="s">
         <v>38</v>
@@ -8510,7 +8510,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J90" s="28" t="s">
+      <c r="J90" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K90" s="13" t="s">
@@ -8549,10 +8549,10 @@
     </row>
     <row r="91">
       <c r="A91" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C91" s="14">
         <v>8.9667548632E10</v>
@@ -8561,10 +8561,10 @@
         <v>52</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>26</v>
@@ -8607,10 +8607,10 @@
     </row>
     <row r="92">
       <c r="A92" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C92" s="14">
         <v>8.9127629383E10</v>
@@ -8619,10 +8619,10 @@
         <v>23</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G92" s="13" t="s">
         <v>26</v>
@@ -8665,10 +8665,10 @@
     </row>
     <row r="93">
       <c r="A93" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C93" s="14">
         <v>8.910107075E10</v>
@@ -8677,10 +8677,10 @@
         <v>23</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G93" s="13" t="s">
         <v>26</v>
@@ -8723,10 +8723,10 @@
     </row>
     <row r="94">
       <c r="A94" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C94" s="14">
         <v>8.9234380914E10</v>
@@ -8735,7 +8735,7 @@
         <v>52</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>47</v>
@@ -8785,10 +8785,10 @@
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C95" s="14">
         <v>8.90238138E10</v>
@@ -8797,10 +8797,10 @@
         <v>23</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G95" s="13" t="s">
         <v>26</v>
@@ -8847,10 +8847,10 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C96" s="14">
         <v>8.9063900692E10</v>
@@ -8859,10 +8859,10 @@
         <v>23</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G96" s="13" t="s">
         <v>26</v>
@@ -8880,8 +8880,8 @@
       <c r="K96" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L96" s="28" t="s">
-        <v>351</v>
+      <c r="L96" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="M96" s="13" t="s">
         <v>27</v>
@@ -8921,10 +8921,10 @@
         <v>52</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>26</v>
@@ -8979,10 +8979,10 @@
         <v>23</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>26</v>
@@ -9355,7 +9355,7 @@
         <v>23</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>375</v>
@@ -9417,10 +9417,10 @@
         <v>23</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>38</v>
@@ -9441,7 +9441,7 @@
       <c r="L105" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M105" s="28" t="s">
+      <c r="M105" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N105" s="13"/>
@@ -9540,7 +9540,7 @@
         <v>384</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>38</v>
@@ -9602,7 +9602,7 @@
         <v>84</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>26</v>
@@ -9784,7 +9784,7 @@
         <v>384</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G111" s="13" t="s">
         <v>38</v>
@@ -9839,7 +9839,7 @@
         <v>23</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>398</v>
@@ -9966,7 +9966,7 @@
         <v>405</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
@@ -9974,7 +9974,7 @@
         <f>COUNTIF(J114:M114, "Да")</f>
         <v>3</v>
       </c>
-      <c r="J114" s="28" t="s">
+      <c r="J114" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K114" s="13" t="s">
@@ -10079,7 +10079,7 @@
         <v>23</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>411</v>
@@ -10210,7 +10210,7 @@
         <v>64.0</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G118" s="13" t="s">
         <v>26</v>
@@ -10273,10 +10273,10 @@
         <v>52</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G119" s="13" t="s">
         <v>38</v>
@@ -10517,7 +10517,7 @@
         <v>23</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F123" s="13" t="s">
         <v>428</v>
@@ -10586,7 +10586,7 @@
         <v>84</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G124" s="13" t="s">
         <v>26</v>
@@ -10652,7 +10652,7 @@
         <v>433</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G125" s="13" t="s">
         <v>26</v>
@@ -10711,10 +10711,10 @@
         <v>23</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G126" s="13" t="s">
         <v>26</v>
@@ -10780,7 +10780,7 @@
         <v>438</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G127" s="13" t="s">
         <v>38</v>
@@ -10788,7 +10788,7 @@
       <c r="H127" s="14">
         <v>45.0</v>
       </c>
-      <c r="I127" s="28">
+      <c r="I127" s="26">
         <v>4.0</v>
       </c>
       <c r="J127" s="13" t="s">
@@ -10842,7 +10842,7 @@
         <v>23</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F128" s="13" t="s">
         <v>441</v>
@@ -10904,10 +10904,10 @@
         <v>52</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G129" s="13" t="s">
         <v>38</v>
@@ -10962,10 +10962,10 @@
         <v>23</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G130" s="13" t="s">
         <v>26</v>
@@ -11081,7 +11081,7 @@
         <v>452</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G132" s="13" t="s">
         <v>38</v>
@@ -11268,7 +11268,7 @@
         <v>23</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>462</v>
@@ -11582,10 +11582,10 @@
         <v>52</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G140" s="13" t="s">
         <v>26</v>
@@ -11662,7 +11662,7 @@
       <c r="J141" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K141" s="28" t="s">
+      <c r="K141" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L141" s="13" t="s">
@@ -11710,10 +11710,10 @@
         <v>52</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G142" s="13" t="s">
         <v>38</v>
@@ -11899,7 +11899,7 @@
         <v>494</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G145" s="13" t="s">
         <v>38</v>
@@ -11965,7 +11965,7 @@
         <v>84</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G146" s="13" t="s">
         <v>38</v>
@@ -12023,7 +12023,7 @@
         <v>84</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G147" s="13" t="s">
         <v>38</v>
@@ -12074,10 +12074,10 @@
         <v>23</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G148" s="13" t="s">
         <v>38</v>
@@ -12268,10 +12268,10 @@
         <v>23</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G151" s="13" t="s">
         <v>26</v>
@@ -12334,7 +12334,7 @@
         <v>23</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F152" s="13" t="s">
         <v>510</v>
@@ -12416,8 +12416,8 @@
       <c r="L153" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M153" s="28" t="s">
-        <v>351</v>
+      <c r="M153" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="N153" s="25" t="s">
         <v>33</v>
@@ -12454,10 +12454,10 @@
         <v>23</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G154" s="13" t="s">
         <v>38</v>
@@ -12763,7 +12763,7 @@
         <v>452</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G159" s="13" t="s">
         <v>38</v>
@@ -12826,10 +12826,10 @@
         <v>23</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G160" s="13" t="s">
         <v>38</v>
@@ -12888,7 +12888,7 @@
         <v>23</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F161" s="13" t="s">
         <v>533</v>
@@ -13210,7 +13210,7 @@
         <v>23</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F167" s="13" t="s">
         <v>549</v>
@@ -13272,10 +13272,10 @@
         <v>52</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G168" s="13" t="s">
         <v>26</v>
@@ -13404,10 +13404,10 @@
         <v>23</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G170" s="13" t="s">
         <v>26</v>
@@ -13528,7 +13528,7 @@
         <v>23</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F172" s="13" t="s">
         <v>563</v>
@@ -13659,7 +13659,7 @@
         <v>494</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G174" s="13" t="s">
         <v>26</v>
@@ -13718,10 +13718,10 @@
         <v>23</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G175" s="13" t="s">
         <v>26</v>
@@ -13780,10 +13780,10 @@
         <v>23</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G176" s="13" t="s">
         <v>26</v>
@@ -13908,10 +13908,10 @@
         <v>23</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G178" s="13" t="s">
         <v>38</v>
@@ -14024,7 +14024,7 @@
         <v>23</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F180" s="13" t="s">
         <v>581</v>
@@ -14156,10 +14156,10 @@
         <v>23</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G182" s="13" t="s">
         <v>26</v>
@@ -14218,10 +14218,10 @@
         <v>23</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G183" s="13" t="s">
         <v>38</v>
@@ -14287,7 +14287,7 @@
         <v>84</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G184" s="13" t="s">
         <v>38</v>
@@ -14299,8 +14299,8 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J184" s="28" t="s">
-        <v>351</v>
+      <c r="J184" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="K184" s="13" t="s">
         <v>27</v>
@@ -14316,7 +14316,7 @@
       <c r="P184" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q184" s="28" t="s">
+      <c r="Q184" s="26" t="s">
         <v>31</v>
       </c>
       <c r="R184" s="13" t="s">
@@ -14346,7 +14346,7 @@
         <v>23</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F185" s="13" t="s">
         <v>54</v>
@@ -14524,7 +14524,7 @@
         <v>52</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F188" s="13" t="s">
         <v>54</v>
@@ -14590,7 +14590,7 @@
         <v>52</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F189" s="13" t="s">
         <v>54</v>
@@ -14717,7 +14717,7 @@
         <v>606</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G191" s="13" t="s">
         <v>38</v>
@@ -14838,10 +14838,10 @@
         <v>23</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G193" s="13" t="s">
         <v>26</v>
@@ -14900,10 +14900,10 @@
         <v>23</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G194" s="13" t="s">
         <v>26</v>
@@ -14966,7 +14966,7 @@
         <v>23</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F195" s="13" t="s">
         <v>617</v>
@@ -15094,10 +15094,10 @@
         <v>23</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G197" s="13" t="s">
         <v>26</v>
@@ -15177,7 +15177,7 @@
       <c r="K198" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L198" s="28" t="s">
+      <c r="L198" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M198" s="13" t="s">
@@ -15222,10 +15222,10 @@
         <v>23</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G199" s="13" t="s">
         <v>38</v>
@@ -15295,13 +15295,13 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J200" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K200" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="L200" s="28" t="s">
+      <c r="J200" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K200" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L200" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M200" s="13" t="s">
@@ -15466,10 +15466,10 @@
         <v>23</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G203" s="13" t="s">
         <v>26</v>
@@ -15582,7 +15582,7 @@
         <v>23</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F205" s="13" t="s">
         <v>54</v>
@@ -15762,7 +15762,7 @@
       <c r="L208" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M208" s="28" t="s">
+      <c r="M208" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N208" s="13"/>
@@ -15913,10 +15913,10 @@
         <v>52</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G211" s="13" t="s">
         <v>26</v>
@@ -15972,7 +15972,7 @@
         <v>23</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F212" s="13" t="s">
         <v>662</v>
@@ -16030,7 +16030,7 @@
         <v>23</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F213" s="13" t="s">
         <v>77</v>
@@ -16092,7 +16092,7 @@
         <v>52</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F214" s="13" t="s">
         <v>667</v>
@@ -16113,7 +16113,7 @@
       <c r="L214" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M214" s="28" t="s">
+      <c r="M214" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N214" s="13"/>
@@ -16147,10 +16147,10 @@
         <v>23</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G215" s="13" t="s">
         <v>38</v>
@@ -16168,7 +16168,7 @@
       <c r="L215" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M215" s="28" t="s">
+      <c r="M215" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N215" s="13"/>
@@ -16223,7 +16223,7 @@
       <c r="L216" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M216" s="28" t="s">
+      <c r="M216" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N216" s="13"/>
@@ -16275,13 +16275,13 @@
       <c r="J217" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K217" s="28" t="s">
+      <c r="K217" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L217" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M217" s="28" t="s">
+      <c r="M217" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N217" s="13" t="s">
@@ -16319,10 +16319,10 @@
         <v>52</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G218" s="13" t="s">
         <v>38</v>
@@ -16340,7 +16340,7 @@
       <c r="L218" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M218" s="28" t="s">
+      <c r="M218" s="26" t="s">
         <v>27</v>
       </c>
       <c r="N218" s="13"/>
@@ -16428,7 +16428,7 @@
         <v>23</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F220" s="13" t="s">
         <v>682</v>
@@ -16494,10 +16494,10 @@
         <v>23</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G221" s="13" t="s">
         <v>26</v>
@@ -16614,7 +16614,7 @@
         <v>84</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G223" s="13" t="s">
         <v>26</v>
@@ -16673,7 +16673,7 @@
         <v>23</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F224" s="13" t="s">
         <v>54</v>
@@ -16794,10 +16794,10 @@
         <v>23</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F226" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G226" s="13" t="s">
         <v>26</v>
@@ -16917,7 +16917,7 @@
         <v>433</v>
       </c>
       <c r="F228" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G228" s="13" t="s">
         <v>38</v>
@@ -17150,10 +17150,10 @@
         <v>52</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F232" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G232" s="13" t="s">
         <v>26</v>
@@ -17211,7 +17211,7 @@
         <v>713</v>
       </c>
       <c r="F233" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G233" s="13" t="s">
         <v>26</v>
@@ -17436,7 +17436,7 @@
         <v>23</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F237" s="13" t="s">
         <v>725</v>
@@ -17449,10 +17449,10 @@
       </c>
       <c r="I237" s="14">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K237" s="13" t="s">
         <v>27</v>
@@ -17463,8 +17463,12 @@
       <c r="M237" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N237" s="13"/>
-      <c r="O237" s="13"/>
+      <c r="N237" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O237" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P237" s="13" t="s">
         <v>31</v>
       </c>
@@ -17609,7 +17613,7 @@
         <v>732</v>
       </c>
       <c r="F240" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G240" s="13" t="s">
         <v>26</v>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3842" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="764">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I237" s="14">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J237" s="13" t="s">
         <v>27</v>
@@ -17461,7 +17461,7 @@
         <v>27</v>
       </c>
       <c r="M237" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N237" s="13" t="s">
         <v>29</v>
@@ -17481,8 +17481,12 @@
       <c r="S237" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T237" s="13"/>
-      <c r="U237" s="13"/>
+      <c r="T237" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U237" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="13" t="s">

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$242</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$243</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="767">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2251,6 +2251,15 @@
   </si>
   <si>
     <t>@PolinaBrant</t>
+  </si>
+  <si>
+    <t>Щербакова Татьяна Дмитриевна</t>
+  </si>
+  <si>
+    <t>@Tanya_Sherba</t>
+  </si>
+  <si>
+    <t>Наро-Фоминск</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3131,7 +3140,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3204,7 +3213,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3281,7 +3290,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3354,7 +3363,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -16815,8 +16824,8 @@
       <c r="K226" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L226" s="13" t="s">
-        <v>39</v>
+      <c r="L226" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="M226" s="13" t="s">
         <v>27</v>
@@ -16833,8 +16842,12 @@
       <c r="Q226" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R226" s="25"/>
-      <c r="S226" s="25"/>
+      <c r="R226" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S226" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="T226" s="13" t="s">
         <v>29</v>
       </c>
@@ -16868,7 +16881,7 @@
         <v>31.0</v>
       </c>
       <c r="I227" s="14">
-        <f t="shared" ref="I227:I242" si="10">COUNTIF(J227:M227, "Да")</f>
+        <f t="shared" ref="I227:I243" si="10">COUNTIF(J227:M227, "Да")</f>
         <v>1</v>
       </c>
       <c r="J227" s="13" t="s">
@@ -17283,7 +17296,7 @@
       </c>
       <c r="I234" s="14">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J234" s="13" t="s">
         <v>27</v>
@@ -17294,8 +17307,8 @@
       <c r="L234" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M234" s="13" t="s">
-        <v>39</v>
+      <c r="M234" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="N234" s="13" t="s">
         <v>31</v>
@@ -17311,8 +17324,12 @@
       </c>
       <c r="R234" s="13"/>
       <c r="S234" s="13"/>
-      <c r="T234" s="13"/>
-      <c r="U234" s="13"/>
+      <c r="T234" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U234" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="13" t="s">
@@ -17411,8 +17428,8 @@
       </c>
       <c r="N236" s="13"/>
       <c r="O236" s="13"/>
-      <c r="P236" s="13" t="s">
-        <v>31</v>
+      <c r="P236" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="Q236" s="13" t="s">
         <v>32</v>
@@ -17766,8 +17783,74 @@
       <c r="T242" s="13"/>
       <c r="U242" s="13"/>
     </row>
+    <row r="243">
+      <c r="A243" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="C243" s="14">
+        <v>8.9774914121E10</v>
+      </c>
+      <c r="D243" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F243" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="G243" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H243" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="I243" s="14">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J243" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K243" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L243" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M243" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N243" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O243" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P243" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q243" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R243" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S243" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T243" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U243" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$242"/>
+  <autoFilter ref="$A$1:$AA$243"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -17900,16 +17983,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2">
@@ -17917,16 +18000,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3">
@@ -17934,16 +18017,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5">
@@ -17951,16 +18034,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6">
@@ -17968,16 +18051,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -18018,10 +18101,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2">
@@ -18029,7 +18112,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3">
@@ -18037,7 +18120,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5">
@@ -18045,7 +18128,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6">
@@ -18053,7 +18136,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$243</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$247</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="775">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2260,6 +2260,30 @@
   </si>
   <si>
     <t>Наро-Фоминск</t>
+  </si>
+  <si>
+    <t>Чебыкина Юлия Александровна</t>
+  </si>
+  <si>
+    <t>https://t.me/YaMusenka</t>
+  </si>
+  <si>
+    <t>Булатова Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>@elenabulatti</t>
+  </si>
+  <si>
+    <t>Терещенко Юрий Андреевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t.me/uriyter </t>
+  </si>
+  <si>
+    <t>Дмитриева Олеся Владимировна</t>
+  </si>
+  <si>
+    <t>Olani11</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3140,7 +3164,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3213,7 +3237,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3290,7 +3314,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3363,7 +3387,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -17555,7 +17579,7 @@
         <v>32</v>
       </c>
       <c r="R238" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="S238" s="13" t="s">
         <v>32</v>
@@ -17644,10 +17668,10 @@
       </c>
       <c r="I240" s="14">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K240" s="13" t="s">
         <v>27</v>
@@ -17658,8 +17682,12 @@
       <c r="M240" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N240" s="13"/>
-      <c r="O240" s="13"/>
+      <c r="N240" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O240" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P240" s="13" t="s">
         <v>31</v>
       </c>
@@ -17723,10 +17751,10 @@
       <c r="R241" s="13"/>
       <c r="S241" s="13"/>
       <c r="T241" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="U241" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242">
@@ -17849,8 +17877,224 @@
         <v>32</v>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="B244" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="C244" s="14">
+        <v>8.9091011335E10</v>
+      </c>
+      <c r="D244" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="F244" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G244" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H244" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="I244" s="13"/>
+      <c r="J244" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K244" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L244" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M244" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N244" s="13"/>
+      <c r="O244" s="13"/>
+      <c r="P244" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q244" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R244" s="13"/>
+      <c r="S244" s="13"/>
+      <c r="T244" s="13"/>
+      <c r="U244" s="13"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="C245" s="14">
+        <v>8.9276561018E10</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F245" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G245" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H245" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="I245" s="13"/>
+      <c r="J245" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K245" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L245" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M245" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N245" s="13"/>
+      <c r="O245" s="13"/>
+      <c r="P245" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q245" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R245" s="13"/>
+      <c r="S245" s="13"/>
+      <c r="T245" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U245" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="C246" s="14">
+        <v>8.9896364327E10</v>
+      </c>
+      <c r="D246" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F246" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="G246" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H246" s="14">
+        <v>29.0</v>
+      </c>
+      <c r="I246" s="13"/>
+      <c r="J246" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K246" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L246" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M246" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N246" s="13"/>
+      <c r="O246" s="13"/>
+      <c r="P246" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q246" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R246" s="13"/>
+      <c r="S246" s="13"/>
+      <c r="T246" s="13"/>
+      <c r="U246" s="13"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C247" s="14">
+        <v>8.9045883559E10</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="F247" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="G247" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H247" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="I247" s="13"/>
+      <c r="J247" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K247" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L247" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M247" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N247" s="13"/>
+      <c r="O247" s="13"/>
+      <c r="P247" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q247" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R247" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S247" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T247" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U247" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$243"/>
+  <autoFilter ref="$A$1:$AA$247"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -17966,8 +18210,10 @@
     <hyperlink r:id="rId86" ref="B227"/>
     <hyperlink r:id="rId87" ref="B230"/>
     <hyperlink r:id="rId88" ref="B236"/>
+    <hyperlink r:id="rId89" ref="B244"/>
+    <hyperlink r:id="rId90" ref="B246"/>
   </hyperlinks>
-  <drawing r:id="rId89"/>
+  <drawing r:id="rId91"/>
 </worksheet>
 </file>
 
@@ -17983,16 +18229,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2">
@@ -18000,16 +18246,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3">
@@ -18017,16 +18263,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5">
@@ -18034,16 +18280,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6">
@@ -18051,16 +18297,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -18101,10 +18347,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2">
@@ -18112,7 +18358,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3">
@@ -18120,7 +18366,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5">
@@ -18128,7 +18374,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6">
@@ -18136,7 +18382,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$247</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$254</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="795">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2284,6 +2284,66 @@
   </si>
   <si>
     <t>Olani11</t>
+  </si>
+  <si>
+    <t>Галикеева Алсу Ильгизаровна</t>
+  </si>
+  <si>
+    <t>@internationaltradin</t>
+  </si>
+  <si>
+    <t>Удмуртская республика</t>
+  </si>
+  <si>
+    <t>Овчинникова Марина Дмитриевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://t.me/mariov </t>
+  </si>
+  <si>
+    <t>Шумакова Юлия Юрьевна</t>
+  </si>
+  <si>
+    <t>@YuliyaZN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амурская область </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Благовещенск </t>
+  </si>
+  <si>
+    <t>Филатова Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t>https://t.me/filatovanastasia</t>
+  </si>
+  <si>
+    <t>г. Саратов</t>
+  </si>
+  <si>
+    <t>Попова Анна Александровна</t>
+  </si>
+  <si>
+    <t>@NoyaFox</t>
+  </si>
+  <si>
+    <t>Селиванова Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>https://t.me/TSela_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярск </t>
+  </si>
+  <si>
+    <t>Пышный Евгений Александрович</t>
+  </si>
+  <si>
+    <t>@jimmy_lanski</t>
+  </si>
+  <si>
+    <t>Чернушка</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3164,7 +3224,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3237,7 +3297,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3314,7 +3374,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3387,7 +3447,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -18093,8 +18153,442 @@
         <v>30</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="C248" s="14">
+        <v>8.9829921377E10</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="G248" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H248" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="I248" s="13"/>
+      <c r="J248" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K248" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L248" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M248" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N248" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O248" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P248" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q248" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R248" s="13"/>
+      <c r="S248" s="13"/>
+      <c r="T248" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U248" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="C249" s="14">
+        <v>8.9506531057E10</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F249" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G249" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H249" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="I249" s="14">
+        <f t="shared" ref="I249:I251" si="11">COUNTIF(J249:M249, "Да")</f>
+        <v>1</v>
+      </c>
+      <c r="J249" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K249" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L249" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M249" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N249" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O249" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P249" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q249" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R249" s="13"/>
+      <c r="S249" s="13"/>
+      <c r="T249" s="13"/>
+      <c r="U249" s="13"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="C250" s="14">
+        <v>8.9244492556E10</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="F250" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="G250" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H250" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="I250" s="14">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J250" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K250" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L250" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M250" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N250" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O250" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P250" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q250" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R250" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S250" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T250" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U250" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V250" s="13"/>
+      <c r="W250" s="13"/>
+      <c r="X250" s="13"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="B251" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="C251" s="14">
+        <v>8.9371450799E10</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F251" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="G251" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H251" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="I251" s="14">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J251" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K251" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L251" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M251" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N251" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O251" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P251" s="13"/>
+      <c r="Q251" s="13"/>
+      <c r="R251" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S251" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T251" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U251" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V251" s="13"/>
+      <c r="W251" s="13"/>
+      <c r="X251" s="13"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="C252" s="14">
+        <v>8.9604105489E10</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F252" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G252" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H252" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="I252" s="13"/>
+      <c r="J252" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K252" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L252" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M252" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N252" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O252" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P252" s="13"/>
+      <c r="Q252" s="13"/>
+      <c r="R252" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S252" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T252" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U252" s="13"/>
+      <c r="V252" s="13"/>
+      <c r="W252" s="13"/>
+      <c r="X252" s="13"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="B253" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="C253" s="14">
+        <v>8.923350784E10</v>
+      </c>
+      <c r="D253" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="F253" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="G253" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H253" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="I253" s="13"/>
+      <c r="J253" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K253" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L253" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M253" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N253" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O253" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P253" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q253" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R253" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S253" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T253" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U253" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V253" s="13"/>
+      <c r="W253" s="13"/>
+      <c r="X253" s="13"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C254" s="14">
+        <v>8.9824751286E10</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="F254" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="G254" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H254" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="I254" s="14">
+        <f>COUNTIF(J254:M254, "Да")</f>
+        <v>1</v>
+      </c>
+      <c r="J254" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K254" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L254" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M254" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N254" s="13"/>
+      <c r="O254" s="13"/>
+      <c r="P254" s="14"/>
+      <c r="Q254" s="13"/>
+      <c r="R254" s="13"/>
+      <c r="S254" s="13"/>
+      <c r="T254" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U254" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V254" s="13"/>
+      <c r="W254" s="13"/>
+      <c r="X254" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$247"/>
+  <autoFilter ref="$A$1:$AA$254"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -18212,8 +18706,11 @@
     <hyperlink r:id="rId88" ref="B236"/>
     <hyperlink r:id="rId89" ref="B244"/>
     <hyperlink r:id="rId90" ref="B246"/>
+    <hyperlink r:id="rId91" ref="B249"/>
+    <hyperlink r:id="rId92" ref="B251"/>
+    <hyperlink r:id="rId93" ref="B253"/>
   </hyperlinks>
-  <drawing r:id="rId91"/>
+  <drawing r:id="rId94"/>
 </worksheet>
 </file>
 
@@ -18229,16 +18726,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2">
@@ -18246,16 +18743,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>756</v>
+        <v>776</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>757</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3">
@@ -18263,16 +18760,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>761</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5">
@@ -18280,16 +18777,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>763</v>
+        <v>783</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6">
@@ -18297,16 +18794,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -18347,10 +18844,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2">
@@ -18358,7 +18855,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3">
@@ -18366,7 +18863,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5">
@@ -18374,7 +18871,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6">
@@ -18382,7 +18879,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$254</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$258</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="805">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2344,6 +2344,36 @@
   </si>
   <si>
     <t>Чернушка</t>
+  </si>
+  <si>
+    <t>Голубцова Дарья Сергеевна</t>
+  </si>
+  <si>
+    <t>@Urrrnicorn</t>
+  </si>
+  <si>
+    <t>Заморова Анастасия Леонидовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://t.me/Anestych</t>
+  </si>
+  <si>
+    <t>Псковская область</t>
+  </si>
+  <si>
+    <t>Великие Луки</t>
+  </si>
+  <si>
+    <t>Камалетдинов Ильдар Насыхович</t>
+  </si>
+  <si>
+    <t>https://t.me/Ildar_kamaletdinow</t>
+  </si>
+  <si>
+    <t>Ошмарина Светлана Николаевна</t>
+  </si>
+  <si>
+    <t>t.me/oshmarinasvetlana</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2485,7 +2515,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2558,6 +2588,12 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF8E7CC3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -2579,7 +2615,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2667,6 +2703,9 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3224,7 +3263,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3297,7 +3336,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3374,7 +3413,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3447,7 +3486,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -18587,8 +18626,264 @@
       <c r="W254" s="13"/>
       <c r="X254" s="13"/>
     </row>
+    <row r="255">
+      <c r="A255" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C255" s="14">
+        <v>8.9119684162E10</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F255" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G255" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H255" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K255" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L255" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M255" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N255" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O255" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P255" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q255" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R255" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S255" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T255" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U255" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V255" s="13"/>
+      <c r="W255" s="13"/>
+      <c r="X255" s="13"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B256" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="C256" s="14">
+        <v>8.9113538497E10</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="G256" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H256" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="I256" s="13"/>
+      <c r="J256" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K256" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L256" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M256" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N256" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O256" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P256" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q256" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R256" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S256" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T256" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U256" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V256" s="13"/>
+      <c r="W256" s="13"/>
+      <c r="X256" s="13"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="B257" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="C257" s="14">
+        <v>8.9911232303E10</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F257" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G257" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H257" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I257" s="13"/>
+      <c r="J257" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K257" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L257" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M257" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N257" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O257" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P257" s="13"/>
+      <c r="Q257" s="13"/>
+      <c r="R257" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S257" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T257" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U257" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V257" s="13"/>
+      <c r="W257" s="13"/>
+      <c r="X257" s="13"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="B258" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="C258" s="14">
+        <v>8.9655792256E10</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="F258" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G258" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H258" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I258" s="13"/>
+      <c r="J258" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K258" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L258" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M258" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N258" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O258" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P258" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q258" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R258" s="13"/>
+      <c r="S258" s="13"/>
+      <c r="T258" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="U258" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V258" s="13"/>
+      <c r="W258" s="13"/>
+      <c r="X258" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$254"/>
+  <autoFilter ref="$A$1:$AA$258"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -18709,8 +19004,11 @@
     <hyperlink r:id="rId91" ref="B249"/>
     <hyperlink r:id="rId92" ref="B251"/>
     <hyperlink r:id="rId93" ref="B253"/>
+    <hyperlink r:id="rId94" ref="B256"/>
+    <hyperlink r:id="rId95" ref="B257"/>
+    <hyperlink r:id="rId96" ref="B258"/>
   </hyperlinks>
-  <drawing r:id="rId94"/>
+  <drawing r:id="rId97"/>
 </worksheet>
 </file>
 
@@ -18726,84 +19024,84 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>774</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>775</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>777</v>
+      <c r="B2" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>778</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>781</v>
+      <c r="B3" s="33" t="s">
+        <v>788</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>789</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>790</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>785</v>
+      <c r="B5" s="32" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>793</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>789</v>
+      <c r="B6" s="32" t="s">
+        <v>796</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>798</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -18844,10 +19142,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2">
@@ -18855,7 +19153,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3">
@@ -18863,7 +19161,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5">
@@ -18871,7 +19169,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6">
@@ -18879,7 +19177,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$258</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$260</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="811">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2374,6 +2374,24 @@
   </si>
   <si>
     <t>t.me/oshmarinasvetlana</t>
+  </si>
+  <si>
+    <t>Утюшева Анна Рашидовна</t>
+  </si>
+  <si>
+    <t>@Anna86_U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Липецкая обл </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Липецк </t>
+  </si>
+  <si>
+    <t>Лобко Кристина Александровна</t>
+  </si>
+  <si>
+    <t>https://t.me/Kristina_971</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3263,7 +3281,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3413,7 +3431,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3486,7 +3504,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -7515,7 +7533,7 @@
         <v>2</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>48</v>
@@ -7526,8 +7544,12 @@
       <c r="M72" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
+      <c r="N72" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O72" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P72" s="25" t="s">
         <v>33</v>
       </c>
@@ -9202,7 +9224,7 @@
         <v>27</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N99" s="13" t="s">
         <v>29</v>
@@ -9218,8 +9240,12 @@
       <c r="S99" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T99" s="13"/>
-      <c r="U99" s="13"/>
+      <c r="T99" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U99" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
@@ -17063,7 +17089,7 @@
       </c>
       <c r="I228" s="14">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" s="13" t="s">
         <v>39</v>
@@ -17075,7 +17101,7 @@
         <v>39</v>
       </c>
       <c r="M228" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N228" s="25" t="s">
         <v>33</v>
@@ -17091,8 +17117,12 @@
       </c>
       <c r="R228" s="13"/>
       <c r="S228" s="13"/>
-      <c r="T228" s="13"/>
-      <c r="U228" s="13"/>
+      <c r="T228" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U228" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="13" t="s">
@@ -17883,10 +17913,10 @@
       </c>
       <c r="I242" s="14">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J242" s="13" t="s">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="J242" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="K242" s="13" t="s">
         <v>27</v>
@@ -17894,11 +17924,15 @@
       <c r="L242" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M242" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N242" s="13"/>
-      <c r="O242" s="13"/>
+      <c r="M242" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N242" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O242" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P242" s="13" t="s">
         <v>31</v>
       </c>
@@ -17907,8 +17941,12 @@
       </c>
       <c r="R242" s="13"/>
       <c r="S242" s="13"/>
-      <c r="T242" s="13"/>
-      <c r="U242" s="13"/>
+      <c r="T242" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U242" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="13" t="s">
@@ -18882,8 +18920,129 @@
       <c r="W258" s="13"/>
       <c r="X258" s="13"/>
     </row>
+    <row r="259">
+      <c r="A259" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="C259" s="14">
+        <v>8.9205168068E10</v>
+      </c>
+      <c r="D259" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F259" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G259" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H259" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="I259" s="14">
+        <f>COUNTIF(J259:M259, "Да")</f>
+        <v>2</v>
+      </c>
+      <c r="J259" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K259" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L259" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M259" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N259" s="13"/>
+      <c r="O259" s="13"/>
+      <c r="P259" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q259" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R259" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S259" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="T259" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U259" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="V259" s="13"/>
+      <c r="W259" s="13"/>
+      <c r="X259" s="13"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="B260" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="C260" s="14">
+        <v>8.9308847061E10</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F260" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G260" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H260" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="I260" s="13"/>
+      <c r="J260" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K260" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L260" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M260" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N260" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O260" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P260" s="13"/>
+      <c r="Q260" s="13"/>
+      <c r="R260" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S260" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T260" s="13"/>
+      <c r="U260" s="13"/>
+      <c r="V260" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$258"/>
+  <autoFilter ref="$A$1:$AA$260"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -19007,8 +19166,9 @@
     <hyperlink r:id="rId94" ref="B256"/>
     <hyperlink r:id="rId95" ref="B257"/>
     <hyperlink r:id="rId96" ref="B258"/>
+    <hyperlink r:id="rId97" ref="B260"/>
   </hyperlinks>
-  <drawing r:id="rId97"/>
+  <drawing r:id="rId98"/>
 </worksheet>
 </file>
 
@@ -19024,16 +19184,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2">
@@ -19041,16 +19201,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3">
@@ -19058,16 +19218,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="5">
@@ -19075,16 +19235,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6">
@@ -19092,16 +19252,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -19142,10 +19302,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2">
@@ -19153,7 +19313,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3">
@@ -19161,7 +19321,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5">
@@ -19169,7 +19329,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6">
@@ -19177,7 +19337,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$260</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$270</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="838">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2392,6 +2392,87 @@
   </si>
   <si>
     <t>https://t.me/Kristina_971</t>
+  </si>
+  <si>
+    <t>Белов Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>@belovsan_87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижегородский </t>
+  </si>
+  <si>
+    <t>Горячева Элла Юрьевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://t.me/ella15012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ярославль </t>
+  </si>
+  <si>
+    <t>Кузнецова Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>https://t.me/TianaSmit85</t>
+  </si>
+  <si>
+    <t>Кушниренко Вячеслав Леонидович</t>
+  </si>
+  <si>
+    <t>VyacheslavKushn</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону х</t>
+  </si>
+  <si>
+    <t>Харькова Надежда Александровна</t>
+  </si>
+  <si>
+    <t>@nadya13523</t>
+  </si>
+  <si>
+    <t>Викторова Дарья Александровна</t>
+  </si>
+  <si>
+    <t>https://t.me/DariaViktorova</t>
+  </si>
+  <si>
+    <t>Вологда</t>
+  </si>
+  <si>
+    <t>Скиба Ирина Викторовна</t>
+  </si>
+  <si>
+    <t>@skibaby4</t>
+  </si>
+  <si>
+    <t>Аношкина Светлана Андреевна</t>
+  </si>
+  <si>
+    <t>https://t.me/Sweet_Dream2188</t>
+  </si>
+  <si>
+    <t>МО</t>
+  </si>
+  <si>
+    <t>Люберцы</t>
+  </si>
+  <si>
+    <t>Фазлиахметова Айгуль Мударисовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://t.me/Moonflower5791 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Татарстан </t>
+  </si>
+  <si>
+    <t>Синицына Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>t.me/Anna_Sinic</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3281,7 +3362,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3354,7 +3435,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3431,7 +3512,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3504,7 +3585,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -18508,13 +18589,13 @@
       </c>
       <c r="I252" s="13"/>
       <c r="J252" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K252" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L252" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M252" s="13" t="s">
         <v>27</v>
@@ -18574,7 +18655,7 @@
         <v>48</v>
       </c>
       <c r="L253" s="13" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M253" s="13" t="s">
         <v>27</v>
@@ -19041,8 +19122,613 @@
       <c r="U260" s="13"/>
       <c r="V260" s="13"/>
     </row>
+    <row r="261">
+      <c r="A261" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="C261" s="14">
+        <v>8.91012106E10</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G261" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H261" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="I261" s="14">
+        <f t="shared" ref="I261:I265" si="12">COUNTIF(J261:M261, "Да")</f>
+        <v>2</v>
+      </c>
+      <c r="J261" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K261" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L261" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M261" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N261" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O261" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P261" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q261" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R261" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S261" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T261" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U261" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="B262" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="C262" s="14">
+        <v>8.9038279E10</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F262" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="G262" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H262" s="14">
+        <v>53.0</v>
+      </c>
+      <c r="I262" s="14">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J262" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K262" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L262" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M262" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N262" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O262" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P262" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q262" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R262" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S262" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T262" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U262" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="B263" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="C263" s="14">
+        <v>8.9601038602E10</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F263" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G263" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H263" s="14">
+        <v>34.0</v>
+      </c>
+      <c r="I263" s="14">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J263" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K263" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L263" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M263" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N263" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O263" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P263" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q263" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R263" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S263" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T263" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U263" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="C264" s="14">
+        <v>8.9044487961E10</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F264" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="G264" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H264" s="14">
+        <v>53.0</v>
+      </c>
+      <c r="I264" s="14">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J264" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K264" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L264" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M264" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N264" s="13"/>
+      <c r="O264" s="13"/>
+      <c r="P264" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q264" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R264" s="13"/>
+      <c r="S264" s="13"/>
+      <c r="T264" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U264" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="C265" s="14">
+        <v>8.9119508149E10</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F265" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G265" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H265" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="I265" s="14">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J265" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K265" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L265" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M265" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N265" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O265" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P265" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q265" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R265" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S265" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T265" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U265" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="C266" s="14">
+        <v>8.9211416302E10</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="F266" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="G266" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H266" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="I266" s="13"/>
+      <c r="J266" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K266" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L266" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M266" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N266" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O266" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P266" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q266" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R266" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S266" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T266" s="13"/>
+      <c r="U266" s="13"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="C267" s="14">
+        <v>8.9297011977E10</v>
+      </c>
+      <c r="D267" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F267" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G267" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H267" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="I267" s="13"/>
+      <c r="J267" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K267" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L267" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M267" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N267" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O267" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P267" s="13"/>
+      <c r="Q267" s="13"/>
+      <c r="R267" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S267" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T267" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U267" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="B268" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C268" s="14">
+        <v>8.9163257752E10</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="F268" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="G268" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H268" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="I268" s="13"/>
+      <c r="J268" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K268" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L268" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M268" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N268" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O268" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P268" s="13"/>
+      <c r="Q268" s="13"/>
+      <c r="R268" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S268" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T268" s="13"/>
+      <c r="U268" s="13"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B269" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="C269" s="14">
+        <v>8.9172330073E10</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="F269" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G269" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H269" s="14">
+        <v>50.0</v>
+      </c>
+      <c r="I269" s="13"/>
+      <c r="J269" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K269" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L269" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M269" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N269" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O269" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P269" s="13"/>
+      <c r="Q269" s="13"/>
+      <c r="R269" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S269" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T269" s="13"/>
+      <c r="U269" s="13"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B270" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="C270" s="14">
+        <v>8.9528116263E10</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="F270" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="G270" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H270" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="I270" s="13"/>
+      <c r="J270" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K270" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L270" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M270" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N270" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O270" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P270" s="13"/>
+      <c r="Q270" s="13"/>
+      <c r="R270" s="13"/>
+      <c r="S270" s="13"/>
+      <c r="T270" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U270" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$260"/>
+  <autoFilter ref="$A$1:$AA$270"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -19167,8 +19853,14 @@
     <hyperlink r:id="rId95" ref="B257"/>
     <hyperlink r:id="rId96" ref="B258"/>
     <hyperlink r:id="rId97" ref="B260"/>
+    <hyperlink r:id="rId98" ref="B262"/>
+    <hyperlink r:id="rId99" ref="B263"/>
+    <hyperlink r:id="rId100" ref="B266"/>
+    <hyperlink r:id="rId101" ref="B268"/>
+    <hyperlink r:id="rId102" ref="B269"/>
+    <hyperlink r:id="rId103" ref="B270"/>
   </hyperlinks>
-  <drawing r:id="rId98"/>
+  <drawing r:id="rId104"/>
 </worksheet>
 </file>
 
@@ -19184,16 +19876,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2">
@@ -19201,16 +19893,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3">
@@ -19218,16 +19910,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>795</v>
+        <v>822</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5">
@@ -19235,16 +19927,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>798</v>
+        <v>825</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>800</v>
+        <v>827</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>801</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6">
@@ -19252,16 +19944,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>802</v>
+        <v>829</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>803</v>
+        <v>830</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>804</v>
+        <v>831</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -19302,10 +19994,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>806</v>
+        <v>833</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
     </row>
     <row r="2">
@@ -19313,7 +20005,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3">
@@ -19321,7 +20013,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5">
@@ -19329,7 +20021,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6">
@@ -19337,7 +20029,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$270</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$271</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="840">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2473,6 +2473,12 @@
   </si>
   <si>
     <t>t.me/Anna_Sinic</t>
+  </si>
+  <si>
+    <t>Селезнев Вадим Михайлович</t>
+  </si>
+  <si>
+    <t>https://t.me/martymcflysdog</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3435,7 +3441,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3512,7 +3518,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3585,7 +3591,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -18249,8 +18255,12 @@
       </c>
       <c r="R246" s="13"/>
       <c r="S246" s="13"/>
-      <c r="T246" s="13"/>
-      <c r="U246" s="13"/>
+      <c r="T246" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U246" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="13" t="s">
@@ -19727,8 +19737,67 @@
         <v>30</v>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="B271" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="C271" s="14">
+        <v>8.9117510406E10</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F271" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G271" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H271" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="I271" s="13"/>
+      <c r="J271" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K271" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L271" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M271" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N271" s="13"/>
+      <c r="O271" s="13"/>
+      <c r="P271" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q271" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R271" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S271" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T271" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U271" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$270"/>
+  <autoFilter ref="$A$1:$AA$271"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -19859,8 +19928,9 @@
     <hyperlink r:id="rId101" ref="B268"/>
     <hyperlink r:id="rId102" ref="B269"/>
     <hyperlink r:id="rId103" ref="B270"/>
+    <hyperlink r:id="rId104" ref="B271"/>
   </hyperlinks>
-  <drawing r:id="rId104"/>
+  <drawing r:id="rId105"/>
 </worksheet>
 </file>
 
@@ -19876,16 +19946,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2">
@@ -19893,16 +19963,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3">
@@ -19910,16 +19980,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5">
@@ -19927,16 +19997,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6">
@@ -19944,16 +20014,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -19994,10 +20064,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2">
@@ -20005,7 +20075,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3">
@@ -20013,7 +20083,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5">
@@ -20021,7 +20091,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6">
@@ -20029,7 +20099,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -3518,7 +3518,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -18239,8 +18239,8 @@
       <c r="K246" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L246" s="13" t="s">
-        <v>39</v>
+      <c r="L246" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="M246" s="13" t="s">
         <v>48</v>
@@ -18253,14 +18253,14 @@
       <c r="Q246" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R246" s="13"/>
-      <c r="S246" s="13"/>
-      <c r="T246" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U246" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="R246" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S246" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T246" s="13"/>
+      <c r="U246" s="13"/>
     </row>
     <row r="247">
       <c r="A247" s="13" t="s">

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$271</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$272</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4317" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="842">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2479,6 +2479,12 @@
   </si>
   <si>
     <t>https://t.me/martymcflysdog</t>
+  </si>
+  <si>
+    <t>Пищулина София Алексеевна</t>
+  </si>
+  <si>
+    <t>https://t.me/SonyaGS</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3368,7 +3374,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3441,7 +3447,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3518,7 +3524,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3591,7 +3597,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -16582,8 +16588,8 @@
       <c r="K218" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L218" s="13" t="s">
-        <v>39</v>
+      <c r="L218" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="M218" s="26" t="s">
         <v>27</v>
@@ -16596,8 +16602,12 @@
       <c r="Q218" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R218" s="13"/>
-      <c r="S218" s="13"/>
+      <c r="R218" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S218" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T218" s="13" t="s">
         <v>40</v>
       </c>
@@ -17431,16 +17441,16 @@
         <v>39</v>
       </c>
       <c r="N232" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O232" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P232" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q232" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R232" s="13"/>
       <c r="S232" s="13"/>
@@ -19796,8 +19806,71 @@
         <v>32</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="B272" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="C272" s="14">
+        <v>8.9969299302E10</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F272" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G272" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H272" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="I272" s="13"/>
+      <c r="J272" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K272" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L272" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M272" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N272" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O272" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P272" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q272" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R272" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S272" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T272" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U272" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$271"/>
+  <autoFilter ref="$A$1:$AA$272"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -19929,8 +20002,9 @@
     <hyperlink r:id="rId102" ref="B269"/>
     <hyperlink r:id="rId103" ref="B270"/>
     <hyperlink r:id="rId104" ref="B271"/>
+    <hyperlink r:id="rId105" ref="B272"/>
   </hyperlinks>
-  <drawing r:id="rId105"/>
+  <drawing r:id="rId106"/>
 </worksheet>
 </file>
 
@@ -19946,16 +20020,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2">
@@ -19963,16 +20037,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3">
@@ -19980,16 +20054,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5">
@@ -19997,16 +20071,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6">
@@ -20014,16 +20088,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -20064,10 +20138,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2">
@@ -20075,7 +20149,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3">
@@ -20083,7 +20157,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5">
@@ -20091,7 +20165,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6">
@@ -20099,7 +20173,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4343" uniqueCount="842">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -9310,8 +9310,8 @@
       <c r="J99" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K99" s="13" t="s">
-        <v>39</v>
+      <c r="K99" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="L99" s="13" t="s">
         <v>27</v>
@@ -9325,8 +9325,12 @@
       <c r="O99" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
+      <c r="P99" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q99" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="R99" s="13" t="s">
         <v>29</v>
       </c>
@@ -15242,7 +15246,7 @@
         <v>48</v>
       </c>
       <c r="M195" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N195" s="13" t="s">
         <v>29</v>
@@ -15262,8 +15266,12 @@
       <c r="S195" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="T195" s="13"/>
-      <c r="U195" s="13"/>
+      <c r="T195" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U195" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="13" t="s">
@@ -16642,7 +16650,7 @@
       </c>
       <c r="I219" s="14">
         <f t="shared" ref="I219:I221" si="8">COUNTIF(J219:M219, "Да")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J219" s="13" t="s">
         <v>27</v>
@@ -16653,8 +16661,8 @@
       <c r="L219" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M219" s="13" t="s">
-        <v>39</v>
+      <c r="M219" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="N219" s="13" t="s">
         <v>31</v>
@@ -16666,8 +16674,12 @@
       <c r="Q219" s="13"/>
       <c r="R219" s="13"/>
       <c r="S219" s="13"/>
-      <c r="T219" s="13"/>
-      <c r="U219" s="13"/>
+      <c r="T219" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U219" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="13" t="s">

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4343" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="842">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -8339,8 +8339,8 @@
       <c r="M83" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N83" s="13" t="s">
-        <v>31</v>
+      <c r="N83" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="O83" s="13" t="s">
         <v>32</v>
@@ -12477,7 +12477,7 @@
         <v>4</v>
       </c>
       <c r="J150" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K150" s="13" t="s">
         <v>27</v>
@@ -12488,13 +12488,17 @@
       <c r="M150" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N150" s="13"/>
-      <c r="O150" s="13"/>
+      <c r="N150" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O150" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P150" s="13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q150" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R150" s="13" t="s">
         <v>29</v>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="842">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -6173,7 +6173,7 @@
         <v>30</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="U48" s="13" t="s">
         <v>32</v>
@@ -6891,7 +6891,7 @@
         <v>32</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="S60" s="13" t="s">
         <v>32</v>
@@ -12611,8 +12611,8 @@
       <c r="J152" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K152" s="13" t="s">
-        <v>39</v>
+      <c r="K152" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="L152" s="13" t="s">
         <v>27</v>
@@ -12622,8 +12622,12 @@
       </c>
       <c r="N152" s="13"/>
       <c r="O152" s="13"/>
-      <c r="P152" s="13"/>
-      <c r="Q152" s="13"/>
+      <c r="P152" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q152" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="R152" s="13" t="s">
         <v>29</v>
       </c>
@@ -14055,7 +14059,7 @@
         <v>4</v>
       </c>
       <c r="J176" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K176" s="13" t="s">
         <v>27</v>
@@ -14066,8 +14070,12 @@
       <c r="M176" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N176" s="13"/>
-      <c r="O176" s="13"/>
+      <c r="N176" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O176" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P176" s="13" t="s">
         <v>40</v>
       </c>
@@ -14241,7 +14249,7 @@
         <v>4</v>
       </c>
       <c r="J179" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K179" s="13" t="s">
         <v>27</v>
@@ -14252,8 +14260,12 @@
       <c r="M179" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N179" s="13"/>
-      <c r="O179" s="13"/>
+      <c r="N179" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O179" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="P179" s="13" t="s">
         <v>29</v>
       </c>
@@ -16329,8 +16341,8 @@
       <c r="P213" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q213" s="13" t="s">
-        <v>31</v>
+      <c r="Q213" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="R213" s="13" t="s">
         <v>29</v>
@@ -16654,13 +16666,13 @@
       </c>
       <c r="I219" s="14">
         <f t="shared" ref="I219:I221" si="8">COUNTIF(J219:M219, "Да")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J219" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K219" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L219" s="13" t="s">
         <v>39</v>
@@ -16674,8 +16686,12 @@
       <c r="O219" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P219" s="13"/>
-      <c r="Q219" s="13"/>
+      <c r="P219" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q219" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="R219" s="13"/>
       <c r="S219" s="13"/>
       <c r="T219" s="13" t="s">

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="842">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -3837,7 +3837,7 @@
         <v>32</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>32</v>
@@ -5283,7 +5283,7 @@
         <v>27</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L34" s="13" t="s">
         <v>27</v>
@@ -5297,8 +5297,12 @@
       <c r="O34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="P34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="R34" s="13" t="s">
         <v>29</v>
       </c>
@@ -9771,8 +9775,8 @@
       <c r="S106" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T106" s="13" t="s">
-        <v>31</v>
+      <c r="T106" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="U106" s="13" t="s">
         <v>32</v>
@@ -11011,8 +11015,8 @@
       <c r="S126" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T126" s="13" t="s">
-        <v>31</v>
+      <c r="T126" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="U126" s="13" t="s">
         <v>32</v>
@@ -11300,7 +11304,7 @@
         <v>39</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N131" s="13" t="s">
         <v>29</v>
@@ -11316,8 +11320,12 @@
       </c>
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
-      <c r="T131" s="13"/>
-      <c r="U131" s="13"/>
+      <c r="T131" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U131" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="13" t="s">
@@ -11981,7 +11989,7 @@
         <v>4</v>
       </c>
       <c r="J142" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K142" s="13" t="s">
         <v>27</v>
@@ -11992,8 +12000,12 @@
       <c r="M142" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N142" s="13"/>
-      <c r="O142" s="13"/>
+      <c r="N142" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O142" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="P142" s="13" t="s">
         <v>40</v>
       </c>
@@ -12233,27 +12245,35 @@
         <v>4</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K146" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L146" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M146" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N146" s="13"/>
-      <c r="O146" s="13"/>
+      <c r="N146" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O146" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P146" s="13" t="s">
         <v>29</v>
       </c>
       <c r="Q146" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R146" s="13"/>
-      <c r="S146" s="13"/>
+      <c r="R146" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S146" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="T146" s="13" t="s">
         <v>29</v>
       </c>
@@ -12575,8 +12595,8 @@
       <c r="T151" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="U151" s="13" t="s">
-        <v>31</v>
+      <c r="U151" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="152">
@@ -16147,10 +16167,10 @@
       </c>
       <c r="I210" s="14">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K210" s="13" t="s">
         <v>27</v>
@@ -16161,8 +16181,12 @@
       <c r="M210" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N210" s="13"/>
-      <c r="O210" s="13"/>
+      <c r="N210" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O210" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P210" s="13" t="s">
         <v>31</v>
       </c>
@@ -17872,7 +17896,7 @@
       </c>
       <c r="I239" s="14">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" s="13" t="s">
         <v>39</v>
@@ -17883,8 +17907,8 @@
       <c r="L239" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M239" s="13" t="s">
-        <v>39</v>
+      <c r="M239" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="N239" s="13"/>
       <c r="O239" s="13"/>
@@ -17896,8 +17920,12 @@
       </c>
       <c r="R239" s="13"/>
       <c r="S239" s="13"/>
-      <c r="T239" s="13"/>
-      <c r="U239" s="13"/>
+      <c r="T239" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U239" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="13" t="s">

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4387" uniqueCount="842">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -4009,23 +4009,35 @@
         <v>4</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="N14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T14" s="13" t="s">
         <v>31</v>
       </c>
@@ -4772,7 +4784,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>27</v>
@@ -4781,10 +4793,14 @@
         <v>27</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P26" s="13" t="s">
         <v>40</v>
       </c>
@@ -4797,8 +4813,12 @@
       <c r="S26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
+      <c r="T26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
@@ -4921,8 +4941,8 @@
       <c r="S28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="T28" s="13" t="s">
-        <v>29</v>
+      <c r="T28" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="U28" s="13" t="s">
         <v>31</v>
@@ -5235,8 +5255,12 @@
       <c r="O33" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="P33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="R33" s="13" t="s">
         <v>29</v>
       </c>
@@ -6270,7 +6294,7 @@
         <v>28</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L50" s="13" t="s">
         <v>27</v>
@@ -6284,8 +6308,12 @@
       <c r="O50" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="P50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="R50" s="13" t="s">
         <v>40</v>
       </c>
@@ -9692,27 +9720,35 @@
         <v>4</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K105" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M105" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
+      <c r="N105" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="P105" s="13" t="s">
         <v>29</v>
       </c>
       <c r="Q105" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
+      <c r="R105" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S105" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T105" s="13" t="s">
         <v>40</v>
       </c>
@@ -16068,8 +16104,12 @@
       <c r="Q208" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R208" s="13"/>
-      <c r="S208" s="13"/>
+      <c r="R208" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S208" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T208" s="13" t="s">
         <v>29</v>
       </c>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$272</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$273</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4387" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="843">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2485,6 +2485,9 @@
   </si>
   <si>
     <t>https://t.me/SonyaGS</t>
+  </si>
+  <si>
+    <t>Арефьев Юрий Юрьевич</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3374,7 +3377,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3447,7 +3450,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -8728,7 +8731,7 @@
         <v>2</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K89" s="13" t="s">
         <v>28</v>
@@ -8739,8 +8742,12 @@
       <c r="M89" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
+      <c r="N89" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P89" s="25" t="s">
         <v>33</v>
       </c>
@@ -19969,8 +19976,45 @@
         <v>30</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+      <c r="G273" s="13"/>
+      <c r="H273" s="13"/>
+      <c r="I273" s="13"/>
+      <c r="J273" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K273" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L273" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M273" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N273" s="13"/>
+      <c r="O273" s="13"/>
+      <c r="P273" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q273" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R273" s="13"/>
+      <c r="S273" s="13"/>
+      <c r="T273" s="13"/>
+      <c r="U273" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$272"/>
+  <autoFilter ref="$A$1:$AA$273"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -20120,16 +20164,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2">
@@ -20137,16 +20181,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3">
@@ -20154,16 +20198,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5">
@@ -20171,16 +20215,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="6">
@@ -20188,16 +20232,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -20238,10 +20282,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2">
@@ -20249,7 +20293,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -20257,7 +20301,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5">
@@ -20265,7 +20309,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6">
@@ -20273,7 +20317,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="843">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -6369,7 +6369,7 @@
         <v>27</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>40</v>
@@ -6389,8 +6389,12 @@
       <c r="S51" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
+      <c r="T51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
@@ -7595,7 +7599,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K71" s="13" t="s">
         <v>27</v>
@@ -7606,11 +7610,11 @@
       <c r="M71" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N71" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="25" t="s">
-        <v>33</v>
+      <c r="N71" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="P71" s="13" t="s">
         <v>40</v>
@@ -14506,7 +14510,7 @@
         <v>4</v>
       </c>
       <c r="J182" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K182" s="13" t="s">
         <v>27</v>
@@ -14517,8 +14521,12 @@
       <c r="M182" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N182" s="13"/>
-      <c r="O182" s="13"/>
+      <c r="N182" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O182" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="P182" s="13" t="s">
         <v>40</v>
       </c>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$273</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$277</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="854">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2488,6 +2488,39 @@
   </si>
   <si>
     <t>Арефьев Юрий Юрьевич</t>
+  </si>
+  <si>
+    <t>Ершова алена николаевна</t>
+  </si>
+  <si>
+    <t>@bri_212</t>
+  </si>
+  <si>
+    <t>Ниж.область</t>
+  </si>
+  <si>
+    <t>Нижний новгород</t>
+  </si>
+  <si>
+    <t>Толмачева Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>@Tolmacheva_Anna_S</t>
+  </si>
+  <si>
+    <t>Даценко Елена Николаевна</t>
+  </si>
+  <si>
+    <t>https://t.me/ElenaDatsenko</t>
+  </si>
+  <si>
+    <t>Протвино</t>
+  </si>
+  <si>
+    <t>Желтова Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>@ann0707ip</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2629,7 +2662,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2708,6 +2741,12 @@
         <bgColor rgb="FF8E7CC3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -2729,7 +2768,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2821,6 +2860,9 @@
     </xf>
     <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3377,7 +3419,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3450,7 +3492,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3527,7 +3569,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3600,7 +3642,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -20021,8 +20063,248 @@
       <c r="T273" s="13"/>
       <c r="U273" s="13"/>
     </row>
+    <row r="274">
+      <c r="A274" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="C274" s="14">
+        <v>8.9200724242E10</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="F274" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="G274" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H274" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I274" s="32">
+        <f t="shared" ref="I274:I277" si="13">COUNTIF(J274:M274, "Да, являюсь клиентом банка более полугода") + COUNTIF(J274:M274, "Да, являюсь клиентом банка менее полугода")</f>
+        <v>0</v>
+      </c>
+      <c r="J274" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K274" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L274" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M274" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N274" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O274" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P274" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q274" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R274" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S274" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T274" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U274" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="C275" s="14">
+        <v>8.9234342207E10</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F275" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G275" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H275" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="I275" s="32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J275" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K275" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L275" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M275" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N275" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O275" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P275" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q275" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R275" s="13"/>
+      <c r="S275" s="13"/>
+      <c r="T275" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U275" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="B276" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="C276" s="14">
+        <v>8.9096218624E10</v>
+      </c>
+      <c r="D276" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F276" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="G276" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H276" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I276" s="32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J276" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K276" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L276" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M276" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N276" s="13"/>
+      <c r="O276" s="13"/>
+      <c r="P276" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q276" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R276" s="13"/>
+      <c r="S276" s="13"/>
+      <c r="T276" s="13"/>
+      <c r="U276" s="13"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="C277" s="14">
+        <v>8.9204509984E10</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F277" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G277" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H277" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="I277" s="32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J277" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K277" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L277" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M277" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N277" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O277" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P277" s="13"/>
+      <c r="Q277" s="13"/>
+      <c r="R277" s="13"/>
+      <c r="S277" s="13"/>
+      <c r="T277" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U277" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$273"/>
+  <autoFilter ref="$A$1:$AA$277"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -20155,8 +20437,9 @@
     <hyperlink r:id="rId103" ref="B270"/>
     <hyperlink r:id="rId104" ref="B271"/>
     <hyperlink r:id="rId105" ref="B272"/>
+    <hyperlink r:id="rId106" ref="B276"/>
   </hyperlinks>
-  <drawing r:id="rId106"/>
+  <drawing r:id="rId107"/>
 </worksheet>
 </file>
 
@@ -20172,84 +20455,84 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>822</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>824</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>825</v>
+      <c r="B2" s="33" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>834</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>835</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>826</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>827</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>829</v>
+      <c r="B3" s="34" t="s">
+        <v>837</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>839</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>832</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>833</v>
+      <c r="B5" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>842</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>843</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>834</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>835</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>836</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>837</v>
+      <c r="B6" s="33" t="s">
+        <v>845</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>847</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -20290,10 +20573,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2">
@@ -20301,7 +20584,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3">
@@ -20309,7 +20592,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5">
@@ -20317,7 +20600,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6">
@@ -20325,7 +20608,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$277</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$281</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="864">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2521,6 +2521,36 @@
   </si>
   <si>
     <t>@ann0707ip</t>
+  </si>
+  <si>
+    <t>Илюшенко Анна Алексеевна</t>
+  </si>
+  <si>
+    <t>HTTPS://T.ME/MWIZ87</t>
+  </si>
+  <si>
+    <t>Булычева Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>@Katrinbul</t>
+  </si>
+  <si>
+    <t>Тольятти</t>
+  </si>
+  <si>
+    <t>Каштанова Елена Викторовна</t>
+  </si>
+  <si>
+    <t>Денисова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>@natalek_den</t>
+  </si>
+  <si>
+    <t>Тульская область</t>
+  </si>
+  <si>
+    <t>Тула</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3419,7 +3449,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3642,7 +3672,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -20089,7 +20119,7 @@
         <v>33.0</v>
       </c>
       <c r="I274" s="32">
-        <f t="shared" ref="I274:I277" si="13">COUNTIF(J274:M274, "Да, являюсь клиентом банка более полугода") + COUNTIF(J274:M274, "Да, являюсь клиентом банка менее полугода")</f>
+        <f t="shared" ref="I274:I281" si="13">COUNTIF(J274:M274, "Да, являюсь клиентом банка более полугода") + COUNTIF(J274:M274, "Да, являюсь клиентом банка менее полугода")</f>
         <v>0</v>
       </c>
       <c r="J274" s="13" t="s">
@@ -20303,8 +20333,232 @@
         <v>32</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="B278" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="C278" s="14">
+        <v>8.9104566777E10</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F278" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G278" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H278" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="I278" s="32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J278" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K278" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L278" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M278" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N278" s="13"/>
+      <c r="O278" s="13"/>
+      <c r="P278" s="13"/>
+      <c r="Q278" s="13"/>
+      <c r="R278" s="13"/>
+      <c r="S278" s="13"/>
+      <c r="T278" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U278" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="C279" s="14">
+        <v>8.9171299718E10</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F279" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="G279" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H279" s="14">
+        <v>31.0</v>
+      </c>
+      <c r="I279" s="32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J279" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K279" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L279" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M279" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N279" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O279" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P279" s="13"/>
+      <c r="Q279" s="13"/>
+      <c r="R279" s="13"/>
+      <c r="S279" s="13"/>
+      <c r="T279" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U279" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="B280" s="14">
+        <v>8.9871331097E10</v>
+      </c>
+      <c r="C280" s="14">
+        <v>8.9871331097E10</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F280" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G280" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H280" s="14">
+        <v>42.0</v>
+      </c>
+      <c r="I280" s="32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J280" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K280" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L280" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M280" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N280" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O280" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P280" s="13"/>
+      <c r="Q280" s="13"/>
+      <c r="R280" s="13"/>
+      <c r="S280" s="13"/>
+      <c r="T280" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U280" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="C281" s="14">
+        <v>8.9030394965E10</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="F281" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="G281" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H281" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="I281" s="32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J281" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K281" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L281" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M281" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N281" s="13"/>
+      <c r="O281" s="13"/>
+      <c r="P281" s="13"/>
+      <c r="Q281" s="13"/>
+      <c r="R281" s="13"/>
+      <c r="S281" s="13"/>
+      <c r="T281" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U281" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$277"/>
+  <autoFilter ref="$A$1:$AA$281"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -20438,8 +20692,9 @@
     <hyperlink r:id="rId104" ref="B271"/>
     <hyperlink r:id="rId105" ref="B272"/>
     <hyperlink r:id="rId106" ref="B276"/>
+    <hyperlink r:id="rId107" ref="B278"/>
   </hyperlinks>
-  <drawing r:id="rId107"/>
+  <drawing r:id="rId108"/>
 </worksheet>
 </file>
 
@@ -20455,16 +20710,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2">
@@ -20472,16 +20727,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3">
@@ -20489,16 +20744,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5">
@@ -20506,16 +20761,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6">
@@ -20523,16 +20778,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -20573,10 +20828,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2">
@@ -20584,7 +20839,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3">
@@ -20592,7 +20847,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5">
@@ -20600,7 +20855,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6">
@@ -20608,7 +20863,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$281</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$289</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4617" uniqueCount="887">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2551,6 +2551,75 @@
   </si>
   <si>
     <t>Тула</t>
+  </si>
+  <si>
+    <t>Шведов Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t>https://t.me/Shvedov_D</t>
+  </si>
+  <si>
+    <t>Республика Карелия</t>
+  </si>
+  <si>
+    <t>Петрозаводск</t>
+  </si>
+  <si>
+    <t>Толоконцев Василий Валерьевич</t>
+  </si>
+  <si>
+    <t>@TolokontsevVasilii</t>
+  </si>
+  <si>
+    <t>Череповец</t>
+  </si>
+  <si>
+    <t>Копицин Игорь Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ovisch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Астраханская обл. </t>
+  </si>
+  <si>
+    <t>Романов Михаил Валерьевич</t>
+  </si>
+  <si>
+    <t>@MIKA_1332206</t>
+  </si>
+  <si>
+    <t>Омская область</t>
+  </si>
+  <si>
+    <t>Тимофеева Евгения Сергеевна</t>
+  </si>
+  <si>
+    <t>@Evgenya_Timofeeva</t>
+  </si>
+  <si>
+    <t>Тютина Александра Андреевна</t>
+  </si>
+  <si>
+    <t>@aleksandra_qa</t>
+  </si>
+  <si>
+    <t>Белуничева Эльвира Андреевна</t>
+  </si>
+  <si>
+    <t>https://t.me/belunicheva</t>
+  </si>
+  <si>
+    <t>Лобня</t>
+  </si>
+  <si>
+    <t>Гончаренко Олеся Сергеевна</t>
+  </si>
+  <si>
+    <t>@Lyasya1703</t>
+  </si>
+  <si>
+    <t>НСО</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2798,7 +2867,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2893,6 +2962,9 @@
     </xf>
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3449,7 +3521,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3522,7 +3594,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3672,7 +3744,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -20557,8 +20629,452 @@
         <v>31</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B282" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="C282" s="14">
+        <v>8.9118002969E10</v>
+      </c>
+      <c r="D282" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="F282" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="G282" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H282" s="14">
+        <v>33.0</v>
+      </c>
+      <c r="I282" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="J282" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K282" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L282" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M282" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N282" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O282" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P282" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q282" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R282" s="13"/>
+      <c r="S282" s="13"/>
+      <c r="T282" s="13"/>
+      <c r="U282" s="13"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="C283" s="14">
+        <v>8.9535106484E10</v>
+      </c>
+      <c r="D283" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="F283" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="G283" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H283" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="I283" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="J283" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K283" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L283" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M283" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N283" s="13"/>
+      <c r="O283" s="13"/>
+      <c r="P283" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q283" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R283" s="13"/>
+      <c r="S283" s="13"/>
+      <c r="T283" s="13"/>
+      <c r="U283" s="13"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="14">
+        <v>8.9275585978E10</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="F284" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G284" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H284" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="I284" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="J284" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K284" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L284" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M284" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N284" s="13"/>
+      <c r="O284" s="13"/>
+      <c r="P284" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q284" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R284" s="13"/>
+      <c r="S284" s="13"/>
+      <c r="T284" s="13"/>
+      <c r="U284" s="13"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C285" s="14">
+        <v>8.908798605E10</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F285" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="G285" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H285" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="I285" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="J285" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K285" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L285" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M285" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N285" s="13"/>
+      <c r="O285" s="13"/>
+      <c r="P285" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q285" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R285" s="13"/>
+      <c r="S285" s="13"/>
+      <c r="T285" s="13"/>
+      <c r="U285" s="13"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C286" s="14">
+        <v>8.9021513908E10</v>
+      </c>
+      <c r="D286" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F286" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G286" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H286" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="I286" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="J286" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K286" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L286" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M286" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N286" s="13"/>
+      <c r="O286" s="13"/>
+      <c r="P286" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q286" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R286" s="13"/>
+      <c r="S286" s="13"/>
+      <c r="T286" s="13"/>
+      <c r="U286" s="13"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="C287" s="14">
+        <v>8.9226196692E10</v>
+      </c>
+      <c r="D287" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E287" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F287" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G287" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H287" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="I287" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="J287" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K287" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L287" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M287" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N287" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O287" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P287" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q287" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R287" s="13"/>
+      <c r="S287" s="13"/>
+      <c r="T287" s="13"/>
+      <c r="U287" s="13"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="C288" s="14">
+        <v>8.9637337237E10</v>
+      </c>
+      <c r="D288" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E288" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F288" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="G288" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H288" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="I288" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="J288" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K288" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L288" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M288" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N288" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O288" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P288" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q288" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R288" s="13"/>
+      <c r="S288" s="13"/>
+      <c r="T288" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U288" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="C289" s="14">
+        <v>8.9529454314E10</v>
+      </c>
+      <c r="D289" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="F289" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G289" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H289" s="14">
+        <v>42.0</v>
+      </c>
+      <c r="I289" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="J289" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K289" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L289" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M289" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N289" s="13"/>
+      <c r="O289" s="13"/>
+      <c r="P289" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q289" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R289" s="13"/>
+      <c r="S289" s="13"/>
+      <c r="T289" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U289" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$281"/>
+  <autoFilter ref="$A$1:$AA$289"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -20693,8 +21209,10 @@
     <hyperlink r:id="rId105" ref="B272"/>
     <hyperlink r:id="rId106" ref="B276"/>
     <hyperlink r:id="rId107" ref="B278"/>
+    <hyperlink r:id="rId108" ref="B282"/>
+    <hyperlink r:id="rId109" ref="B288"/>
   </hyperlinks>
-  <drawing r:id="rId108"/>
+  <drawing r:id="rId110"/>
 </worksheet>
 </file>
 
@@ -20710,84 +21228,84 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>844</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>845</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>846</v>
+      <c r="B2" s="34" t="s">
+        <v>866</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>867</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>847</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>848</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>849</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>850</v>
+      <c r="B3" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>851</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>852</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>854</v>
+      <c r="B5" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>875</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>855</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>857</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>858</v>
+      <c r="B6" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>879</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>880</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -20828,10 +21346,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2">
@@ -20839,7 +21357,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3">
@@ -20847,7 +21365,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5">
@@ -20855,7 +21373,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
     </row>
     <row r="6">
@@ -20863,7 +21381,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -3671,7 +3671,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -16249,8 +16249,8 @@
       <c r="K208" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L208" s="13" t="s">
-        <v>39</v>
+      <c r="L208" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="M208" s="26" t="s">
         <v>27</v>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4617" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="887">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -17441,25 +17441,25 @@
       </c>
       <c r="I228" s="14">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J228" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K228" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L228" s="13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M228" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N228" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O228" s="25" t="s">
-        <v>33</v>
+      <c r="N228" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O228" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="P228" s="13" t="s">
         <v>40</v>
@@ -17467,8 +17467,12 @@
       <c r="Q228" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R228" s="13"/>
-      <c r="S228" s="13"/>
+      <c r="R228" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S228" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="T228" s="13" t="s">
         <v>29</v>
       </c>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$289</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$295</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="902">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2620,6 +2620,51 @@
   </si>
   <si>
     <t>НСО</t>
+  </si>
+  <si>
+    <t>Опрокиднева Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>@IrinaB56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оренбург </t>
+  </si>
+  <si>
+    <t>Цыбина Наталья Валерьевна</t>
+  </si>
+  <si>
+    <t>@NataliaTsybina</t>
+  </si>
+  <si>
+    <t>Краснотурьинск</t>
+  </si>
+  <si>
+    <t>Музалева Алла Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@museinlove </t>
+  </si>
+  <si>
+    <t>Да, являюсь клиентом банка более полугода</t>
+  </si>
+  <si>
+    <t>Фонарев Юрий Андреевич</t>
+  </si>
+  <si>
+    <t>https://t.me/OldSchoolla</t>
+  </si>
+  <si>
+    <t>Корепанова Алсу Фанилевна</t>
+  </si>
+  <si>
+    <t>@alsukorepanova</t>
+  </si>
+  <si>
+    <t>Шавейко Екатерина Геннадьевна</t>
+  </si>
+  <si>
+    <t>@K4372769</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2761,7 +2806,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2846,6 +2891,12 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -2867,7 +2918,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2965,6 +3016,9 @@
     </xf>
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3521,7 +3575,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3594,7 +3648,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3671,7 +3725,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -3744,7 +3798,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -21077,8 +21131,348 @@
         <v>30</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B290" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="C290" s="14">
+        <v>8.9033609064E10</v>
+      </c>
+      <c r="D290" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="F290" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G290" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H290" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="I290" s="14">
+        <f t="shared" ref="I290:I295" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
+        <v>0</v>
+      </c>
+      <c r="J290" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K290" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L290" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M290" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N290" s="13"/>
+      <c r="O290" s="13"/>
+      <c r="P290" s="13"/>
+      <c r="Q290" s="13"/>
+      <c r="R290" s="13"/>
+      <c r="S290" s="13"/>
+      <c r="T290" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U290" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="C291" s="14">
+        <v>8.9041647439E10</v>
+      </c>
+      <c r="D291" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E291" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F291" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="G291" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H291" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="I291" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J291" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K291" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L291" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M291" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N291" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O291" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P291" s="13"/>
+      <c r="Q291" s="13"/>
+      <c r="R291" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S291" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T291" s="13"/>
+      <c r="U291" s="13"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="C292" s="14">
+        <v>8.9267889966E10</v>
+      </c>
+      <c r="D292" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E292" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F292" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G292" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H292" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="I292" s="14">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="J292" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="K292" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L292" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="M292" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N292" s="13"/>
+      <c r="O292" s="13"/>
+      <c r="P292" s="13"/>
+      <c r="Q292" s="13"/>
+      <c r="R292" s="13"/>
+      <c r="S292" s="13"/>
+      <c r="T292" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U292" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="C293" s="14">
+        <v>8.9119208862E10</v>
+      </c>
+      <c r="D293" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E293" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F293" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G293" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H293" s="14">
+        <v>42.0</v>
+      </c>
+      <c r="I293" s="14">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="J293" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="K293" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="L293" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="M293" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N293" s="13"/>
+      <c r="O293" s="13"/>
+      <c r="P293" s="13"/>
+      <c r="Q293" s="13"/>
+      <c r="R293" s="13"/>
+      <c r="S293" s="13"/>
+      <c r="T293" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U293" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="C294" s="14">
+        <v>8.912766433E10</v>
+      </c>
+      <c r="D294" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E294" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F294" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="G294" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H294" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="I294" s="14">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J294" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K294" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L294" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="M294" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N294" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O294" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P294" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q294" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R294" s="13"/>
+      <c r="S294" s="13"/>
+      <c r="T294" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U294" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="C295" s="14">
+        <v>8.9219672734E10</v>
+      </c>
+      <c r="D295" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F295" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G295" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H295" s="14">
+        <v>49.0</v>
+      </c>
+      <c r="I295" s="32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J295" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K295" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L295" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M295" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N295" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O295" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P295" s="13"/>
+      <c r="Q295" s="13"/>
+      <c r="R295" s="13"/>
+      <c r="S295" s="13"/>
+      <c r="T295" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U295" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$289"/>
+  <autoFilter ref="$A$1:$AA$295"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -21215,8 +21609,9 @@
     <hyperlink r:id="rId107" ref="B278"/>
     <hyperlink r:id="rId108" ref="B282"/>
     <hyperlink r:id="rId109" ref="B288"/>
+    <hyperlink r:id="rId110" ref="B293"/>
   </hyperlinks>
-  <drawing r:id="rId110"/>
+  <drawing r:id="rId111"/>
 </worksheet>
 </file>
 
@@ -21232,84 +21627,84 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>866</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>867</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>868</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>869</v>
+      <c r="B2" s="35" t="s">
+        <v>881</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>882</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>870</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>871</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>872</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>873</v>
+      <c r="B3" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>886</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>887</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>874</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>875</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>876</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>877</v>
+      <c r="B5" s="35" t="s">
+        <v>889</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>890</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>891</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>878</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>879</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>880</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>881</v>
+      <c r="B6" s="35" t="s">
+        <v>893</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>894</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>895</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -21350,10 +21745,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
     </row>
     <row r="2">
@@ -21361,7 +21756,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3">
@@ -21369,7 +21764,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
@@ -21377,7 +21772,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6">
@@ -21385,7 +21780,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$295</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$296</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="905">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2646,9 +2646,6 @@
     <t xml:space="preserve">@museinlove </t>
   </si>
   <si>
-    <t>Да, являюсь клиентом банка более полугода</t>
-  </si>
-  <si>
     <t>Фонарев Юрий Андреевич</t>
   </si>
   <si>
@@ -2665,6 +2662,18 @@
   </si>
   <si>
     <t>@K4372769</t>
+  </si>
+  <si>
+    <t>Хисматулина Анастасия Владимировна</t>
+  </si>
+  <si>
+    <t>@nastyatat18</t>
+  </si>
+  <si>
+    <t>Кемеровская область</t>
+  </si>
+  <si>
+    <t>Анжеро-Судженск</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -2806,7 +2815,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2891,12 +2900,6 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -2918,7 +2921,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3016,9 +3019,6 @@
     </xf>
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -21157,7 +21157,7 @@
         <v>38.0</v>
       </c>
       <c r="I290" s="14">
-        <f t="shared" ref="I290:I295" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
+        <f t="shared" ref="I290:I296" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
         <v>0</v>
       </c>
       <c r="J290" s="13" t="s">
@@ -21270,16 +21270,16 @@
       </c>
       <c r="I292" s="14">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="J292" s="34" t="s">
-        <v>870</v>
+        <v>0</v>
+      </c>
+      <c r="J292" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="K292" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L292" s="34" t="s">
-        <v>870</v>
+      <c r="L292" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="M292" s="13" t="s">
         <v>27</v>
@@ -21299,10 +21299,10 @@
     </row>
     <row r="293">
       <c r="A293" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B293" s="20" t="s">
         <v>871</v>
-      </c>
-      <c r="B293" s="20" t="s">
-        <v>872</v>
       </c>
       <c r="C293" s="14">
         <v>8.9119208862E10</v>
@@ -21324,16 +21324,16 @@
       </c>
       <c r="I293" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="J293" s="34" t="s">
-        <v>870</v>
-      </c>
-      <c r="K293" s="34" t="s">
-        <v>870</v>
-      </c>
-      <c r="L293" s="34" t="s">
-        <v>870</v>
+        <v>0</v>
+      </c>
+      <c r="J293" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K293" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L293" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="M293" s="13" t="s">
         <v>27</v>
@@ -21353,10 +21353,10 @@
     </row>
     <row r="294">
       <c r="A294" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="B294" s="13" t="s">
         <v>873</v>
-      </c>
-      <c r="B294" s="13" t="s">
-        <v>874</v>
       </c>
       <c r="C294" s="14">
         <v>8.912766433E10</v>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="I294" s="14">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" s="13" t="s">
         <v>27</v>
@@ -21386,8 +21386,8 @@
       <c r="K294" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L294" s="34" t="s">
-        <v>870</v>
+      <c r="L294" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="M294" s="13" t="s">
         <v>27</v>
@@ -21415,10 +21415,10 @@
     </row>
     <row r="295">
       <c r="A295" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="B295" s="13" t="s">
         <v>875</v>
-      </c>
-      <c r="B295" s="13" t="s">
-        <v>876</v>
       </c>
       <c r="C295" s="14">
         <v>8.9219672734E10</v>
@@ -21471,8 +21471,70 @@
         <v>31</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C296" s="14">
+        <v>8.9235219706E10</v>
+      </c>
+      <c r="D296" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E296" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F296" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="G296" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H296" s="14">
+        <v>23.0</v>
+      </c>
+      <c r="I296" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J296" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K296" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L296" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M296" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N296" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O296" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P296" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q296" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R296" s="13"/>
+      <c r="S296" s="13"/>
+      <c r="T296" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U296" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$295"/>
+  <autoFilter ref="$A$1:$AA$296"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -21627,84 +21689,84 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>881</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>882</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>883</v>
-      </c>
-      <c r="E2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>884</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>886</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>885</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>886</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>887</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="35" t="s">
         <v>888</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>889</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>890</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>889</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>890</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>891</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>892</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>893</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>894</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>893</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>894</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>895</v>
-      </c>
-      <c r="E6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>896</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>897</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>898</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -21745,10 +21807,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2">
@@ -21756,7 +21818,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3">
@@ -21764,7 +21826,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="5">
@@ -21772,7 +21834,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6">
@@ -21780,7 +21842,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="905">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="X6" s="23">
         <f>COUNTIF(L:L, "Да")</f>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y6" s="22">
         <v>90.0</v>
@@ -21221,7 +21221,7 @@
         <v>48</v>
       </c>
       <c r="L291" s="13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M291" s="13" t="s">
         <v>48</v>
@@ -21234,12 +21234,8 @@
       </c>
       <c r="P291" s="13"/>
       <c r="Q291" s="13"/>
-      <c r="R291" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S291" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="R291" s="13"/>
+      <c r="S291" s="13"/>
       <c r="T291" s="13"/>
       <c r="U291" s="13"/>
     </row>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$296</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$301</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="919">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2674,6 +2674,48 @@
   </si>
   <si>
     <t>Анжеро-Судженск</t>
+  </si>
+  <si>
+    <t>Чепелева Мария Антоновна</t>
+  </si>
+  <si>
+    <t>@mrukly</t>
+  </si>
+  <si>
+    <t>Кретов Тимофей Николаевич</t>
+  </si>
+  <si>
+    <t>@tkretov</t>
+  </si>
+  <si>
+    <t>Крамаренко Анна Ивановна</t>
+  </si>
+  <si>
+    <t>@miasamr</t>
+  </si>
+  <si>
+    <t>Ростовская об</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>Макарычева Светлана Геннадьевна</t>
+  </si>
+  <si>
+    <t>@SvetlaniaM</t>
+  </si>
+  <si>
+    <t>Пошина Мария Викторовна</t>
+  </si>
+  <si>
+    <t>@Ruandil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хабаровский край </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хабаровск </t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3575,7 +3617,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3648,7 +3690,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3798,7 +3840,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -21157,7 +21199,7 @@
         <v>38.0</v>
       </c>
       <c r="I290" s="14">
-        <f t="shared" ref="I290:I296" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
+        <f t="shared" ref="I290:I301" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
         <v>0</v>
       </c>
       <c r="J290" s="13" t="s">
@@ -21529,8 +21571,286 @@
         <v>31</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="C297" s="14">
+        <v>8.9513761868E10</v>
+      </c>
+      <c r="D297" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F297" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G297" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H297" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="I297" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J297" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K297" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L297" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M297" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N297" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O297" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P297" s="13"/>
+      <c r="Q297" s="13"/>
+      <c r="R297" s="13"/>
+      <c r="S297" s="13"/>
+      <c r="T297" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U297" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="C298" s="14">
+        <v>8.965228295E10</v>
+      </c>
+      <c r="D298" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G298" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H298" s="14">
+        <v>39.0</v>
+      </c>
+      <c r="I298" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J298" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K298" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L298" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M298" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N298" s="13"/>
+      <c r="O298" s="13"/>
+      <c r="P298" s="13"/>
+      <c r="Q298" s="13"/>
+      <c r="R298" s="13"/>
+      <c r="S298" s="13"/>
+      <c r="T298" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U298" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="C299" s="14">
+        <v>8.9514944126E10</v>
+      </c>
+      <c r="D299" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E299" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="F299" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="G299" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H299" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="I299" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J299" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K299" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L299" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M299" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N299" s="13"/>
+      <c r="O299" s="13"/>
+      <c r="P299" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q299" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R299" s="13"/>
+      <c r="S299" s="13"/>
+      <c r="T299" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U299" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="C300" s="14">
+        <v>8.9035825849E10</v>
+      </c>
+      <c r="D300" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E300" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F300" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G300" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H300" s="14">
+        <v>45.0</v>
+      </c>
+      <c r="I300" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J300" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K300" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L300" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M300" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N300" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O300" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P300" s="13"/>
+      <c r="Q300" s="13"/>
+      <c r="R300" s="13"/>
+      <c r="S300" s="13"/>
+      <c r="T300" s="13"/>
+      <c r="U300" s="13"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="C301" s="14">
+        <v>8.924117729E10</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="F301" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="G301" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H301" s="14">
+        <v>50.0</v>
+      </c>
+      <c r="I301" s="32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J301" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K301" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L301" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M301" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N301" s="13"/>
+      <c r="O301" s="13"/>
+      <c r="P301" s="13"/>
+      <c r="Q301" s="13"/>
+      <c r="R301" s="13"/>
+      <c r="S301" s="13"/>
+      <c r="T301" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U301" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$296"/>
+  <autoFilter ref="$A$1:$AA$301"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -21547,7 +21867,7 @@
       <formula>NOT(ISERROR(SEARCH(("Нет, не готов предоставить запись аудиозвонка"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A6 A14:A18 A21:A22 A28:A993">
+  <conditionalFormatting sqref="A1:A6 A14:A18 A21:A22 A28:A992">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>COUNTIF(A:A,A1)&gt;=2</formula>
     </cfRule>
@@ -21685,16 +22005,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2">
@@ -21702,16 +22022,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3">
@@ -21719,16 +22039,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5">
@@ -21736,16 +22056,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6">
@@ -21753,16 +22073,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -21803,10 +22123,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2">
@@ -21814,7 +22134,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3">
@@ -21822,7 +22142,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5">
@@ -21830,7 +22150,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6">
@@ -21838,7 +22158,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$301</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$304</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4817" uniqueCount="925">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2716,6 +2716,24 @@
   </si>
   <si>
     <t xml:space="preserve">Хабаровск </t>
+  </si>
+  <si>
+    <t>Смирнова Оксана Юрьевна</t>
+  </si>
+  <si>
+    <t>@Oxikona13</t>
+  </si>
+  <si>
+    <t>Сатретдинова Ольга Александровна</t>
+  </si>
+  <si>
+    <t>@B_olga73</t>
+  </si>
+  <si>
+    <t>Гусев Евгений Леонидович</t>
+  </si>
+  <si>
+    <t>@TryToCatch</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3690,7 +3708,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3840,7 +3858,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -21199,7 +21217,7 @@
         <v>38.0</v>
       </c>
       <c r="I290" s="14">
-        <f t="shared" ref="I290:I301" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
+        <f t="shared" ref="I290:I304" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
         <v>0</v>
       </c>
       <c r="J290" s="13" t="s">
@@ -21849,8 +21867,178 @@
         <v>32</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="C302" s="14">
+        <v>8.9261469463E10</v>
+      </c>
+      <c r="D302" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F302" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G302" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H302" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="I302" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J302" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K302" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L302" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M302" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N302" s="13"/>
+      <c r="O302" s="13"/>
+      <c r="P302" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q302" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R302" s="13"/>
+      <c r="S302" s="13"/>
+      <c r="T302" s="13"/>
+      <c r="U302" s="13"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="C303" s="14">
+        <v>8.9278333779E10</v>
+      </c>
+      <c r="D303" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="F303" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G303" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H303" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="I303" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J303" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K303" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L303" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M303" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N303" s="13"/>
+      <c r="O303" s="13"/>
+      <c r="P303" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q303" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R303" s="13"/>
+      <c r="S303" s="13"/>
+      <c r="T303" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U303" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="C304" s="14">
+        <v>8.9647671522E10</v>
+      </c>
+      <c r="D304" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F304" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G304" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H304" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="I304" s="32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J304" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K304" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L304" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M304" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N304" s="13"/>
+      <c r="O304" s="13"/>
+      <c r="P304" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q304" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R304" s="13"/>
+      <c r="S304" s="13"/>
+      <c r="T304" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U304" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$301"/>
+  <autoFilter ref="$A$1:$AA$304"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -22005,16 +22193,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2">
@@ -22022,16 +22210,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3">
@@ -22039,16 +22227,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="5">
@@ -22056,16 +22244,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6">
@@ -22073,16 +22261,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -22123,10 +22311,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="2">
@@ -22134,7 +22322,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3">
@@ -22142,7 +22330,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5">
@@ -22150,7 +22338,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6">
@@ -22158,7 +22346,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
+++ b/ID-121125 - ВТБ КЦ - Для загрузки.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Описание сценариев" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$304</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Отобранные участники'!$A$1:$AA$305</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4817" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4833" uniqueCount="927">
   <si>
     <t>Укажите Ваши ФИО</t>
   </si>
@@ -2734,6 +2734,12 @@
   </si>
   <si>
     <t>@TryToCatch</t>
+  </si>
+  <si>
+    <t>Добролежа Юлия Владимировна</t>
+  </si>
+  <si>
+    <t>t.me/YULIYADOBRO</t>
   </si>
   <si>
     <t>Сбер</t>
@@ -3635,7 +3641,7 @@
       </c>
       <c r="X4" s="23">
         <f>COUNTIF(J:J, "Да")</f>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y4" s="22">
         <v>90.0</v>
@@ -3708,7 +3714,7 @@
       </c>
       <c r="X5" s="23">
         <f>COUNTIF(K:K, "Да")</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y5" s="22">
         <v>90.0</v>
@@ -3858,7 +3864,7 @@
       </c>
       <c r="X7" s="23">
         <f>COUNTIF(M:M, "Да")</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y7" s="22">
         <v>90.0</v>
@@ -21217,7 +21223,7 @@
         <v>38.0</v>
       </c>
       <c r="I290" s="14">
-        <f t="shared" ref="I290:I304" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
+        <f t="shared" ref="I290:I305" si="14">COUNTIF(J290:M290, "Да, являюсь клиентом банка более полугода") + COUNTIF(J290:M290, "Да, являюсь клиентом банка менее полугода")</f>
         <v>0</v>
       </c>
       <c r="J290" s="13" t="s">
@@ -22037,8 +22043,70 @@
         <v>32</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="B305" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="C305" s="14">
+        <v>8.9048221808E10</v>
+      </c>
+      <c r="D305" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E305" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="F305" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="G305" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H305" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="I305" s="32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J305" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K305" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L305" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M305" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N305" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O305" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P305" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q305" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R305" s="13"/>
+      <c r="S305" s="13"/>
+      <c r="T305" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U305" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AA$304"/>
+  <autoFilter ref="$A$1:$AA$305"/>
   <conditionalFormatting sqref="H19:H20 H23:H27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>18</formula>
@@ -22176,8 +22244,9 @@
     <hyperlink r:id="rId108" ref="B282"/>
     <hyperlink r:id="rId109" ref="B288"/>
     <hyperlink r:id="rId110" ref="B293"/>
+    <hyperlink r:id="rId111" ref="B305"/>
   </hyperlinks>
-  <drawing r:id="rId111"/>
+  <drawing r:id="rId112"/>
 </worksheet>
 </file>
 
@@ -22193,16 +22262,16 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="21" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2">
@@ -22210,16 +22279,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3">
@@ -22227,16 +22296,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5">
@@ -22244,16 +22313,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6">
@@ -22261,16 +22330,16 @@
         <v>30</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -22311,10 +22380,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2">
@@ -22322,7 +22391,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3">
@@ -22330,7 +22399,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5">
@@ -22338,7 +22407,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6">
@@ -22346,7 +22415,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
